--- a/src/data/wl-xlsx.xlsx
+++ b/src/data/wl-xlsx.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luyza\Documents\GitHub\ProSpectraWeb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luyza\OneDrive\Documentos\ProSpectraWeb\ProSpectraWeb\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDEECF7A-BEA1-48A9-AD00-BB63C0DE45E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E1C8A5B1-66CF-4208-B4A8-4E61C133F0E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="wl-csv" sheetId="1" r:id="rId1"/>
@@ -36,8 +35,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6468 +400,6468 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA12A73-722A-4D4E-BDD2-13474471791A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CDS1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:CDS1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2151" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2151">
       <c r="A1">
-        <v>0.121474623</v>
+        <v>-0.13697866452025509</v>
       </c>
       <c r="B1">
-        <v>0.133932196</v>
+        <v>-0.12679555022699451</v>
       </c>
       <c r="C1">
-        <v>0.121268559</v>
+        <v>-0.1398038847575806</v>
       </c>
       <c r="D1">
-        <v>0.13874772699999999</v>
+        <v>-0.1229766172956675</v>
       </c>
       <c r="E1">
-        <v>0.12438012699999999</v>
+        <v>-0.13743718175118899</v>
       </c>
       <c r="F1">
-        <v>0.108456447</v>
+        <v>-0.1525834707293052</v>
       </c>
       <c r="G1">
-        <v>0.12871453199999999</v>
+        <v>-0.1306472643118482</v>
       </c>
       <c r="H1">
-        <v>0.126831998</v>
+        <v>-0.12962034305594211</v>
       </c>
       <c r="I1">
-        <v>0.137450932</v>
+        <v>-0.12014034330154159</v>
       </c>
       <c r="J1">
-        <v>0.151274516</v>
+        <v>-0.1084659545582541</v>
       </c>
       <c r="K1">
-        <v>0.13558261599999999</v>
+        <v>-0.1202685969384602</v>
       </c>
       <c r="L1">
-        <v>0.12844921200000001</v>
+        <v>-0.12644498830254081</v>
       </c>
       <c r="M1">
-        <v>0.13253231400000001</v>
+        <v>-0.1224095928337641</v>
       </c>
       <c r="N1">
-        <v>0.14154193400000001</v>
+        <v>-0.1122293301381088</v>
       </c>
       <c r="O1">
-        <v>0.145687706</v>
+        <v>-0.1052909848522285</v>
       </c>
       <c r="P1">
-        <v>0.14246588399999999</v>
+        <v>-0.1053562154239064</v>
       </c>
       <c r="Q1">
-        <v>0.134444219</v>
+        <v>-0.1108234550914592</v>
       </c>
       <c r="R1">
-        <v>0.12752197200000001</v>
+        <v>-0.1160584076053596</v>
       </c>
       <c r="S1">
-        <v>0.13543986699999999</v>
+        <v>-0.1066733801755731</v>
       </c>
       <c r="T1">
-        <v>0.14434116899999999</v>
+        <v>-9.4397890997782702E-2</v>
       </c>
       <c r="U1">
-        <v>0.14441454300000001</v>
+        <v>-9.0047054216723127E-2</v>
       </c>
       <c r="V1">
-        <v>0.13193049800000001</v>
+        <v>-9.9504056415320952E-2</v>
       </c>
       <c r="W1">
-        <v>0.127977544</v>
+        <v>-0.1010060575257558</v>
       </c>
       <c r="X1">
-        <v>0.124396508</v>
+        <v>-0.1008950037146247</v>
       </c>
       <c r="Y1">
-        <v>0.122335953</v>
+        <v>-9.8589277149369367E-2</v>
       </c>
       <c r="Z1">
-        <v>0.13464430899999999</v>
+        <v>-8.4103812879682577E-2</v>
       </c>
       <c r="AA1">
-        <v>0.133954359</v>
+        <v>-8.0816147154347845E-2</v>
       </c>
       <c r="AB1">
-        <v>0.12873379600000001</v>
+        <v>-8.1734411097440313E-2</v>
       </c>
       <c r="AC1">
-        <v>0.12830519100000001</v>
+        <v>-7.8857098729141206E-2</v>
       </c>
       <c r="AD1">
-        <v>0.12775851899999999</v>
+        <v>-7.6075143815437563E-2</v>
       </c>
       <c r="AE1">
-        <v>0.127086957</v>
+        <v>-7.179763175071216E-2</v>
       </c>
       <c r="AF1">
-        <v>0.124105613</v>
+        <v>-6.9203214940104771E-2</v>
       </c>
       <c r="AG1">
-        <v>0.11703949600000001</v>
+        <v>-7.1686521389764876E-2</v>
       </c>
       <c r="AH1">
-        <v>0.107638917</v>
+        <v>-7.7402021191812276E-2</v>
       </c>
       <c r="AI1">
-        <v>0.104417844</v>
+        <v>-7.6790402125673771E-2</v>
       </c>
       <c r="AJ1">
-        <v>0.10572138</v>
+        <v>-7.1087194789190927E-2</v>
       </c>
       <c r="AK1">
-        <v>0.10242412200000001</v>
+        <v>-6.9665289825167884E-2</v>
       </c>
       <c r="AL1">
-        <v>0.10078914999999999</v>
+        <v>-6.7401857161142387E-2</v>
       </c>
       <c r="AM1">
-        <v>9.9032907000000003E-2</v>
+        <v>-6.5158661631809375E-2</v>
       </c>
       <c r="AN1">
-        <v>9.5818236000000001E-2</v>
+        <v>-6.4021919214126408E-2</v>
       </c>
       <c r="AO1">
-        <v>9.2561227999999995E-2</v>
+        <v>-6.423819533144666E-2</v>
       </c>
       <c r="AP1">
-        <v>8.9760230999999996E-2</v>
+        <v>-6.4895330161988493E-2</v>
       </c>
       <c r="AQ1">
-        <v>8.7834995999999999E-2</v>
+        <v>-6.4837448803149955E-2</v>
       </c>
       <c r="AR1">
-        <v>8.6709447999999995E-2</v>
+        <v>-6.3581070795795114E-2</v>
       </c>
       <c r="AS1">
-        <v>8.5130752000000004E-2</v>
+        <v>-6.3106627384006547E-2</v>
       </c>
       <c r="AT1">
-        <v>8.3697494999999997E-2</v>
+        <v>-6.2610917378257316E-2</v>
       </c>
       <c r="AU1">
-        <v>8.2829884000000006E-2</v>
+        <v>-6.1888416314074352E-2</v>
       </c>
       <c r="AV1">
-        <v>8.2742791999999996E-2</v>
+        <v>-6.1165483772411502E-2</v>
       </c>
       <c r="AW1">
-        <v>8.3685352000000005E-2</v>
+        <v>-5.8860825088809771E-2</v>
       </c>
       <c r="AX1">
-        <v>8.3155661000000006E-2</v>
+        <v>-5.7864836866662592E-2</v>
       </c>
       <c r="AY1">
-        <v>8.0784824000000005E-2</v>
+        <v>-5.8907597394816963E-2</v>
       </c>
       <c r="AZ1">
-        <v>8.0447719000000001E-2</v>
+        <v>-5.799427457930352E-2</v>
       </c>
       <c r="BA1">
-        <v>7.8790944000000002E-2</v>
+        <v>-5.8258030491504367E-2</v>
       </c>
       <c r="BB1">
-        <v>7.7043183000000001E-2</v>
+        <v>-5.8875435693353177E-2</v>
       </c>
       <c r="BC1">
-        <v>7.6937634000000005E-2</v>
+        <v>-5.8353898626824233E-2</v>
       </c>
       <c r="BD1">
-        <v>7.6939713000000007E-2</v>
+        <v>-5.7107904807266963E-2</v>
       </c>
       <c r="BE1">
-        <v>7.600614E-2</v>
+        <v>-5.6538243321053692E-2</v>
       </c>
       <c r="BF1">
-        <v>7.4256214000000001E-2</v>
+        <v>-5.6907361917798993E-2</v>
       </c>
       <c r="BG1">
-        <v>7.2657454999999996E-2</v>
+        <v>-5.754177270567308E-2</v>
       </c>
       <c r="BH1">
-        <v>7.1851054999999997E-2</v>
+        <v>-5.7534805218932172E-2</v>
       </c>
       <c r="BI1">
-        <v>7.2289587000000002E-2</v>
+        <v>-5.6192725069789028E-2</v>
       </c>
       <c r="BJ1">
-        <v>7.3119252999999995E-2</v>
+        <v>-5.4336084352633228E-2</v>
       </c>
       <c r="BK1">
-        <v>7.1329039999999996E-2</v>
+        <v>-5.5276815193443282E-2</v>
       </c>
       <c r="BL1">
-        <v>7.0711455000000006E-2</v>
+        <v>-5.4817924471133712E-2</v>
       </c>
       <c r="BM1">
-        <v>7.0805602999999995E-2</v>
+        <v>-5.3647803032605412E-2</v>
       </c>
       <c r="BN1">
-        <v>7.0112432000000002E-2</v>
+        <v>-5.3515627117446098E-2</v>
       </c>
       <c r="BO1">
-        <v>6.8048127999999999E-2</v>
+        <v>-5.4604905315327038E-2</v>
       </c>
       <c r="BP1">
-        <v>6.7061928000000007E-2</v>
+        <v>-5.4727063054667693E-2</v>
       </c>
       <c r="BQ1">
-        <v>6.7333671999999997E-2</v>
+        <v>-5.3701917924834967E-2</v>
       </c>
       <c r="BR1">
-        <v>6.7400884999999994E-2</v>
+        <v>-5.280664927948614E-2</v>
       </c>
       <c r="BS1">
-        <v>6.7044023999999994E-2</v>
+        <v>-5.2312685113718643E-2</v>
       </c>
       <c r="BT1">
-        <v>6.6739073999999995E-2</v>
+        <v>-5.1870908007319708E-2</v>
       </c>
       <c r="BU1">
-        <v>6.6612314000000006E-2</v>
+        <v>-5.1293147068033937E-2</v>
       </c>
       <c r="BV1">
-        <v>6.6015476000000003E-2</v>
+        <v>-5.0804880164940378E-2</v>
       </c>
       <c r="BW1">
-        <v>6.4981461000000004E-2</v>
+        <v>-5.093671143561708E-2</v>
       </c>
       <c r="BX1">
-        <v>6.4257815999999995E-2</v>
+        <v>-5.0885161149410413E-2</v>
       </c>
       <c r="BY1">
-        <v>6.4370645000000004E-2</v>
+        <v>-4.9931956977936953E-2</v>
       </c>
       <c r="BZ1">
-        <v>6.4069963999999993E-2</v>
+        <v>-4.9419784080919543E-2</v>
       </c>
       <c r="CA1">
-        <v>6.3515335000000006E-2</v>
+        <v>-4.918669214831585E-2</v>
       </c>
       <c r="CB1">
-        <v>6.2855369999999994E-2</v>
+        <v>-4.9109556313013031E-2</v>
       </c>
       <c r="CC1">
-        <v>6.2201581999999998E-2</v>
+        <v>-4.9119126958597832E-2</v>
       </c>
       <c r="CD1">
-        <v>6.1834186999999999E-2</v>
+        <v>-4.8924902820052678E-2</v>
       </c>
       <c r="CE1">
-        <v>6.1528935999999999E-2</v>
+        <v>-4.8677723344198197E-2</v>
       </c>
       <c r="CF1">
-        <v>6.1106801000000002E-2</v>
+        <v>-4.8549016884851963E-2</v>
       </c>
       <c r="CG1">
-        <v>6.0570517999999997E-2</v>
+        <v>-4.8663391256020837E-2</v>
       </c>
       <c r="CH1">
-        <v>6.0471919999999998E-2</v>
+        <v>-4.8476608564151057E-2</v>
       </c>
       <c r="CI1">
-        <v>6.0657716E-2</v>
+        <v>-4.8093959670360682E-2</v>
       </c>
       <c r="CJ1">
-        <v>6.075945E-2</v>
+        <v>-4.7836267245918003E-2</v>
       </c>
       <c r="CK1">
-        <v>6.0718599999999998E-2</v>
+        <v>-4.7842409218044737E-2</v>
       </c>
       <c r="CL1">
-        <v>6.0585849999999997E-2</v>
+        <v>-4.7972847293337312E-2</v>
       </c>
       <c r="CM1">
-        <v>6.0573360999999999E-2</v>
+        <v>-4.8051505363524268E-2</v>
       </c>
       <c r="CN1">
-        <v>6.1006615E-2</v>
+        <v>-4.7893644669425188E-2</v>
       </c>
       <c r="CO1">
-        <v>6.1861811000000003E-2</v>
+        <v>-4.7334920684863509E-2</v>
       </c>
       <c r="CP1">
-        <v>6.2719948999999997E-2</v>
+        <v>-4.6930323924334168E-2</v>
       </c>
       <c r="CQ1">
-        <v>6.3251199999999994E-2</v>
+        <v>-4.704071156106121E-2</v>
       </c>
       <c r="CR1">
-        <v>6.3354096999999998E-2</v>
+        <v>-4.7406023581945428E-2</v>
       </c>
       <c r="CS1">
-        <v>6.4274103999999999E-2</v>
+        <v>-4.7222683630319687E-2</v>
       </c>
       <c r="CT1">
-        <v>6.5340008000000005E-2</v>
+        <v>-4.7024174435058269E-2</v>
       </c>
       <c r="CU1">
-        <v>6.5477329000000001E-2</v>
+        <v>-4.7572166744873662E-2</v>
       </c>
       <c r="CV1">
-        <v>6.6363485999999999E-2</v>
+        <v>-4.734643644786253E-2</v>
       </c>
       <c r="CW1">
-        <v>6.7180138E-2</v>
+        <v>-4.721412182038584E-2</v>
       </c>
       <c r="CX1">
-        <v>6.7677174000000007E-2</v>
+        <v>-4.7379708204914162E-2</v>
       </c>
       <c r="CY1">
-        <v>6.8391581000000007E-2</v>
+        <v>-4.7171159040348493E-2</v>
       </c>
       <c r="CZ1">
-        <v>6.8930782999999995E-2</v>
+        <v>-4.7035566192947187E-2</v>
       </c>
       <c r="DA1">
-        <v>6.9286244999999996E-2</v>
+        <v>-4.6993901756197227E-2</v>
       </c>
       <c r="DB1">
-        <v>6.9536271999999996E-2</v>
+        <v>-4.6974766511655469E-2</v>
       </c>
       <c r="DC1">
-        <v>6.9748630000000006E-2</v>
+        <v>-4.6926159796272578E-2</v>
       </c>
       <c r="DD1">
-        <v>7.0046684999999997E-2</v>
+        <v>-4.6679617831942619E-2</v>
       </c>
       <c r="DE1">
-        <v>7.0209482000000004E-2</v>
+        <v>-4.6435578866371167E-2</v>
       </c>
       <c r="DF1">
-        <v>6.9932461000000001E-2</v>
+        <v>-4.6509334165778522E-2</v>
       </c>
       <c r="DG1">
-        <v>6.9724644000000002E-2</v>
+        <v>-4.6512739744333988E-2</v>
       </c>
       <c r="DH1">
-        <v>6.9428542999999995E-2</v>
+        <v>-4.6551897522734788E-2</v>
       </c>
       <c r="DI1">
-        <v>6.9054111000000001E-2</v>
+        <v>-4.6603111147724398E-2</v>
       </c>
       <c r="DJ1">
-        <v>6.8917914999999996E-2</v>
+        <v>-4.6409688710629338E-2</v>
       </c>
       <c r="DK1">
-        <v>6.9006606999999998E-2</v>
+        <v>-4.5965306125347737E-2</v>
       </c>
       <c r="DL1">
-        <v>6.8868294999999996E-2</v>
+        <v>-4.5740966706878231E-2</v>
       </c>
       <c r="DM1">
-        <v>6.8281456000000004E-2</v>
+        <v>-4.5984320305693417E-2</v>
       </c>
       <c r="DN1">
-        <v>6.8208438999999996E-2</v>
+        <v>-4.5747390029128851E-2</v>
       </c>
       <c r="DO1">
-        <v>6.8160018000000003E-2</v>
+        <v>-4.5549029872159683E-2</v>
       </c>
       <c r="DP1">
-        <v>6.8050103000000001E-2</v>
+        <v>-4.5417073704498163E-2</v>
       </c>
       <c r="DQ1">
-        <v>6.8051710000000001E-2</v>
+        <v>-4.5092875386990958E-2</v>
       </c>
       <c r="DR1">
-        <v>6.8059421999999994E-2</v>
+        <v>-4.4940621123035797E-2</v>
       </c>
       <c r="DS1">
-        <v>6.7790278999999995E-2</v>
+        <v>-4.5095724083391728E-2</v>
       </c>
       <c r="DT1">
-        <v>6.7451414000000001E-2</v>
+        <v>-4.5264306770293208E-2</v>
       </c>
       <c r="DU1">
-        <v>6.8176708000000003E-2</v>
+        <v>-4.4420964275455388E-2</v>
       </c>
       <c r="DV1">
-        <v>6.8449728000000001E-2</v>
+        <v>-4.4092397710305181E-2</v>
       </c>
       <c r="DW1">
-        <v>6.8300911000000006E-2</v>
+        <v>-4.4218563344734979E-2</v>
       </c>
       <c r="DX1">
-        <v>6.8209422000000006E-2</v>
+        <v>-4.4288021870959898E-2</v>
       </c>
       <c r="DY1">
-        <v>6.8223793000000005E-2</v>
+        <v>-4.429042608281801E-2</v>
       </c>
       <c r="DZ1">
-        <v>6.8176054999999999E-2</v>
+        <v>-4.4354804279522778E-2</v>
       </c>
       <c r="EA1">
-        <v>6.8124253999999995E-2</v>
+        <v>-4.4411566591620703E-2</v>
       </c>
       <c r="EB1">
-        <v>6.8312231000000001E-2</v>
+        <v>-4.4234464055891362E-2</v>
       </c>
       <c r="EC1">
-        <v>6.8603247000000006E-2</v>
+        <v>-4.4015394116681338E-2</v>
       </c>
       <c r="ED1">
-        <v>6.8902179999999993E-2</v>
+        <v>-4.3796717883723482E-2</v>
       </c>
       <c r="EE1">
-        <v>6.9148752999999993E-2</v>
+        <v>-4.36424656771109E-2</v>
       </c>
       <c r="EF1">
-        <v>6.9317522000000006E-2</v>
+        <v>-4.3759042660708791E-2</v>
       </c>
       <c r="EG1">
-        <v>6.9634292E-2</v>
+        <v>-4.3772817112465182E-2</v>
       </c>
       <c r="EH1">
-        <v>7.0104786000000002E-2</v>
+        <v>-4.3740337795251022E-2</v>
       </c>
       <c r="EI1">
-        <v>7.0623123999999995E-2</v>
+        <v>-4.3871272941342049E-2</v>
       </c>
       <c r="EJ1">
-        <v>7.0998965999999997E-2</v>
+        <v>-4.4153995671691017E-2</v>
       </c>
       <c r="EK1">
-        <v>7.1782504999999996E-2</v>
+        <v>-4.4196044159333051E-2</v>
       </c>
       <c r="EL1">
-        <v>7.2904486000000004E-2</v>
+        <v>-4.4084350342901507E-2</v>
       </c>
       <c r="EM1">
-        <v>7.3553595999999999E-2</v>
+        <v>-4.446216872804927E-2</v>
       </c>
       <c r="EN1">
-        <v>7.4467190000000003E-2</v>
+        <v>-4.4684125694271701E-2</v>
       </c>
       <c r="EO1">
-        <v>7.5542136999999995E-2</v>
+        <v>-4.4913577910666462E-2</v>
       </c>
       <c r="EP1">
-        <v>7.6592617000000002E-2</v>
+        <v>-4.5339666592534723E-2</v>
       </c>
       <c r="EQ1">
-        <v>7.7757735999999994E-2</v>
+        <v>-4.5677254737654729E-2</v>
       </c>
       <c r="ER1">
-        <v>7.9198698999999997E-2</v>
+        <v>-4.5864792704130193E-2</v>
       </c>
       <c r="ES1">
-        <v>8.0795888999999996E-2</v>
+        <v>-4.6031897744656478E-2</v>
       </c>
       <c r="ET1">
-        <v>8.2314924999999997E-2</v>
+        <v>-4.6378782554605723E-2</v>
       </c>
       <c r="EU1">
-        <v>8.4101644000000003E-2</v>
+        <v>-4.6608503213821831E-2</v>
       </c>
       <c r="EV1">
-        <v>8.5946622E-2</v>
+        <v>-4.6890311058346262E-2</v>
       </c>
       <c r="EW1">
-        <v>8.7763992999999998E-2</v>
+        <v>-4.7298531843171759E-2</v>
       </c>
       <c r="EX1">
-        <v>8.9767802999999993E-2</v>
+        <v>-4.7669200500911453E-2</v>
       </c>
       <c r="EY1">
-        <v>9.1786471999999994E-2</v>
+        <v>-4.8147075568342787E-2</v>
       </c>
       <c r="EZ1">
-        <v>9.3841332999999999E-2</v>
+        <v>-4.8661307929916083E-2</v>
       </c>
       <c r="FA1">
-        <v>9.6007261999999996E-2</v>
+        <v>-4.9093847923182173E-2</v>
       </c>
       <c r="FB1">
-        <v>9.8355712999999997E-2</v>
+        <v>-4.939536984546769E-2</v>
       </c>
       <c r="FC1">
-        <v>0.100692881</v>
+        <v>-4.9792975098959552E-2</v>
       </c>
       <c r="FD1">
-        <v>0.10296878800000001</v>
+        <v>-5.0306145548936927E-2</v>
       </c>
       <c r="FE1">
-        <v>0.105269892</v>
+        <v>-5.0769034963419363E-2</v>
       </c>
       <c r="FF1">
-        <v>0.107735779</v>
+        <v>-5.1093662899083681E-2</v>
       </c>
       <c r="FG1">
-        <v>0.110219662</v>
+        <v>-5.1380845178738657E-2</v>
       </c>
       <c r="FH1">
-        <v>0.112621845</v>
+        <v>-5.1701931241125043E-2</v>
       </c>
       <c r="FI1">
-        <v>0.11508012099999999</v>
+        <v>-5.1960922632150713E-2</v>
       </c>
       <c r="FJ1">
-        <v>0.117412461</v>
+        <v>-5.2303569416926057E-2</v>
       </c>
       <c r="FK1">
-        <v>0.11967449600000001</v>
+        <v>-5.2708842159463032E-2</v>
       </c>
       <c r="FL1">
-        <v>0.121998785</v>
+        <v>-5.3083203732477317E-2</v>
       </c>
       <c r="FM1">
-        <v>0.124343102</v>
+        <v>-5.3373949147317593E-2</v>
       </c>
       <c r="FN1">
-        <v>0.126615326</v>
+        <v>-5.3697506517202231E-2</v>
       </c>
       <c r="FO1">
-        <v>0.12874845400000001</v>
+        <v>-5.4106079037520627E-2</v>
       </c>
       <c r="FP1">
-        <v>0.130717783</v>
+        <v>-5.4555325234331292E-2</v>
       </c>
       <c r="FQ1">
-        <v>0.13265486300000001</v>
+        <v>-5.4873084718568547E-2</v>
       </c>
       <c r="FR1">
-        <v>0.13448939100000001</v>
+        <v>-5.5083170064033488E-2</v>
       </c>
       <c r="FS1">
-        <v>0.13612236999999999</v>
+        <v>-5.5273762803115689E-2</v>
       </c>
       <c r="FT1">
-        <v>0.13751981299999999</v>
+        <v>-5.5563863774603622E-2</v>
       </c>
       <c r="FU1">
-        <v>0.1388219</v>
+        <v>-5.5834031382168969E-2</v>
       </c>
       <c r="FV1">
-        <v>0.14005513</v>
+        <v>-5.6073172811410221E-2</v>
       </c>
       <c r="FW1">
-        <v>0.14117026399999999</v>
+        <v>-5.6336400094151307E-2</v>
       </c>
       <c r="FX1">
-        <v>0.14216682899999999</v>
+        <v>-5.65741916499512E-2</v>
       </c>
       <c r="FY1">
-        <v>0.14303425</v>
+        <v>-5.6784359253761657E-2</v>
       </c>
       <c r="FZ1">
-        <v>0.14377626800000001</v>
+        <v>-5.696810152623108E-2</v>
       </c>
       <c r="GA1">
-        <v>0.14441605800000001</v>
+        <v>-5.7121327884378403E-2</v>
       </c>
       <c r="GB1">
-        <v>0.14497749300000001</v>
+        <v>-5.7240854920221351E-2</v>
       </c>
       <c r="GC1">
-        <v>0.145473507</v>
+        <v>-5.7336855376392708E-2</v>
       </c>
       <c r="GD1">
-        <v>0.14589903200000001</v>
+        <v>-5.742712012857365E-2</v>
       </c>
       <c r="GE1">
-        <v>0.14619189099999999</v>
+        <v>-5.7550085160551379E-2</v>
       </c>
       <c r="GF1">
-        <v>0.14642247999999999</v>
+        <v>-5.7602146971674179E-2</v>
       </c>
       <c r="GG1">
-        <v>0.14663390000000001</v>
+        <v>-5.7572863653711337E-2</v>
       </c>
       <c r="GH1">
-        <v>0.14683418400000001</v>
+        <v>-5.7548759060486697E-2</v>
       </c>
       <c r="GI1">
-        <v>0.14703298200000001</v>
+        <v>-5.7552965765739462E-2</v>
       </c>
       <c r="GJ1">
-        <v>0.14724167399999999</v>
+        <v>-5.7552069158453067E-2</v>
       </c>
       <c r="GK1">
-        <v>0.14744299499999999</v>
+        <v>-5.753577761557771E-2</v>
       </c>
       <c r="GL1">
-        <v>0.14754073300000001</v>
+        <v>-5.7603901311146649E-2</v>
       </c>
       <c r="GM1">
-        <v>0.14764175399999999</v>
+        <v>-5.7611295950758902E-2</v>
       </c>
       <c r="GN1">
-        <v>0.14775359199999999</v>
+        <v>-5.7561701702216E-2</v>
       </c>
       <c r="GO1">
-        <v>0.14783601800000001</v>
+        <v>-5.7527434859944132E-2</v>
       </c>
       <c r="GP1">
-        <v>0.147915455</v>
+        <v>-5.7445486975602728E-2</v>
       </c>
       <c r="GQ1">
-        <v>0.147965981</v>
+        <v>-5.7369042212581822E-2</v>
       </c>
       <c r="GR1">
-        <v>0.14799441399999999</v>
+        <v>-5.7297302157593571E-2</v>
       </c>
       <c r="GS1">
-        <v>0.14807073500000001</v>
+        <v>-5.7127588773387313E-2</v>
       </c>
       <c r="GT1">
-        <v>0.14802317400000001</v>
+        <v>-5.6999188080881703E-2</v>
       </c>
       <c r="GU1">
-        <v>0.14780180200000001</v>
+        <v>-5.6938915888804509E-2</v>
       </c>
       <c r="GV1">
-        <v>0.14741891400000001</v>
+        <v>-5.6925964665897361E-2</v>
       </c>
       <c r="GW1">
-        <v>0.14695561600000001</v>
+        <v>-5.6909176362984232E-2</v>
       </c>
       <c r="GX1">
-        <v>0.14643128999999999</v>
+        <v>-5.6832057225137067E-2</v>
       </c>
       <c r="GY1">
-        <v>0.145781362</v>
+        <v>-5.6743471730599987E-2</v>
       </c>
       <c r="GZ1">
-        <v>0.14489450000000001</v>
+        <v>-5.6768485131861168E-2</v>
       </c>
       <c r="HA1">
-        <v>0.14410767499999999</v>
+        <v>-5.6720751015357417E-2</v>
       </c>
       <c r="HB1">
-        <v>0.14336137099999999</v>
+        <v>-5.6696596103423202E-2</v>
       </c>
       <c r="HC1">
-        <v>0.142589827</v>
+        <v>-5.6758790190934022E-2</v>
       </c>
       <c r="HD1">
-        <v>0.14190148599999999</v>
+        <v>-5.6780607127714849E-2</v>
       </c>
       <c r="HE1">
-        <v>0.14126113000000001</v>
+        <v>-5.6712288688734652E-2</v>
       </c>
       <c r="HF1">
-        <v>0.14061886900000001</v>
+        <v>-5.6578116146853791E-2</v>
       </c>
       <c r="HG1">
-        <v>0.13992439500000001</v>
+        <v>-5.6433917537219817E-2</v>
       </c>
       <c r="HH1">
-        <v>0.13920845900000001</v>
+        <v>-5.6248926045789627E-2</v>
       </c>
       <c r="HI1">
-        <v>0.138457363</v>
+        <v>-5.6033681846335559E-2</v>
       </c>
       <c r="HJ1">
-        <v>0.13768209000000001</v>
+        <v>-5.5789657943374621E-2</v>
       </c>
       <c r="HK1">
-        <v>0.13693091099999999</v>
+        <v>-5.5502554018110939E-2</v>
       </c>
       <c r="HL1">
-        <v>0.13618836100000001</v>
+        <v>-5.5212114540743179E-2</v>
       </c>
       <c r="HM1">
-        <v>0.13541726700000001</v>
+        <v>-5.4999302231862557E-2</v>
       </c>
       <c r="HN1">
-        <v>0.13457565599999999</v>
+        <v>-5.4925218320039187E-2</v>
       </c>
       <c r="HO1">
-        <v>0.13363135200000001</v>
+        <v>-5.4943993504856292E-2</v>
       </c>
       <c r="HP1">
-        <v>0.132579749</v>
+        <v>-5.504996505909826E-2</v>
       </c>
       <c r="HQ1">
-        <v>0.13148430799999999</v>
+        <v>-5.5169412157876269E-2</v>
       </c>
       <c r="HR1">
-        <v>0.130459728</v>
+        <v>-5.5180367364418142E-2</v>
       </c>
       <c r="HS1">
-        <v>0.12958213299999999</v>
+        <v>-5.5027611982923053E-2</v>
       </c>
       <c r="HT1">
-        <v>0.12882992800000001</v>
+        <v>-5.4780238306286949E-2</v>
       </c>
       <c r="HU1">
-        <v>0.12816434900000001</v>
+        <v>-5.4510720398921193E-2</v>
       </c>
       <c r="HV1">
-        <v>0.12756609699999999</v>
+        <v>-5.4246729444117153E-2</v>
       </c>
       <c r="HW1">
-        <v>0.126971309</v>
+        <v>-5.4006037818666058E-2</v>
       </c>
       <c r="HX1">
-        <v>0.12638079599999999</v>
+        <v>-5.377970902567894E-2</v>
       </c>
       <c r="HY1">
-        <v>0.12580961600000001</v>
+        <v>-5.3546783045281932E-2</v>
       </c>
       <c r="HZ1">
-        <v>0.12518865300000001</v>
+        <v>-5.3312042373051483E-2</v>
       </c>
       <c r="IA1">
-        <v>0.124551285</v>
+        <v>-5.3037667379323639E-2</v>
       </c>
       <c r="IB1">
-        <v>0.123910373</v>
+        <v>-5.2734628724055002E-2</v>
       </c>
       <c r="IC1">
-        <v>0.123248816</v>
+        <v>-5.2468461806709277E-2</v>
       </c>
       <c r="ID1">
-        <v>0.122534737</v>
+        <v>-5.2246877822530617E-2</v>
       </c>
       <c r="IE1">
-        <v>0.121789226</v>
+        <v>-5.2078827183827239E-2</v>
       </c>
       <c r="IF1">
-        <v>0.121070947</v>
+        <v>-5.196808613150844E-2</v>
       </c>
       <c r="IG1">
-        <v>0.120499155</v>
+        <v>-5.1909476675289702E-2</v>
       </c>
       <c r="IH1">
-        <v>0.12000135200000001</v>
+        <v>-5.1909905175336182E-2</v>
       </c>
       <c r="II1">
-        <v>0.119559384</v>
+        <v>-5.1930755922253123E-2</v>
       </c>
       <c r="IJ1">
-        <v>0.119182257</v>
+        <v>-5.191852569908452E-2</v>
       </c>
       <c r="IK1">
-        <v>0.118821631</v>
+        <v>-5.1955736312511228E-2</v>
       </c>
       <c r="IL1">
-        <v>0.118516206</v>
+        <v>-5.1970881699798438E-2</v>
       </c>
       <c r="IM1">
-        <v>0.118285852</v>
+        <v>-5.1913498535924349E-2</v>
       </c>
       <c r="IN1">
-        <v>0.118109994</v>
+        <v>-5.1793424729652579E-2</v>
       </c>
       <c r="IO1">
-        <v>0.117869034</v>
+        <v>-5.1708178130117403E-2</v>
       </c>
       <c r="IP1">
-        <v>0.11752717999999999</v>
+        <v>-5.1660932362828933E-2</v>
       </c>
       <c r="IQ1">
-        <v>0.11709939900000001</v>
+        <v>-5.1619871343282858E-2</v>
       </c>
       <c r="IR1">
-        <v>0.116664635</v>
+        <v>-5.1568692027357602E-2</v>
       </c>
       <c r="IS1">
-        <v>0.116170606</v>
+        <v>-5.1503197157182198E-2</v>
       </c>
       <c r="IT1">
-        <v>0.11561492600000001</v>
+        <v>-5.1414433463163253E-2</v>
       </c>
       <c r="IU1">
-        <v>0.115041671</v>
+        <v>-5.1290498421731452E-2</v>
       </c>
       <c r="IV1">
-        <v>0.11440207099999999</v>
+        <v>-5.1161746743486107E-2</v>
       </c>
       <c r="IW1">
-        <v>0.113657256</v>
+        <v>-5.104138616921243E-2</v>
       </c>
       <c r="IX1">
-        <v>0.112829638</v>
+        <v>-5.0909680022661649E-2</v>
       </c>
       <c r="IY1">
-        <v>0.112087598</v>
+        <v>-5.0670782319842088E-2</v>
       </c>
       <c r="IZ1">
-        <v>0.11133713000000001</v>
+        <v>-5.0426331789936163E-2</v>
       </c>
       <c r="JA1">
-        <v>0.11052306200000001</v>
+        <v>-5.0229126106618803E-2</v>
       </c>
       <c r="JB1">
-        <v>0.109625243</v>
+        <v>-5.0092624800602031E-2</v>
       </c>
       <c r="JC1">
-        <v>0.108748912</v>
+        <v>-4.9928390296431563E-2</v>
       </c>
       <c r="JD1">
-        <v>0.10788429500000001</v>
+        <v>-4.9782271185540808E-2</v>
       </c>
       <c r="JE1">
-        <v>0.107032079</v>
+        <v>-4.9648249076397921E-2</v>
       </c>
       <c r="JF1">
-        <v>0.106222461</v>
+        <v>-4.9432625296973939E-2</v>
       </c>
       <c r="JG1">
-        <v>0.105460136</v>
+        <v>-4.926215239347409E-2</v>
       </c>
       <c r="JH1">
-        <v>0.104745645</v>
+        <v>-4.9131284579218962E-2</v>
       </c>
       <c r="JI1">
-        <v>0.10407285300000001</v>
+        <v>-4.9004973123916877E-2</v>
       </c>
       <c r="JJ1">
-        <v>0.103417949</v>
+        <v>-4.8889457995707389E-2</v>
       </c>
       <c r="JK1">
-        <v>0.102856353</v>
+        <v>-4.8756428392110203E-2</v>
       </c>
       <c r="JL1">
-        <v>0.102364647</v>
+        <v>-4.8630187885962198E-2</v>
       </c>
       <c r="JM1">
-        <v>0.10185546600000001</v>
+        <v>-4.8565978501158423E-2</v>
       </c>
       <c r="JN1">
-        <v>0.101404097</v>
+        <v>-4.8505614676344573E-2</v>
       </c>
       <c r="JO1">
-        <v>0.10109253</v>
+        <v>-4.8382586923072422E-2</v>
       </c>
       <c r="JP1">
-        <v>0.100915924</v>
+        <v>-4.8208251162871391E-2</v>
       </c>
       <c r="JQ1">
-        <v>0.100701798</v>
+        <v>-4.8148995906773087E-2</v>
       </c>
       <c r="JR1">
-        <v>0.10045786499999999</v>
+        <v>-4.8126919209174293E-2</v>
       </c>
       <c r="JS1">
-        <v>0.100217055</v>
+        <v>-4.8111167059909553E-2</v>
       </c>
       <c r="JT1">
-        <v>0.100014425</v>
+        <v>-4.8086367316324971E-2</v>
       </c>
       <c r="JU1">
-        <v>9.9817628000000005E-2</v>
+        <v>-4.8047075611789183E-2</v>
       </c>
       <c r="JV1">
-        <v>9.9517164000000005E-2</v>
+        <v>-4.8020229868777298E-2</v>
       </c>
       <c r="JW1">
-        <v>9.9112204999999995E-2</v>
+        <v>-4.7978833846462052E-2</v>
       </c>
       <c r="JX1">
-        <v>9.8714148000000002E-2</v>
+        <v>-4.7843526284144212E-2</v>
       </c>
       <c r="JY1">
-        <v>9.8110939999999994E-2</v>
+        <v>-4.776566086440065E-2</v>
       </c>
       <c r="JZ1">
-        <v>9.7343479999999996E-2</v>
+        <v>-4.7675437895633568E-2</v>
       </c>
       <c r="KA1">
-        <v>9.6467889000000001E-2</v>
+        <v>-4.7515551897445107E-2</v>
       </c>
       <c r="KB1">
-        <v>9.5402504999999999E-2</v>
+        <v>-4.741651204069966E-2</v>
       </c>
       <c r="KC1">
-        <v>9.4287475999999995E-2</v>
+        <v>-4.7208532522813512E-2</v>
       </c>
       <c r="KD1">
-        <v>9.309386E-2</v>
+        <v>-4.6938173203903373E-2</v>
       </c>
       <c r="KE1">
-        <v>9.1725017000000006E-2</v>
+        <v>-4.6742065811014102E-2</v>
       </c>
       <c r="KF1">
-        <v>9.0355432999999999E-2</v>
+        <v>-4.6456762323152989E-2</v>
       </c>
       <c r="KG1">
-        <v>8.8939213000000003E-2</v>
+        <v>-4.6156318948391173E-2</v>
       </c>
       <c r="KH1">
-        <v>8.7459255999999999E-2</v>
+        <v>-4.5867049139421912E-2</v>
       </c>
       <c r="KI1">
-        <v>8.5976336E-2</v>
+        <v>-4.5507913707910908E-2</v>
       </c>
       <c r="KJ1">
-        <v>8.4518435000000003E-2</v>
+        <v>-4.5120623178172711E-2</v>
       </c>
       <c r="KK1">
-        <v>8.3091993000000003E-2</v>
+        <v>-4.4753261276815857E-2</v>
       </c>
       <c r="KL1">
-        <v>8.1717411000000004E-2</v>
+        <v>-4.4438843975420993E-2</v>
       </c>
       <c r="KM1">
-        <v>8.0488552000000005E-2</v>
+        <v>-4.4145309500422267E-2</v>
       </c>
       <c r="KN1">
-        <v>7.9441031999999995E-2</v>
+        <v>-4.3848418860467392E-2</v>
       </c>
       <c r="KO1">
-        <v>7.8540688999999997E-2</v>
+        <v>-4.3568759218311513E-2</v>
       </c>
       <c r="KP1">
-        <v>7.7703221000000003E-2</v>
+        <v>-4.3355578589060847E-2</v>
       </c>
       <c r="KQ1">
-        <v>7.6917259000000002E-2</v>
+        <v>-4.3185450295586791E-2</v>
       </c>
       <c r="KR1">
-        <v>7.6155764000000001E-2</v>
+        <v>-4.2976870856969329E-2</v>
       </c>
       <c r="KS1">
-        <v>7.5384068999999998E-2</v>
+        <v>-4.2684272721969022E-2</v>
       </c>
       <c r="KT1">
-        <v>7.4557462000000005E-2</v>
+        <v>-4.2343222533236767E-2</v>
       </c>
       <c r="KU1">
-        <v>7.3606106000000004E-2</v>
+        <v>-4.2010445194520997E-2</v>
       </c>
       <c r="KV1">
-        <v>7.2509538999999998E-2</v>
+        <v>-4.1682663837950079E-2</v>
       </c>
       <c r="KW1">
-        <v>7.1277225E-2</v>
+        <v>-4.132243841842452E-2</v>
       </c>
       <c r="KX1">
-        <v>6.9934378000000005E-2</v>
+        <v>-4.0869724346187117E-2</v>
       </c>
       <c r="KY1">
-        <v>6.8505189999999994E-2</v>
+        <v>-4.0348926932446523E-2</v>
       </c>
       <c r="KZ1">
-        <v>6.6990712999999993E-2</v>
+        <v>-3.9812516202209949E-2</v>
       </c>
       <c r="LA1">
-        <v>6.5372844999999999E-2</v>
+        <v>-3.9328876776396543E-2</v>
       </c>
       <c r="LB1">
-        <v>6.3804982999999996E-2</v>
+        <v>-3.8786048009956907E-2</v>
       </c>
       <c r="LC1">
-        <v>6.2305912999999997E-2</v>
+        <v>-3.8230060513449453E-2</v>
       </c>
       <c r="LD1">
-        <v>6.0882922999999999E-2</v>
+        <v>-3.7713938282298527E-2</v>
       </c>
       <c r="LE1">
-        <v>5.9589077999999997E-2</v>
+        <v>-3.721621760611793E-2</v>
       </c>
       <c r="LF1">
-        <v>5.8439853E-2</v>
+        <v>-3.6756824304555603E-2</v>
       </c>
       <c r="LG1">
-        <v>5.7435021000000003E-2</v>
+        <v>-3.635842618196012E-2</v>
       </c>
       <c r="LH1">
-        <v>5.6571621000000002E-2</v>
+        <v>-3.6036341825733988E-2</v>
       </c>
       <c r="LI1">
-        <v>5.5911474000000003E-2</v>
+        <v>-3.5740625638170161E-2</v>
       </c>
       <c r="LJ1">
-        <v>5.5421814999999999E-2</v>
+        <v>-3.5501958943527888E-2</v>
       </c>
       <c r="LK1">
-        <v>5.5080104999999997E-2</v>
+        <v>-3.5331581549838717E-2</v>
       </c>
       <c r="LL1">
-        <v>5.4890563000000003E-2</v>
+        <v>-3.5205679489134223E-2</v>
       </c>
       <c r="LM1">
-        <v>5.4848301000000002E-2</v>
+        <v>-3.5121271162534662E-2</v>
       </c>
       <c r="LN1">
-        <v>5.4925393000000003E-2</v>
+        <v>-3.5103107067238792E-2</v>
       </c>
       <c r="LO1">
-        <v>5.5120488000000002E-2</v>
+        <v>-3.5159177415125469E-2</v>
       </c>
       <c r="LP1">
-        <v>5.5534841000000001E-2</v>
+        <v>-3.5203408049858241E-2</v>
       </c>
       <c r="LQ1">
-        <v>5.6080151000000002E-2</v>
+        <v>-3.5405778035484323E-2</v>
       </c>
       <c r="LR1">
-        <v>5.6844284000000002E-2</v>
+        <v>-3.5747680604827643E-2</v>
       </c>
       <c r="LS1">
-        <v>5.8008764999999997E-2</v>
+        <v>-3.6111771487729302E-2</v>
       </c>
       <c r="LT1">
-        <v>5.9498943999999998E-2</v>
+        <v>-3.6660129391830623E-2</v>
       </c>
       <c r="LU1">
-        <v>6.1430535000000001E-2</v>
+        <v>-3.7349835682995117E-2</v>
       </c>
       <c r="LV1">
-        <v>6.3869296000000006E-2</v>
+        <v>-3.8160076220127202E-2</v>
       </c>
       <c r="LW1">
-        <v>6.6770212999999995E-2</v>
+        <v>-3.9146814286815927E-2</v>
       </c>
       <c r="LX1">
-        <v>7.0183410000000002E-2</v>
+        <v>-4.026049587044489E-2</v>
       </c>
       <c r="LY1">
-        <v>7.4107865999999994E-2</v>
+        <v>-4.1475703141998763E-2</v>
       </c>
       <c r="LZ1">
-        <v>7.8523082999999994E-2</v>
+        <v>-4.2762426991994881E-2</v>
       </c>
       <c r="MA1">
-        <v>8.3424156999999999E-2</v>
+        <v>-4.4058114940345817E-2</v>
       </c>
       <c r="MB1">
-        <v>8.8643257000000003E-2</v>
+        <v>-4.5351816596450913E-2</v>
       </c>
       <c r="MC1">
-        <v>9.4066465000000002E-2</v>
+        <v>-4.6606580976019427E-2</v>
       </c>
       <c r="MD1">
-        <v>9.9623248999999997E-2</v>
+        <v>-4.7764145241250111E-2</v>
       </c>
       <c r="ME1">
-        <v>0.105187321</v>
+        <v>-4.8778608247771749E-2</v>
       </c>
       <c r="MF1">
-        <v>0.110683668</v>
+        <v>-4.9678917355180548E-2</v>
       </c>
       <c r="MG1">
-        <v>0.116038971</v>
+        <v>-5.0511842282751893E-2</v>
       </c>
       <c r="MH1">
-        <v>0.121147727</v>
+        <v>-5.1340788599823793E-2</v>
       </c>
       <c r="MI1">
-        <v>0.12607164200000001</v>
+        <v>-5.2034751333134843E-2</v>
       </c>
       <c r="MJ1">
-        <v>0.130722646</v>
+        <v>-5.2613145763278302E-2</v>
       </c>
       <c r="MK1">
-        <v>0.13499905400000001</v>
+        <v>-5.3136690745355153E-2</v>
       </c>
       <c r="ML1">
-        <v>0.13896481599999999</v>
+        <v>-5.3588765173218422E-2</v>
       </c>
       <c r="MM1">
-        <v>0.142623097</v>
+        <v>-5.4025852492172538E-2</v>
       </c>
       <c r="MN1">
-        <v>0.14598687699999999</v>
+        <v>-5.4475956491975147E-2</v>
       </c>
       <c r="MO1">
-        <v>0.14908316299999999</v>
+        <v>-5.4939325332812761E-2</v>
       </c>
       <c r="MP1">
-        <v>0.15191415999999999</v>
+        <v>-5.5408880032460917E-2</v>
       </c>
       <c r="MQ1">
-        <v>0.15447957900000001</v>
+        <v>-5.5877144197867677E-2</v>
       </c>
       <c r="MR1">
-        <v>0.156806578</v>
+        <v>-5.6337326243271257E-2</v>
       </c>
       <c r="MS1">
-        <v>0.15895458800000001</v>
+        <v>-5.6790237974445268E-2</v>
       </c>
       <c r="MT1">
-        <v>0.161007763</v>
+        <v>-5.7191042516234657E-2</v>
       </c>
       <c r="MU1">
-        <v>0.162937843</v>
+        <v>-5.7590972967570042E-2</v>
       </c>
       <c r="MV1">
-        <v>0.16469057500000001</v>
+        <v>-5.805302912080168E-2</v>
       </c>
       <c r="MW1">
-        <v>0.166370305</v>
+        <v>-5.8498094997076977E-2</v>
       </c>
       <c r="MX1">
-        <v>0.16794305900000001</v>
+        <v>-5.8946530134952928E-2</v>
       </c>
       <c r="MY1">
-        <v>0.16940321999999999</v>
+        <v>-5.9401536800431233E-2</v>
       </c>
       <c r="MZ1">
-        <v>0.170780244</v>
+        <v>-5.9839234296999277E-2</v>
       </c>
       <c r="NA1">
-        <v>0.172046903</v>
+        <v>-6.0134246622600862E-2</v>
       </c>
       <c r="NB1">
-        <v>0.17308310499999999</v>
+        <v>-6.0126110564490298E-2</v>
       </c>
       <c r="NC1">
-        <v>0.17385345699999999</v>
+        <v>-5.9788947475188682E-2</v>
       </c>
       <c r="ND1">
-        <v>0.17450790199999999</v>
+        <v>-5.932821039560382E-2</v>
       </c>
       <c r="NE1">
-        <v>0.175298077</v>
+        <v>-5.9226254624387631E-2</v>
       </c>
       <c r="NF1">
-        <v>0.17634435000000001</v>
+        <v>-5.9753289330670867E-2</v>
       </c>
       <c r="NG1">
-        <v>0.177631976</v>
+        <v>-6.0919488312398629E-2</v>
       </c>
       <c r="NH1">
-        <v>0.178916873</v>
+        <v>-6.2164565536136328E-2</v>
       </c>
       <c r="NI1">
-        <v>0.179771295</v>
+        <v>-6.2806709746486333E-2</v>
       </c>
       <c r="NJ1">
-        <v>0.180237274</v>
+        <v>-6.2835780156668436E-2</v>
       </c>
       <c r="NK1">
-        <v>0.18081759999999999</v>
+        <v>-6.2914195808272261E-2</v>
       </c>
       <c r="NL1">
-        <v>0.18147993400000001</v>
+        <v>-6.3367558576660737E-2</v>
       </c>
       <c r="NM1">
-        <v>0.18212242000000001</v>
+        <v>-6.3971703798662821E-2</v>
       </c>
       <c r="NN1">
-        <v>0.18266722399999999</v>
+        <v>-6.4488147680595853E-2</v>
       </c>
       <c r="NO1">
-        <v>0.18314715600000001</v>
+        <v>-6.4939116118738593E-2</v>
       </c>
       <c r="NP1">
-        <v>0.18358986899999999</v>
+        <v>-6.5456880360727859E-2</v>
       </c>
       <c r="NQ1">
-        <v>0.184045502</v>
+        <v>-6.6176138377792848E-2</v>
       </c>
       <c r="NR1">
-        <v>0.18456951799999999</v>
+        <v>-6.7177589787572434E-2</v>
       </c>
       <c r="NS1">
-        <v>0.18522168899999999</v>
+        <v>-6.8327248241111915E-2</v>
       </c>
       <c r="NT1">
-        <v>0.18576663600000001</v>
+        <v>-6.9316710593760295E-2</v>
       </c>
       <c r="NU1">
-        <v>0.18609853400000001</v>
+        <v>-6.998509412934853E-2</v>
       </c>
       <c r="NV1">
-        <v>0.18627073199999999</v>
+        <v>-7.0353372995791752E-2</v>
       </c>
       <c r="NW1">
-        <v>0.18650064599999999</v>
+        <v>-7.0782934342289328E-2</v>
       </c>
       <c r="NX1">
-        <v>0.18676262599999999</v>
+        <v>-7.1251413320436108E-2</v>
       </c>
       <c r="NY1">
-        <v>0.18700909299999999</v>
+        <v>-7.1700525707498214E-2</v>
       </c>
       <c r="NZ1">
-        <v>0.187257863</v>
+        <v>-7.2177169794111762E-2</v>
       </c>
       <c r="OA1">
-        <v>0.18754083599999999</v>
+        <v>-7.2645416973419696E-2</v>
       </c>
       <c r="OB1">
-        <v>0.18785086400000001</v>
+        <v>-7.3149732711295185E-2</v>
       </c>
       <c r="OC1">
-        <v>0.18815681300000001</v>
+        <v>-7.372933749952415E-2</v>
       </c>
       <c r="OD1">
-        <v>0.18840667</v>
+        <v>-7.4264162483815704E-2</v>
       </c>
       <c r="OE1">
-        <v>0.18861482800000001</v>
+        <v>-7.4673539148478213E-2</v>
       </c>
       <c r="OF1">
-        <v>0.18878157600000001</v>
+        <v>-7.4987835061168212E-2</v>
       </c>
       <c r="OG1">
-        <v>0.18889278400000001</v>
+        <v>-7.5321996312335604E-2</v>
       </c>
       <c r="OH1">
-        <v>0.188956653</v>
+        <v>-7.5549096233574226E-2</v>
       </c>
       <c r="OI1">
-        <v>0.18896489799999999</v>
+        <v>-7.5660523561816961E-2</v>
       </c>
       <c r="OJ1">
-        <v>0.18892869700000001</v>
+        <v>-7.5704996673996772E-2</v>
       </c>
       <c r="OK1">
-        <v>0.18889887</v>
+        <v>-7.579518893099349E-2</v>
       </c>
       <c r="OL1">
-        <v>0.188883411</v>
+        <v>-7.5952263064876735E-2</v>
       </c>
       <c r="OM1">
-        <v>0.18888857100000001</v>
+        <v>-7.6143429711488159E-2</v>
       </c>
       <c r="ON1">
-        <v>0.18890548400000001</v>
+        <v>-7.6306254199559498E-2</v>
       </c>
       <c r="OO1">
-        <v>0.188890101</v>
+        <v>-7.6372837564924856E-2</v>
       </c>
       <c r="OP1">
-        <v>0.18881397699999999</v>
+        <v>-7.6460228487639309E-2</v>
       </c>
       <c r="OQ1">
-        <v>0.18862150599999999</v>
+        <v>-7.6325467910811712E-2</v>
       </c>
       <c r="OR1">
-        <v>0.18812316000000001</v>
+        <v>-7.5276029461489202E-2</v>
       </c>
       <c r="OS1">
-        <v>0.18595471999999999</v>
+        <v>-7.0999257408753125E-2</v>
       </c>
       <c r="OT1">
-        <v>0.18287236500000001</v>
+        <v>-6.4733925684912902E-2</v>
       </c>
       <c r="OU1">
-        <v>0.18035126700000001</v>
+        <v>-5.9377119185698712E-2</v>
       </c>
       <c r="OV1">
-        <v>0.18047096600000001</v>
+        <v>-5.9526421923236823E-2</v>
       </c>
       <c r="OW1">
-        <v>0.181040478</v>
+        <v>-6.0912533491050441E-2</v>
       </c>
       <c r="OX1">
-        <v>0.18170821000000001</v>
+        <v>-6.2593161747606235E-2</v>
       </c>
       <c r="OY1">
-        <v>0.18265696000000001</v>
+        <v>-6.4712694603051679E-2</v>
       </c>
       <c r="OZ1">
-        <v>0.18404346699999999</v>
+        <v>-6.785780170717684E-2</v>
       </c>
       <c r="PA1">
-        <v>0.185410087</v>
+        <v>-7.0984742780526439E-2</v>
       </c>
       <c r="PB1">
-        <v>0.18646571000000001</v>
+        <v>-7.3434317294544332E-2</v>
       </c>
       <c r="PC1">
-        <v>0.18707859499999999</v>
+        <v>-7.4912268190961501E-2</v>
       </c>
       <c r="PD1">
-        <v>0.187370224</v>
+        <v>-7.5708269146416235E-2</v>
       </c>
       <c r="PE1">
-        <v>0.18748917600000001</v>
+        <v>-7.6111861064003333E-2</v>
       </c>
       <c r="PF1">
-        <v>0.187529733</v>
+        <v>-7.6345587627917044E-2</v>
       </c>
       <c r="PG1">
-        <v>0.18751100300000001</v>
+        <v>-7.6534088056055105E-2</v>
       </c>
       <c r="PH1">
-        <v>0.187501478</v>
+        <v>-7.6588328733266736E-2</v>
       </c>
       <c r="PI1">
-        <v>0.18749443199999999</v>
+        <v>-7.661720777780992E-2</v>
       </c>
       <c r="PJ1">
-        <v>0.18747720600000001</v>
+        <v>-7.6706186351106959E-2</v>
       </c>
       <c r="PK1">
-        <v>0.187482393</v>
+        <v>-7.6777021614545526E-2</v>
       </c>
       <c r="PL1">
-        <v>0.187449053</v>
+        <v>-7.6787766038974331E-2</v>
       </c>
       <c r="PM1">
-        <v>0.187398704</v>
+        <v>-7.6782930993660209E-2</v>
       </c>
       <c r="PN1">
-        <v>0.18737862499999999</v>
+        <v>-7.6835729436387723E-2</v>
       </c>
       <c r="PO1">
-        <v>0.187359729</v>
+        <v>-7.6942955510733602E-2</v>
       </c>
       <c r="PP1">
-        <v>0.18735859799999999</v>
+        <v>-7.7000261768668393E-2</v>
       </c>
       <c r="PQ1">
-        <v>0.187348659</v>
+        <v>-7.6989540413585467E-2</v>
       </c>
       <c r="PR1">
-        <v>0.18727375299999999</v>
+        <v>-7.6977581473988088E-2</v>
       </c>
       <c r="PS1">
-        <v>0.18725391599999999</v>
+        <v>-7.6982480816914473E-2</v>
       </c>
       <c r="PT1">
-        <v>0.18721748199999999</v>
+        <v>-7.6947368367564717E-2</v>
       </c>
       <c r="PU1">
-        <v>0.18711829399999999</v>
+        <v>-7.6812716671621623E-2</v>
       </c>
       <c r="PV1">
-        <v>0.18701557399999999</v>
+        <v>-7.653269880143973E-2</v>
       </c>
       <c r="PW1">
-        <v>0.186849138</v>
+        <v>-7.6288468959202133E-2</v>
       </c>
       <c r="PX1">
-        <v>0.18671363799999999</v>
+        <v>-7.6121985940658415E-2</v>
       </c>
       <c r="PY1">
-        <v>0.186697632</v>
+        <v>-7.6021853207973722E-2</v>
       </c>
       <c r="PZ1">
-        <v>0.18669345700000001</v>
+        <v>-7.5969316941534526E-2</v>
       </c>
       <c r="QA1">
-        <v>0.186735763</v>
+        <v>-7.5956375805638104E-2</v>
       </c>
       <c r="QB1">
-        <v>0.18678898499999999</v>
+        <v>-7.5998872137363699E-2</v>
       </c>
       <c r="QC1">
-        <v>0.18678549</v>
+        <v>-7.611028768532227E-2</v>
       </c>
       <c r="QD1">
-        <v>0.18673231700000001</v>
+        <v>-7.6180418260198474E-2</v>
       </c>
       <c r="QE1">
-        <v>0.18677363299999999</v>
+        <v>-7.6290186978490854E-2</v>
       </c>
       <c r="QF1">
-        <v>0.18689518599999999</v>
+        <v>-7.6433067505068564E-2</v>
       </c>
       <c r="QG1">
-        <v>0.18689278400000001</v>
+        <v>-7.6480452120254561E-2</v>
       </c>
       <c r="QH1">
-        <v>0.186834268</v>
+        <v>-7.6327803077439693E-2</v>
       </c>
       <c r="QI1">
-        <v>0.18675376099999999</v>
+        <v>-7.6155381891127416E-2</v>
       </c>
       <c r="QJ1">
-        <v>0.18667557400000001</v>
+        <v>-7.6111696351658681E-2</v>
       </c>
       <c r="QK1">
-        <v>0.186603571</v>
+        <v>-7.6132399032294434E-2</v>
       </c>
       <c r="QL1">
-        <v>0.186599816</v>
+        <v>-7.6180131491913911E-2</v>
       </c>
       <c r="QM1">
-        <v>0.18664191799999999</v>
+        <v>-7.6316493810472119E-2</v>
       </c>
       <c r="QN1">
-        <v>0.18667708999999999</v>
+        <v>-7.6557763560374137E-2</v>
       </c>
       <c r="QO1">
-        <v>0.186693731</v>
+        <v>-7.6604121170507383E-2</v>
       </c>
       <c r="QP1">
-        <v>0.18658480699999999</v>
+        <v>-7.6424369245929547E-2</v>
       </c>
       <c r="QQ1">
-        <v>0.18636771199999999</v>
+        <v>-7.606443149174727E-2</v>
       </c>
       <c r="QR1">
-        <v>0.18613494</v>
+        <v>-7.5613518327011575E-2</v>
       </c>
       <c r="QS1">
-        <v>0.18583149400000001</v>
+        <v>-7.5078461169576644E-2</v>
       </c>
       <c r="QT1">
-        <v>0.18532280000000001</v>
+        <v>-7.4299816418668785E-2</v>
       </c>
       <c r="QU1">
-        <v>0.18459298599999999</v>
+        <v>-7.3178759713117075E-2</v>
       </c>
       <c r="QV1">
-        <v>0.183786326</v>
+        <v>-7.1732451401188141E-2</v>
       </c>
       <c r="QW1">
-        <v>0.18304888599999999</v>
+        <v>-7.039037774541021E-2</v>
       </c>
       <c r="QX1">
-        <v>0.182514329</v>
+        <v>-6.9412638394465098E-2</v>
       </c>
       <c r="QY1">
-        <v>0.18224294099999999</v>
+        <v>-6.8949611331354188E-2</v>
       </c>
       <c r="QZ1">
-        <v>0.18216167899999999</v>
+        <v>-6.9041030182467267E-2</v>
       </c>
       <c r="RA1">
-        <v>0.18231671199999999</v>
+        <v>-6.9607104634657302E-2</v>
       </c>
       <c r="RB1">
-        <v>0.18256468200000001</v>
+        <v>-7.030404976787144E-2</v>
       </c>
       <c r="RC1">
-        <v>0.18264946200000001</v>
+        <v>-7.0650064512858629E-2</v>
       </c>
       <c r="RD1">
-        <v>0.18214750499999999</v>
+        <v>-6.9997006413687696E-2</v>
       </c>
       <c r="RE1">
-        <v>0.181601964</v>
+        <v>-6.9343670809759589E-2</v>
       </c>
       <c r="RF1">
-        <v>0.181413512</v>
+        <v>-6.9380074178934686E-2</v>
       </c>
       <c r="RG1">
-        <v>0.18171014999999999</v>
+        <v>-7.0294756754678167E-2</v>
       </c>
       <c r="RH1">
-        <v>0.18168937299999999</v>
+        <v>-7.0805464338277058E-2</v>
       </c>
       <c r="RI1">
-        <v>0.181255205</v>
+        <v>-7.0592017070778862E-2</v>
       </c>
       <c r="RJ1">
-        <v>0.18056751400000001</v>
+        <v>-6.9858736770593705E-2</v>
       </c>
       <c r="RK1">
-        <v>0.17996928400000001</v>
+        <v>-6.9261139771897517E-2</v>
       </c>
       <c r="RL1">
-        <v>0.17946720299999999</v>
+        <v>-6.8986969831637518E-2</v>
       </c>
       <c r="RM1">
-        <v>0.17903666700000001</v>
+        <v>-6.8855487880909727E-2</v>
       </c>
       <c r="RN1">
-        <v>0.17865648000000001</v>
+        <v>-6.8706694015328751E-2</v>
       </c>
       <c r="RO1">
-        <v>0.178342794</v>
+        <v>-6.8610327544522121E-2</v>
       </c>
       <c r="RP1">
-        <v>0.178165197</v>
+        <v>-6.8671882443134796E-2</v>
       </c>
       <c r="RQ1">
-        <v>0.17807295200000001</v>
+        <v>-6.8883915033486565E-2</v>
       </c>
       <c r="RR1">
-        <v>0.17798620000000001</v>
+        <v>-6.9162433873741214E-2</v>
       </c>
       <c r="RS1">
-        <v>0.17787537</v>
+        <v>-6.9332088449217039E-2</v>
       </c>
       <c r="RT1">
-        <v>0.177782896</v>
+        <v>-6.9426217558539449E-2</v>
       </c>
       <c r="RU1">
-        <v>0.177698258</v>
+        <v>-6.9485048864867976E-2</v>
       </c>
       <c r="RV1">
-        <v>0.177591317</v>
+        <v>-6.9536254292826061E-2</v>
       </c>
       <c r="RW1">
-        <v>0.17749559200000001</v>
+        <v>-6.9504279767271276E-2</v>
       </c>
       <c r="RX1">
-        <v>0.17738694299999999</v>
+        <v>-6.9413689352589597E-2</v>
       </c>
       <c r="RY1">
-        <v>0.17726070999999999</v>
+        <v>-6.9308277690991182E-2</v>
       </c>
       <c r="RZ1">
-        <v>0.17713489299999999</v>
+        <v>-6.9235908485373143E-2</v>
       </c>
       <c r="SA1">
-        <v>0.177049014</v>
+        <v>-6.9177301083335307E-2</v>
       </c>
       <c r="SB1">
-        <v>0.17691201500000001</v>
+        <v>-6.9151057698315532E-2</v>
       </c>
       <c r="SC1">
-        <v>0.17668666299999999</v>
+        <v>-6.9080771958636711E-2</v>
       </c>
       <c r="SD1">
-        <v>0.17643888599999999</v>
+        <v>-6.8762875374568044E-2</v>
       </c>
       <c r="SE1">
-        <v>0.17617156</v>
+        <v>-6.8323418139912079E-2</v>
       </c>
       <c r="SF1">
-        <v>0.175910493</v>
+        <v>-6.7926721929015998E-2</v>
       </c>
       <c r="SG1">
-        <v>0.17567386600000001</v>
+        <v>-6.7638031365497731E-2</v>
       </c>
       <c r="SH1">
-        <v>0.17546258100000001</v>
+        <v>-6.7278978374667397E-2</v>
       </c>
       <c r="SI1">
-        <v>0.175141301</v>
+        <v>-6.6807968805792872E-2</v>
       </c>
       <c r="SJ1">
-        <v>0.174824127</v>
+        <v>-6.6385694381962485E-2</v>
       </c>
       <c r="SK1">
-        <v>0.17468314800000001</v>
+        <v>-6.6246748564827151E-2</v>
       </c>
       <c r="SL1">
-        <v>0.17475557999999999</v>
+        <v>-6.6607425867442088E-2</v>
       </c>
       <c r="SM1">
-        <v>0.174893523</v>
+        <v>-6.7071203107041205E-2</v>
       </c>
       <c r="SN1">
-        <v>0.17495397700000001</v>
+        <v>-6.7388004433212384E-2</v>
       </c>
       <c r="SO1">
-        <v>0.174846694</v>
+        <v>-6.7451248830553506E-2</v>
       </c>
       <c r="SP1">
-        <v>0.17470961300000001</v>
+        <v>-6.7366263975736695E-2</v>
       </c>
       <c r="SQ1">
-        <v>0.174553441</v>
+        <v>-6.7259735402399184E-2</v>
       </c>
       <c r="SR1">
-        <v>0.17440508299999999</v>
+        <v>-6.7129699146294658E-2</v>
       </c>
       <c r="SS1">
-        <v>0.17428210699999999</v>
+        <v>-6.6870126773019511E-2</v>
       </c>
       <c r="ST1">
-        <v>0.173922568</v>
+        <v>-6.6533445491675253E-2</v>
       </c>
       <c r="SU1">
-        <v>0.17351428299999999</v>
+        <v>-6.6054797063002713E-2</v>
       </c>
       <c r="SV1">
-        <v>0.17318939</v>
+        <v>-6.5541284686208817E-2</v>
       </c>
       <c r="SW1">
-        <v>0.17292466500000001</v>
+        <v>-6.5318032924651215E-2</v>
       </c>
       <c r="SX1">
-        <v>0.17280989799999999</v>
+        <v>-6.5382426044635705E-2</v>
       </c>
       <c r="SY1">
-        <v>0.172806814</v>
+        <v>-6.5565387254552659E-2</v>
       </c>
       <c r="SZ1">
-        <v>0.17280200300000001</v>
+        <v>-6.5705298551864633E-2</v>
       </c>
       <c r="TA1">
-        <v>0.17260170599999999</v>
+        <v>-6.5750099178889104E-2</v>
       </c>
       <c r="TB1">
-        <v>0.17238841999999999</v>
+        <v>-6.563710378413487E-2</v>
       </c>
       <c r="TC1">
-        <v>0.17217189899999999</v>
+        <v>-6.5433287805267887E-2</v>
       </c>
       <c r="TD1">
-        <v>0.17192121099999999</v>
+        <v>-6.5234034971132754E-2</v>
       </c>
       <c r="TE1">
-        <v>0.17162680999999999</v>
+        <v>-6.5090002175571537E-2</v>
       </c>
       <c r="TF1">
-        <v>0.17140492099999999</v>
+        <v>-6.4897745865238415E-2</v>
       </c>
       <c r="TG1">
-        <v>0.17119065999999999</v>
+        <v>-6.4693932757261929E-2</v>
       </c>
       <c r="TH1">
-        <v>0.17088615600000001</v>
+        <v>-6.4536676440962587E-2</v>
       </c>
       <c r="TI1">
-        <v>0.17060725299999999</v>
+        <v>-6.4308845763426242E-2</v>
       </c>
       <c r="TJ1">
-        <v>0.17023529900000001</v>
+        <v>-6.4145296747914277E-2</v>
       </c>
       <c r="TK1">
-        <v>0.16985672900000001</v>
+        <v>-6.4003791047306413E-2</v>
       </c>
       <c r="TL1">
-        <v>0.16963618799999999</v>
+        <v>-6.3764843874634075E-2</v>
       </c>
       <c r="TM1">
-        <v>0.169424238</v>
+        <v>-6.3542827830687848E-2</v>
       </c>
       <c r="TN1">
-        <v>0.16915285799999999</v>
+        <v>-6.3343849581605716E-2</v>
       </c>
       <c r="TO1">
-        <v>0.16882978400000001</v>
+        <v>-6.313800862802868E-2</v>
       </c>
       <c r="TP1">
-        <v>0.168519366</v>
+        <v>-6.2882621201228645E-2</v>
       </c>
       <c r="TQ1">
-        <v>0.168213592</v>
+        <v>-6.2640929810098361E-2</v>
       </c>
       <c r="TR1">
-        <v>0.167923551</v>
+        <v>-6.2416063453795301E-2</v>
       </c>
       <c r="TS1">
-        <v>0.16762629300000001</v>
+        <v>-6.2193590829750123E-2</v>
       </c>
       <c r="TT1">
-        <v>0.167261783</v>
+        <v>-6.1944143482667691E-2</v>
       </c>
       <c r="TU1">
-        <v>0.16681832199999999</v>
+        <v>-6.159122402111275E-2</v>
       </c>
       <c r="TV1">
-        <v>0.16631666000000001</v>
+        <v>-6.1066263108601748E-2</v>
       </c>
       <c r="TW1">
-        <v>0.16575279000000001</v>
+        <v>-6.0355742337416557E-2</v>
       </c>
       <c r="TX1">
-        <v>0.16507440300000001</v>
+        <v>-5.9521850895198958E-2</v>
       </c>
       <c r="TY1">
-        <v>0.164338124</v>
+        <v>-5.8612151174422533E-2</v>
       </c>
       <c r="TZ1">
-        <v>0.163568088</v>
+        <v>-5.7712691965069729E-2</v>
       </c>
       <c r="UA1">
-        <v>0.162819831</v>
+        <v>-5.6887557989728693E-2</v>
       </c>
       <c r="UB1">
-        <v>0.16222504400000001</v>
+        <v>-5.6129752472992567E-2</v>
       </c>
       <c r="UC1">
-        <v>0.16172035900000001</v>
+        <v>-5.5612497850448167E-2</v>
       </c>
       <c r="UD1">
-        <v>0.16137375900000001</v>
+        <v>-5.5353305842372517E-2</v>
       </c>
       <c r="UE1">
-        <v>0.16122399200000001</v>
+        <v>-5.5324390010314639E-2</v>
       </c>
       <c r="UF1">
-        <v>0.16113522</v>
+        <v>-5.5556298573908813E-2</v>
       </c>
       <c r="UG1">
-        <v>0.161094603</v>
+        <v>-5.5823241514148518E-2</v>
       </c>
       <c r="UH1">
-        <v>0.16100493199999999</v>
+        <v>-5.5985619295313899E-2</v>
       </c>
       <c r="UI1">
-        <v>0.16075888999999999</v>
+        <v>-5.5954822074525512E-2</v>
       </c>
       <c r="UJ1">
-        <v>0.16031063000000001</v>
+        <v>-5.5673467405758993E-2</v>
       </c>
       <c r="UK1">
-        <v>0.15976832099999999</v>
+        <v>-5.5173417789176477E-2</v>
       </c>
       <c r="UL1">
-        <v>0.159201386</v>
+        <v>-5.4588225580275179E-2</v>
       </c>
       <c r="UM1">
-        <v>0.15865188199999999</v>
+        <v>-5.4087818100588707E-2</v>
       </c>
       <c r="UN1">
-        <v>0.15814320500000001</v>
+        <v>-5.3759584421435802E-2</v>
       </c>
       <c r="UO1">
-        <v>0.15770503399999999</v>
+        <v>-5.3520501840810968E-2</v>
       </c>
       <c r="UP1">
-        <v>0.15728541500000001</v>
+        <v>-5.3320594490221029E-2</v>
       </c>
       <c r="UQ1">
-        <v>0.15680661000000001</v>
+        <v>-5.313160991158819E-2</v>
       </c>
       <c r="UR1">
-        <v>0.156361687</v>
+        <v>-5.2876490969421569E-2</v>
       </c>
       <c r="US1">
-        <v>0.15583783400000001</v>
+        <v>-5.2725607036177242E-2</v>
       </c>
       <c r="UT1">
-        <v>0.15531541300000001</v>
+        <v>-5.2665094133013263E-2</v>
       </c>
       <c r="UU1">
-        <v>0.15498420900000001</v>
+        <v>-5.255479569444349E-2</v>
       </c>
       <c r="UV1">
-        <v>0.154654561</v>
+        <v>-5.2525580973932839E-2</v>
       </c>
       <c r="UW1">
-        <v>0.15425904800000001</v>
+        <v>-5.2523038188842658E-2</v>
       </c>
       <c r="UX1">
-        <v>0.15377011400000001</v>
+        <v>-5.2493578607835323E-2</v>
       </c>
       <c r="UY1">
-        <v>0.15318209999999999</v>
+        <v>-5.2404358844735849E-2</v>
       </c>
       <c r="UZ1">
-        <v>0.15241432999999999</v>
+        <v>-5.2250570102493649E-2</v>
       </c>
       <c r="VA1">
-        <v>0.15154219199999999</v>
+        <v>-5.1933351961992218E-2</v>
       </c>
       <c r="VB1">
-        <v>0.15058042999999999</v>
+        <v>-5.1433102979690337E-2</v>
       </c>
       <c r="VC1">
-        <v>0.14945981899999999</v>
+        <v>-5.082706994107769E-2</v>
       </c>
       <c r="VD1">
-        <v>0.14819105299999999</v>
+        <v>-5.0128244007411671E-2</v>
       </c>
       <c r="VE1">
-        <v>0.14675079299999999</v>
+        <v>-4.9334071222243807E-2</v>
       </c>
       <c r="VF1">
-        <v>0.145176992</v>
+        <v>-4.8406400257873961E-2</v>
       </c>
       <c r="VG1">
-        <v>0.14357811300000001</v>
+        <v>-4.7284736248059817E-2</v>
       </c>
       <c r="VH1">
-        <v>0.14187149800000001</v>
+        <v>-4.614508478908666E-2</v>
       </c>
       <c r="VI1">
-        <v>0.14013717000000001</v>
+        <v>-4.504871882806516E-2</v>
       </c>
       <c r="VJ1">
-        <v>0.13845022900000001</v>
+        <v>-4.4052529558193831E-2</v>
       </c>
       <c r="VK1">
-        <v>0.136833975</v>
+        <v>-4.3230147416104842E-2</v>
       </c>
       <c r="VL1">
-        <v>0.13532419400000001</v>
+        <v>-4.2576867020747512E-2</v>
       </c>
       <c r="VM1">
-        <v>0.133927089</v>
+        <v>-4.2115096480241532E-2</v>
       </c>
       <c r="VN1">
-        <v>0.13262645100000001</v>
+        <v>-4.1834713122432643E-2</v>
       </c>
       <c r="VO1">
-        <v>0.13138838799999999</v>
+        <v>-4.167226914446176E-2</v>
       </c>
       <c r="VP1">
-        <v>0.13014483600000001</v>
+        <v>-4.1556934536220717E-2</v>
       </c>
       <c r="VQ1">
-        <v>0.12880713399999999</v>
+        <v>-4.1506506184706582E-2</v>
       </c>
       <c r="VR1">
-        <v>0.127410352</v>
+        <v>-4.1437782853891457E-2</v>
       </c>
       <c r="VS1">
-        <v>0.126191146</v>
+        <v>-4.106643847049643E-2</v>
       </c>
       <c r="VT1">
-        <v>0.12465467</v>
+        <v>-4.0842832998122941E-2</v>
       </c>
       <c r="VU1">
-        <v>0.122956249</v>
+        <v>-4.0615942964995592E-2</v>
       </c>
       <c r="VV1">
-        <v>0.121300819</v>
+        <v>-4.0223709312666507E-2</v>
       </c>
       <c r="VW1">
-        <v>0.119657943</v>
+        <v>-3.9782069355107599E-2</v>
       </c>
       <c r="VX1">
-        <v>0.117955327</v>
+        <v>-3.9369735995277863E-2</v>
       </c>
       <c r="VY1">
-        <v>0.116199391</v>
+        <v>-3.8993646348452003E-2</v>
       </c>
       <c r="VZ1">
-        <v>0.114403219</v>
+        <v>-3.8639268620731942E-2</v>
       </c>
       <c r="WA1">
-        <v>0.11254119899999999</v>
+        <v>-3.8300241062218437E-2</v>
       </c>
       <c r="WB1">
-        <v>0.110636836</v>
+        <v>-3.7926256919156527E-2</v>
       </c>
       <c r="WC1">
-        <v>0.10869714900000001</v>
+        <v>-3.754511802593602E-2</v>
       </c>
       <c r="WD1">
-        <v>0.10672792</v>
+        <v>-3.7192900908666671E-2</v>
       </c>
       <c r="WE1">
-        <v>0.104738968</v>
+        <v>-3.6873625846725919E-2</v>
       </c>
       <c r="WF1">
-        <v>0.10285469999999999</v>
+        <v>-3.6496823688428298E-2</v>
       </c>
       <c r="WG1">
-        <v>0.101097937</v>
+        <v>-3.6101826066641238E-2</v>
       </c>
       <c r="WH1">
-        <v>9.9467571000000005E-2</v>
+        <v>-3.5742557407604507E-2</v>
       </c>
       <c r="WI1">
-        <v>9.7983372999999999E-2</v>
+        <v>-3.5410665302481978E-2</v>
       </c>
       <c r="WJ1">
-        <v>9.6617468999999997E-2</v>
+        <v>-3.5168878995061159E-2</v>
       </c>
       <c r="WK1">
-        <v>9.5359309000000003E-2</v>
+        <v>-3.5003474088754143E-2</v>
       </c>
       <c r="WL1">
-        <v>9.4245806000000001E-2</v>
+        <v>-3.4860151652340958E-2</v>
       </c>
       <c r="WM1">
-        <v>9.3401839E-2</v>
+        <v>-3.4652788354447343E-2</v>
       </c>
       <c r="WN1">
-        <v>9.2686564999999999E-2</v>
+        <v>-3.4467177424447659E-2</v>
       </c>
       <c r="WO1">
-        <v>9.2140292999999998E-2</v>
+        <v>-3.4289425507954233E-2</v>
       </c>
       <c r="WP1">
-        <v>9.1752782000000005E-2</v>
+        <v>-3.4126140255222273E-2</v>
       </c>
       <c r="WQ1">
-        <v>9.1311764000000004E-2</v>
+        <v>-3.4082344909404719E-2</v>
       </c>
       <c r="WR1">
-        <v>9.0899598999999998E-2</v>
+        <v>-3.4082984187402743E-2</v>
       </c>
       <c r="WS1">
-        <v>9.0607846000000006E-2</v>
+        <v>-3.404427882650958E-2</v>
       </c>
       <c r="WT1">
-        <v>9.0448097000000005E-2</v>
+        <v>-3.3942633134467333E-2</v>
       </c>
       <c r="WU1">
-        <v>9.0266271999999995E-2</v>
+        <v>-3.3876943031836727E-2</v>
       </c>
       <c r="WV1">
-        <v>9.0063351E-2</v>
+        <v>-3.3818535466772208E-2</v>
       </c>
       <c r="WW1">
-        <v>8.9782911000000007E-2</v>
+        <v>-3.3818392890449023E-2</v>
       </c>
       <c r="WX1">
-        <v>8.9479447000000004E-2</v>
+        <v>-3.3842235623304809E-2</v>
       </c>
       <c r="WY1">
-        <v>8.9415555999999993E-2</v>
+        <v>-3.367518855631263E-2</v>
       </c>
       <c r="WZ1">
-        <v>8.9232741000000004E-2</v>
+        <v>-3.3623851953926462E-2</v>
       </c>
       <c r="XA1">
-        <v>8.9047018000000006E-2</v>
+        <v>-3.3618457026536618E-2</v>
       </c>
       <c r="XB1">
-        <v>8.8998738999999993E-2</v>
+        <v>-3.3557554491328613E-2</v>
       </c>
       <c r="XC1">
-        <v>8.9048845000000001E-2</v>
+        <v>-3.3460750973059443E-2</v>
       </c>
       <c r="XD1">
-        <v>8.8994892000000006E-2</v>
+        <v>-3.3446383233436489E-2</v>
       </c>
       <c r="XE1">
-        <v>8.8979427999999999E-2</v>
+        <v>-3.3496604731119942E-2</v>
       </c>
       <c r="XF1">
-        <v>8.9145210000000003E-2</v>
+        <v>-3.3513832495571112E-2</v>
       </c>
       <c r="XG1">
-        <v>8.9478830999999995E-2</v>
+        <v>-3.3358431010015149E-2</v>
       </c>
       <c r="XH1">
-        <v>8.9647624999999995E-2</v>
+        <v>-3.3378631322728503E-2</v>
       </c>
       <c r="XI1">
-        <v>8.9822651000000003E-2</v>
+        <v>-3.3427046920483032E-2</v>
       </c>
       <c r="XJ1">
-        <v>9.0113874999999996E-2</v>
+        <v>-3.3412227665853937E-2</v>
       </c>
       <c r="XK1">
-        <v>9.0380017000000007E-2</v>
+        <v>-3.3474651085061112E-2</v>
       </c>
       <c r="XL1">
-        <v>9.0440066999999999E-2</v>
+        <v>-3.3753508841789112E-2</v>
       </c>
       <c r="XM1">
-        <v>9.0618081000000003E-2</v>
+        <v>-3.3935213807109899E-2</v>
       </c>
       <c r="XN1">
-        <v>9.1069212999999996E-2</v>
+        <v>-3.3871876415917067E-2</v>
       </c>
       <c r="XO1">
-        <v>9.1599126000000003E-2</v>
+        <v>-3.3750056192090483E-2</v>
       </c>
       <c r="XP1">
-        <v>9.1946766999999999E-2</v>
+        <v>-3.3832047109459022E-2</v>
       </c>
       <c r="XQ1">
-        <v>9.2213360999999994E-2</v>
+        <v>-3.3994967303785033E-2</v>
       </c>
       <c r="XR1">
-        <v>9.2526061000000007E-2</v>
+        <v>-3.4136692681315348E-2</v>
       </c>
       <c r="XS1">
-        <v>9.2949270000000001E-2</v>
+        <v>-3.4249386834278688E-2</v>
       </c>
       <c r="XT1">
-        <v>9.3440021999999998E-2</v>
+        <v>-3.4252667004139981E-2</v>
       </c>
       <c r="XU1">
-        <v>9.3839374000000003E-2</v>
+        <v>-3.4358553767865188E-2</v>
       </c>
       <c r="XV1">
-        <v>9.4189180999999997E-2</v>
+        <v>-3.4539015471072368E-2</v>
       </c>
       <c r="XW1">
-        <v>9.4673087000000003E-2</v>
+        <v>-3.4580405905064657E-2</v>
       </c>
       <c r="XX1">
-        <v>9.5065044000000001E-2</v>
+        <v>-3.4762448900770418E-2</v>
       </c>
       <c r="XY1">
-        <v>9.5595615999999994E-2</v>
+        <v>-3.4825895944142968E-2</v>
       </c>
       <c r="XZ1">
-        <v>9.6235401999999998E-2</v>
+        <v>-3.4785520541177992E-2</v>
       </c>
       <c r="YA1">
-        <v>9.6773334000000003E-2</v>
+        <v>-3.4867200845147113E-2</v>
       </c>
       <c r="YB1">
-        <v>0.107175043</v>
+        <v>-3.0804394952201861E-2</v>
       </c>
       <c r="YC1">
-        <v>0.107739554</v>
+        <v>-3.0908495799869928E-2</v>
       </c>
       <c r="YD1">
-        <v>0.108377139</v>
+        <v>-3.098260120541475E-2</v>
       </c>
       <c r="YE1">
-        <v>0.10915853</v>
+        <v>-3.0946482470131809E-2</v>
       </c>
       <c r="YF1">
-        <v>0.109859205</v>
+        <v>-3.1006438882459159E-2</v>
       </c>
       <c r="YG1">
-        <v>0.110533837</v>
+        <v>-3.1123661252238252E-2</v>
       </c>
       <c r="YH1">
-        <v>0.111204501</v>
+        <v>-3.1263559695874292E-2</v>
       </c>
       <c r="YI1">
-        <v>0.11195311600000001</v>
+        <v>-3.1330767499342417E-2</v>
       </c>
       <c r="YJ1">
-        <v>0.112618438</v>
+        <v>-3.1490542068432527E-2</v>
       </c>
       <c r="YK1">
-        <v>0.113327522</v>
+        <v>-3.162489811221264E-2</v>
       </c>
       <c r="YL1">
-        <v>0.11407567</v>
+        <v>-3.1734695752167558E-2</v>
       </c>
       <c r="YM1">
-        <v>0.11480486600000001</v>
+        <v>-3.1897951461673797E-2</v>
       </c>
       <c r="YN1">
-        <v>0.11559675899999999</v>
+        <v>-3.2021588615067688E-2</v>
       </c>
       <c r="YO1">
-        <v>0.11638172300000001</v>
+        <v>-3.2148720558898523E-2</v>
       </c>
       <c r="YP1">
-        <v>0.11724311799999999</v>
+        <v>-3.2219902178328083E-2</v>
       </c>
       <c r="YQ1">
-        <v>0.118012594</v>
+        <v>-3.2381070333167519E-2</v>
       </c>
       <c r="YR1">
-        <v>0.118696228</v>
+        <v>-3.2617486962334068E-2</v>
       </c>
       <c r="YS1">
-        <v>0.11947133</v>
+        <v>-3.2783580436015182E-2</v>
       </c>
       <c r="YT1">
-        <v>0.120255558</v>
+        <v>-3.2951302967613061E-2</v>
       </c>
       <c r="YU1">
-        <v>0.121060072</v>
+        <v>-3.3113289493464593E-2</v>
       </c>
       <c r="YV1">
-        <v>0.12193541099999999</v>
+        <v>-3.3225196850032078E-2</v>
       </c>
       <c r="YW1">
-        <v>0.12277907</v>
+        <v>-3.335989063366307E-2</v>
       </c>
       <c r="YX1">
-        <v>0.12363009599999999</v>
+        <v>-3.3490657984050029E-2</v>
       </c>
       <c r="YY1">
-        <v>0.12442473900000001</v>
+        <v>-3.3685449232637499E-2</v>
       </c>
       <c r="YZ1">
-        <v>0.125235019</v>
+        <v>-3.3861063450549539E-2</v>
       </c>
       <c r="ZA1">
-        <v>0.12604557399999999</v>
+        <v>-3.4031860630819137E-2</v>
       </c>
       <c r="ZB1">
-        <v>0.126821619</v>
+        <v>-3.4235738407426497E-2</v>
       </c>
       <c r="ZC1">
-        <v>0.12765700699999999</v>
+        <v>-3.4378398685670657E-2</v>
       </c>
       <c r="ZD1">
-        <v>0.12844429399999999</v>
+        <v>-3.4564759990209137E-2</v>
       </c>
       <c r="ZE1">
-        <v>0.12920124699999999</v>
+        <v>-3.4773879045503359E-2</v>
       </c>
       <c r="ZF1">
-        <v>0.13001649200000001</v>
+        <v>-3.4916574812957603E-2</v>
       </c>
       <c r="ZG1">
-        <v>0.130864281</v>
+        <v>-3.5030302706593242E-2</v>
       </c>
       <c r="ZH1">
-        <v>0.13164501200000001</v>
+        <v>-3.5191183205167148E-2</v>
       </c>
       <c r="ZI1">
-        <v>0.13246649699999999</v>
+        <v>-3.5298955456469112E-2</v>
       </c>
       <c r="ZJ1">
-        <v>0.13321812299999999</v>
+        <v>-3.5462259401818297E-2</v>
       </c>
       <c r="ZK1">
-        <v>0.133881905</v>
+        <v>-3.5707320962133943E-2</v>
       </c>
       <c r="ZL1">
-        <v>0.13454771200000001</v>
+        <v>-3.5927930265806263E-2</v>
       </c>
       <c r="ZM1">
-        <v>0.13520098699999999</v>
+        <v>-3.6147811824191967E-2</v>
       </c>
       <c r="ZN1">
-        <v>0.13584654600000001</v>
+        <v>-3.6352589388060692E-2</v>
       </c>
       <c r="ZO1">
-        <v>0.136445713</v>
+        <v>-3.6587814830363358E-2</v>
       </c>
       <c r="ZP1">
-        <v>0.13706855700000001</v>
+        <v>-3.6777727648058839E-2</v>
       </c>
       <c r="ZQ1">
-        <v>0.13773117400000001</v>
+        <v>-3.6913577836632162E-2</v>
       </c>
       <c r="ZR1">
-        <v>0.13833666999999999</v>
+        <v>-3.7079134336733648E-2</v>
       </c>
       <c r="ZS1">
-        <v>0.13895523000000001</v>
+        <v>-3.7205676265527697E-2</v>
       </c>
       <c r="ZT1">
-        <v>0.139600532</v>
+        <v>-3.7286209993228653E-2</v>
       </c>
       <c r="ZU1">
-        <v>0.14015482400000001</v>
+        <v>-3.7429186415019577E-2</v>
       </c>
       <c r="ZV1">
-        <v>0.14067566500000001</v>
+        <v>-3.7583507702970781E-2</v>
       </c>
       <c r="ZW1">
-        <v>0.14116336700000001</v>
+        <v>-3.7737224139505587E-2</v>
       </c>
       <c r="ZX1">
-        <v>0.14158732600000001</v>
+        <v>-3.7934493782158268E-2</v>
       </c>
       <c r="ZY1">
-        <v>0.14201186399999999</v>
+        <v>-3.8092838599316697E-2</v>
       </c>
       <c r="ZZ1">
-        <v>0.14243488600000001</v>
+        <v>-3.8223962688448077E-2</v>
       </c>
       <c r="AAA1">
-        <v>0.14281561000000001</v>
+        <v>-3.8359406704834897E-2</v>
       </c>
       <c r="AAB1">
-        <v>0.14313093700000001</v>
+        <v>-3.8528041303282273E-2</v>
       </c>
       <c r="AAC1">
-        <v>0.143484258</v>
+        <v>-3.8626984615415333E-2</v>
       </c>
       <c r="AAD1">
-        <v>0.14387064499999999</v>
+        <v>-3.8662150465451933E-2</v>
       </c>
       <c r="AAE1">
-        <v>0.144184375</v>
+        <v>-3.8732974533742082E-2</v>
       </c>
       <c r="AAF1">
-        <v>0.144520332</v>
+        <v>-3.8752400629134653E-2</v>
       </c>
       <c r="AAG1">
-        <v>0.144770229</v>
+        <v>-3.8821301397436642E-2</v>
       </c>
       <c r="AAH1">
-        <v>0.14488828100000001</v>
+        <v>-3.8987482454481692E-2</v>
       </c>
       <c r="AAI1">
-        <v>0.14504616300000001</v>
+        <v>-3.9076488357104262E-2</v>
       </c>
       <c r="AAJ1">
-        <v>0.145194182</v>
+        <v>-3.9140347339831023E-2</v>
       </c>
       <c r="AAK1">
-        <v>0.14531998199999999</v>
+        <v>-3.9190443147262638E-2</v>
       </c>
       <c r="AAL1">
-        <v>0.14543465699999999</v>
+        <v>-3.9227447871029303E-2</v>
       </c>
       <c r="AAM1">
-        <v>0.14556973400000001</v>
+        <v>-3.9213584103241488E-2</v>
       </c>
       <c r="AAN1">
-        <v>0.14564154600000001</v>
+        <v>-3.9226653709566489E-2</v>
       </c>
       <c r="AAO1">
-        <v>0.14568499600000001</v>
+        <v>-3.9245390527298391E-2</v>
       </c>
       <c r="AAP1">
-        <v>0.14567774</v>
+        <v>-3.9270160571757452E-2</v>
       </c>
       <c r="AAQ1">
-        <v>0.14562260499999999</v>
+        <v>-3.9297943219987967E-2</v>
       </c>
       <c r="AAR1">
-        <v>0.145559145</v>
+        <v>-3.9312403230549103E-2</v>
       </c>
       <c r="AAS1">
-        <v>0.14544568399999999</v>
+        <v>-3.9351684912947597E-2</v>
       </c>
       <c r="AAT1">
-        <v>0.14533995399999999</v>
+        <v>-3.9344419731827063E-2</v>
       </c>
       <c r="AAU1">
-        <v>0.14525084599999999</v>
+        <v>-3.9300959260994167E-2</v>
       </c>
       <c r="AAV1">
-        <v>0.14511062699999999</v>
+        <v>-3.9256543000294103E-2</v>
       </c>
       <c r="AAW1">
-        <v>0.144948516</v>
+        <v>-3.9196800646306477E-2</v>
       </c>
       <c r="AAX1">
-        <v>0.144752146</v>
+        <v>-3.9129128435089887E-2</v>
       </c>
       <c r="AAY1">
-        <v>0.14452916699999999</v>
+        <v>-3.9040904473854783E-2</v>
       </c>
       <c r="AAZ1">
-        <v>0.14426979700000001</v>
+        <v>-3.8962294032452688E-2</v>
       </c>
       <c r="ABA1">
-        <v>0.143984802</v>
+        <v>-3.8884005111246872E-2</v>
       </c>
       <c r="ABB1">
-        <v>0.14366519999999999</v>
+        <v>-3.879419041117263E-2</v>
       </c>
       <c r="ABC1">
-        <v>0.14331291199999999</v>
+        <v>-3.8713601646509027E-2</v>
       </c>
       <c r="ABD1">
-        <v>0.14290950599999999</v>
+        <v>-3.8660494737980423E-2</v>
       </c>
       <c r="ABE1">
-        <v>0.14253237799999999</v>
+        <v>-3.8541463681782517E-2</v>
       </c>
       <c r="ABF1">
-        <v>0.14215920800000001</v>
+        <v>-3.8392509797878248E-2</v>
       </c>
       <c r="ABG1">
-        <v>0.14173349099999999</v>
+        <v>-3.8254274688497958E-2</v>
       </c>
       <c r="ABH1">
-        <v>0.14132451300000001</v>
+        <v>-3.806224734384267E-2</v>
       </c>
       <c r="ABI1">
-        <v>0.140825071</v>
+        <v>-3.7939613104476549E-2</v>
       </c>
       <c r="ABJ1">
-        <v>0.14021916100000001</v>
+        <v>-3.7891008048746323E-2</v>
       </c>
       <c r="ABK1">
-        <v>0.13967938299999999</v>
+        <v>-3.7755035528814117E-2</v>
       </c>
       <c r="ABL1">
-        <v>0.13913113599999999</v>
+        <v>-3.7618377628891357E-2</v>
       </c>
       <c r="ABM1">
-        <v>0.13857440900000001</v>
+        <v>-3.7445726672463792E-2</v>
       </c>
       <c r="ABN1">
-        <v>0.138081114</v>
+        <v>-3.7180392461885897E-2</v>
       </c>
       <c r="ABO1">
-        <v>0.13749718899999999</v>
+        <v>-3.6978298591263808E-2</v>
       </c>
       <c r="ABP1">
-        <v>0.136835085</v>
+        <v>-3.6808778734390368E-2</v>
       </c>
       <c r="ABQ1">
-        <v>0.136193067</v>
+        <v>-3.6621028220786812E-2</v>
       </c>
       <c r="ABR1">
-        <v>0.135509871</v>
+        <v>-3.6454994820150521E-2</v>
       </c>
       <c r="ABS1">
-        <v>0.13484238600000001</v>
+        <v>-3.6267110041755278E-2</v>
       </c>
       <c r="ABT1">
-        <v>0.13419626900000001</v>
+        <v>-3.6052722319425801E-2</v>
       </c>
       <c r="ABU1">
-        <v>0.13354365500000001</v>
+        <v>-3.5835576246780909E-2</v>
       </c>
       <c r="ABV1">
-        <v>0.13284063800000001</v>
+        <v>-3.5662254962722378E-2</v>
       </c>
       <c r="ABW1">
-        <v>0.13218122299999999</v>
+        <v>-3.5445618513373522E-2</v>
       </c>
       <c r="ABX1">
-        <v>0.13150390100000001</v>
+        <v>-3.5234758778657449E-2</v>
       </c>
       <c r="ABY1">
-        <v>0.130804528</v>
+        <v>-3.5041533469814402E-2</v>
       </c>
       <c r="ABZ1">
-        <v>0.130137803</v>
+        <v>-3.4809592211108083E-2</v>
       </c>
       <c r="ACA1">
-        <v>0.129513406</v>
+        <v>-3.4533437541203027E-2</v>
       </c>
       <c r="ACB1">
-        <v>0.12881448100000001</v>
+        <v>-3.4308953681449837E-2</v>
       </c>
       <c r="ACC1">
-        <v>0.128095034</v>
+        <v>-3.4104717806351603E-2</v>
       </c>
       <c r="ACD1">
-        <v>0.127381354</v>
+        <v>-3.3862006343592037E-2</v>
       </c>
       <c r="ACE1">
-        <v>0.12663565900000001</v>
+        <v>-3.3636605376447831E-2</v>
       </c>
       <c r="ACF1">
-        <v>0.12589062100000001</v>
+        <v>-3.3378435730126582E-2</v>
       </c>
       <c r="ACG1">
-        <v>0.12516660199999999</v>
+        <v>-3.3068698778710159E-2</v>
       </c>
       <c r="ACH1">
-        <v>0.124402606</v>
+        <v>-3.2790712406179957E-2</v>
       </c>
       <c r="ACI1">
-        <v>0.12360138499999999</v>
+        <v>-3.2522237977076637E-2</v>
       </c>
       <c r="ACJ1">
-        <v>0.122804211</v>
+        <v>-3.2240009784818537E-2</v>
       </c>
       <c r="ACK1">
-        <v>0.12201432600000001</v>
+        <v>-3.194363658726776E-2</v>
       </c>
       <c r="ACL1">
-        <v>0.121191959</v>
+        <v>-3.1661342127749202E-2</v>
       </c>
       <c r="ACM1">
-        <v>0.120323451</v>
+        <v>-3.1409979153941711E-2</v>
       </c>
       <c r="ACN1">
-        <v>0.119435287</v>
+        <v>-3.1174804465954501E-2</v>
       </c>
       <c r="ACO1">
-        <v>0.118531993</v>
+        <v>-3.0925246690152439E-2</v>
       </c>
       <c r="ACP1">
-        <v>0.11760881199999999</v>
+        <v>-3.0673057342835069E-2</v>
       </c>
       <c r="ACQ1">
-        <v>0.11665679900000001</v>
+        <v>-3.0432179356763119E-2</v>
       </c>
       <c r="ACR1">
-        <v>0.11563846699999999</v>
+        <v>-3.0191621664154091E-2</v>
       </c>
       <c r="ACS1">
-        <v>0.114529837</v>
+        <v>-2.997718145616891E-2</v>
       </c>
       <c r="ACT1">
-        <v>0.113348356</v>
+        <v>-2.9817120765814109E-2</v>
       </c>
       <c r="ACU1">
-        <v>0.112067282</v>
+        <v>-2.962429027588144E-2</v>
       </c>
       <c r="ACV1">
-        <v>0.110741586</v>
+        <v>-2.942633588432006E-2</v>
       </c>
       <c r="ACW1">
-        <v>0.109273578</v>
+        <v>-2.9212185901241489E-2</v>
       </c>
       <c r="ACX1">
-        <v>0.107684261</v>
+        <v>-2.9014876265994121E-2</v>
       </c>
       <c r="ACY1">
-        <v>0.106027625</v>
+        <v>-2.8763750542618882E-2</v>
       </c>
       <c r="ACZ1">
-        <v>0.104293258</v>
+        <v>-2.8478321445617572E-2</v>
       </c>
       <c r="ADA1">
-        <v>0.102429644</v>
+        <v>-2.818102608559421E-2</v>
       </c>
       <c r="ADB1">
-        <v>0.10046237600000001</v>
+        <v>-2.7856658733150338E-2</v>
       </c>
       <c r="ADC1">
-        <v>9.8416273999999998E-2</v>
+        <v>-2.751921724246598E-2</v>
       </c>
       <c r="ADD1">
-        <v>9.6249144999999994E-2</v>
+        <v>-2.7159665027607138E-2</v>
       </c>
       <c r="ADE1">
-        <v>9.4027566000000007E-2</v>
+        <v>-2.6799982068639538E-2</v>
       </c>
       <c r="ADF1">
-        <v>9.1723756000000004E-2</v>
+        <v>-2.643012264790617E-2</v>
       </c>
       <c r="ADG1">
-        <v>8.9422550000000003E-2</v>
+        <v>-2.6030064735760809E-2</v>
       </c>
       <c r="ADH1">
-        <v>8.7119417000000005E-2</v>
+        <v>-2.5618759517861731E-2</v>
       </c>
       <c r="ADI1">
-        <v>8.4769648000000003E-2</v>
+        <v>-2.5209702302225009E-2</v>
       </c>
       <c r="ADJ1">
-        <v>8.2482541000000006E-2</v>
+        <v>-2.477171854346159E-2</v>
       </c>
       <c r="ADK1">
-        <v>8.0262813000000002E-2</v>
+        <v>-2.4305711868012132E-2</v>
       </c>
       <c r="ADL1">
-        <v>7.8090746000000003E-2</v>
+        <v>-2.3847631857818529E-2</v>
       </c>
       <c r="ADM1">
-        <v>7.6030911000000007E-2</v>
+        <v>-2.3380088579093711E-2</v>
       </c>
       <c r="ADN1">
-        <v>7.4054808E-2</v>
+        <v>-2.2921459913973222E-2</v>
       </c>
       <c r="ADO1">
-        <v>7.2161531000000001E-2</v>
+        <v>-2.2505082560294151E-2</v>
       </c>
       <c r="ADP1">
-        <v>7.0403761999999995E-2</v>
+        <v>-2.2103410089254951E-2</v>
       </c>
       <c r="ADQ1">
-        <v>6.8712355000000003E-2</v>
+        <v>-2.1729671980179929E-2</v>
       </c>
       <c r="ADR1">
-        <v>6.7212569999999999E-2</v>
+        <v>-2.1341934321954661E-2</v>
       </c>
       <c r="ADS1">
-        <v>6.5864572999999996E-2</v>
+        <v>-2.0951679094179821E-2</v>
       </c>
       <c r="ADT1">
-        <v>6.4623987999999993E-2</v>
+        <v>-2.060436309336448E-2</v>
       </c>
       <c r="ADU1">
-        <v>6.3536964000000001E-2</v>
+        <v>-2.0253446866710181E-2</v>
       </c>
       <c r="ADV1">
-        <v>6.2539014000000004E-2</v>
+        <v>-1.994953665963713E-2</v>
       </c>
       <c r="ADW1">
-        <v>6.1656923000000002E-2</v>
+        <v>-1.968469286165617E-2</v>
       </c>
       <c r="ADX1">
-        <v>6.0852638000000001E-2</v>
+        <v>-1.9451864036183739E-2</v>
       </c>
       <c r="ADY1">
-        <v>6.0162646E-2</v>
+        <v>-1.9239520529233198E-2</v>
       </c>
       <c r="ADZ1">
-        <v>5.9515108999999997E-2</v>
+        <v>-1.9073583380834071E-2</v>
       </c>
       <c r="AEA1">
-        <v>5.8932686999999997E-2</v>
+        <v>-1.8953513725963669E-2</v>
       </c>
       <c r="AEB1">
-        <v>5.8453822000000003E-2</v>
+        <v>-1.8813626294856261E-2</v>
       </c>
       <c r="AEC1">
-        <v>5.8072296000000002E-2</v>
+        <v>-1.864871577900187E-2</v>
       </c>
       <c r="AED1">
-        <v>5.7763690999999999E-2</v>
+        <v>-1.8490499106875811E-2</v>
       </c>
       <c r="AEE1">
-        <v>5.7496391000000001E-2</v>
+        <v>-1.8336541677345809E-2</v>
       </c>
       <c r="AEF1">
-        <v>5.7252283000000001E-2</v>
+        <v>-1.8211433230929129E-2</v>
       </c>
       <c r="AEG1">
-        <v>5.7011212999999998E-2</v>
+        <v>-1.8127650676682788E-2</v>
       </c>
       <c r="AEH1">
-        <v>5.6789948999999999E-2</v>
+        <v>-1.805033951006995E-2</v>
       </c>
       <c r="AEI1">
-        <v>5.6614946999999999E-2</v>
+        <v>-1.7964659540071121E-2</v>
       </c>
       <c r="AEJ1">
-        <v>5.6444510000000003E-2</v>
+        <v>-1.790289673333911E-2</v>
       </c>
       <c r="AEK1">
-        <v>5.6288085000000002E-2</v>
+        <v>-1.7842099816324081E-2</v>
       </c>
       <c r="AEL1">
-        <v>5.6167609E-2</v>
+        <v>-1.776798448241514E-2</v>
       </c>
       <c r="AEM1">
-        <v>5.6043221999999997E-2</v>
+        <v>-1.7704665809179381E-2</v>
       </c>
       <c r="AEN1">
-        <v>5.5921380999999999E-2</v>
+        <v>-1.7655734741423429E-2</v>
       </c>
       <c r="AEO1">
-        <v>5.5819473000000001E-2</v>
+        <v>-1.7592213297571959E-2</v>
       </c>
       <c r="AEP1">
-        <v>5.5738815999999997E-2</v>
+        <v>-1.751686739971212E-2</v>
       </c>
       <c r="AEQ1">
-        <v>5.5650050999999999E-2</v>
+        <v>-1.7453868748251229E-2</v>
       </c>
       <c r="AER1">
-        <v>5.5570394000000002E-2</v>
+        <v>-1.7393647043788089E-2</v>
       </c>
       <c r="AES1">
-        <v>5.5492422E-2</v>
+        <v>-1.7329398722806841E-2</v>
       </c>
       <c r="AET1">
-        <v>5.5423577000000002E-2</v>
+        <v>-1.725910808926252E-2</v>
       </c>
       <c r="AEU1">
-        <v>5.5324619999999998E-2</v>
+        <v>-1.7221717362218499E-2</v>
       </c>
       <c r="AEV1">
-        <v>5.5251743999999998E-2</v>
+        <v>-1.7154265869701028E-2</v>
       </c>
       <c r="AEW1">
-        <v>5.517176E-2</v>
+        <v>-1.7095865937646421E-2</v>
       </c>
       <c r="AEX1">
-        <v>5.5082668000000001E-2</v>
+        <v>-1.7045548203167959E-2</v>
       </c>
       <c r="AEY1">
-        <v>5.5014999000000002E-2</v>
+        <v>-1.697425922074287E-2</v>
       </c>
       <c r="AEZ1">
-        <v>5.4912008999999998E-2</v>
+        <v>-1.694437646115304E-2</v>
       </c>
       <c r="AFA1">
-        <v>5.4804103E-2</v>
+        <v>-1.6917811060081871E-2</v>
       </c>
       <c r="AFB1">
-        <v>5.4712597000000002E-2</v>
+        <v>-1.6876466200951339E-2</v>
       </c>
       <c r="AFC1">
-        <v>5.4621696999999997E-2</v>
+        <v>-1.6840898791773119E-2</v>
       </c>
       <c r="AFD1">
-        <v>5.4544675000000001E-2</v>
+        <v>-1.678973869290866E-2</v>
       </c>
       <c r="AFE1">
-        <v>5.4472403000000003E-2</v>
+        <v>-1.674005271236648E-2</v>
       </c>
       <c r="AFF1">
-        <v>5.4396248000000001E-2</v>
+        <v>-1.670008221580915E-2</v>
       </c>
       <c r="AFG1">
-        <v>5.4320779999999999E-2</v>
+        <v>-1.6658878381259231E-2</v>
       </c>
       <c r="AFH1">
-        <v>5.4281545E-2</v>
+        <v>-1.6595081919105348E-2</v>
       </c>
       <c r="AFI1">
-        <v>5.4233278000000003E-2</v>
+        <v>-1.654556727045306E-2</v>
       </c>
       <c r="AFJ1">
-        <v>5.4154860999999999E-2</v>
+        <v>-1.6532339421809591E-2</v>
       </c>
       <c r="AFK1">
-        <v>5.4098881000000001E-2</v>
+        <v>-1.651089344533865E-2</v>
       </c>
       <c r="AFL1">
-        <v>5.4044175E-2</v>
+        <v>-1.6491287856011051E-2</v>
       </c>
       <c r="AFM1">
-        <v>5.3958058000000003E-2</v>
+        <v>-1.6504512849600809E-2</v>
       </c>
       <c r="AFN1">
-        <v>5.3929603999999999E-2</v>
+        <v>-1.6476517389721709E-2</v>
       </c>
       <c r="AFO1">
-        <v>5.3947653999999998E-2</v>
+        <v>-1.6408632509583201E-2</v>
       </c>
       <c r="AFP1">
-        <v>5.3937886999999997E-2</v>
+        <v>-1.6383493794226961E-2</v>
       </c>
       <c r="AFQ1">
-        <v>5.3930868999999999E-2</v>
+        <v>-1.637077145373696E-2</v>
       </c>
       <c r="AFR1">
-        <v>5.3942824E-2</v>
+        <v>-1.6348089505152041E-2</v>
       </c>
       <c r="AFS1">
-        <v>5.3957482000000001E-2</v>
+        <v>-1.6332673796270802E-2</v>
       </c>
       <c r="AFT1">
-        <v>5.3978122000000003E-2</v>
+        <v>-1.6320936481402069E-2</v>
       </c>
       <c r="AFU1">
-        <v>5.4010076999999997E-2</v>
+        <v>-1.6302028385144909E-2</v>
       </c>
       <c r="AFV1">
-        <v>5.4050275000000002E-2</v>
+        <v>-1.6287885455412491E-2</v>
       </c>
       <c r="AFW1">
-        <v>5.4074849000000001E-2</v>
+        <v>-1.6300772600154351E-2</v>
       </c>
       <c r="AFX1">
-        <v>5.4124150000000003E-2</v>
+        <v>-1.62945328548828E-2</v>
       </c>
       <c r="AFY1">
-        <v>5.4191969E-2</v>
+        <v>-1.628267607287082E-2</v>
       </c>
       <c r="AFZ1">
-        <v>5.42266E-2</v>
+        <v>-1.6308915333364201E-2</v>
       </c>
       <c r="AGA1">
-        <v>5.4270446999999999E-2</v>
+        <v>-1.6326148032491421E-2</v>
       </c>
       <c r="AGB1">
-        <v>5.4340665000000003E-2</v>
+        <v>-1.632366530329878E-2</v>
       </c>
       <c r="AGC1">
-        <v>5.4406304000000003E-2</v>
+        <v>-1.6326424275236881E-2</v>
       </c>
       <c r="AGD1">
-        <v>5.4478488999999998E-2</v>
+        <v>-1.632698734851901E-2</v>
       </c>
       <c r="AGE1">
-        <v>5.4566336999999999E-2</v>
+        <v>-1.6319566315557432E-2</v>
       </c>
       <c r="AGF1">
-        <v>5.4630595999999997E-2</v>
+        <v>-1.6336197801264388E-2</v>
       </c>
       <c r="AGG1">
-        <v>5.4690684000000003E-2</v>
+        <v>-1.6362631092507841E-2</v>
       </c>
       <c r="AGH1">
-        <v>5.4765597999999999E-2</v>
+        <v>-1.6376579086529241E-2</v>
       </c>
       <c r="AGI1">
-        <v>5.4835700000000001E-2</v>
+        <v>-1.6395048327413769E-2</v>
       </c>
       <c r="AGJ1">
-        <v>5.4903085999999997E-2</v>
+        <v>-1.642026339047729E-2</v>
       </c>
       <c r="AGK1">
-        <v>5.4970619999999998E-2</v>
+        <v>-1.6440045461300651E-2</v>
       </c>
       <c r="AGL1">
-        <v>5.5056967999999998E-2</v>
+        <v>-1.6440938940216619E-2</v>
       </c>
       <c r="AGM1">
-        <v>5.5145346999999997E-2</v>
+        <v>-1.64437450558759E-2</v>
       </c>
       <c r="AGN1">
-        <v>5.5240607999999997E-2</v>
+        <v>-1.6440413067631419E-2</v>
       </c>
       <c r="AGO1">
-        <v>5.5332819999999998E-2</v>
+        <v>-1.6440877242191669E-2</v>
       </c>
       <c r="AGP1">
-        <v>5.5424139999999997E-2</v>
+        <v>-1.644898913513124E-2</v>
       </c>
       <c r="AGQ1">
-        <v>5.5505687999999997E-2</v>
+        <v>-1.6467923104240351E-2</v>
       </c>
       <c r="AGR1">
-        <v>5.5580909999999997E-2</v>
+        <v>-1.6491565500841101E-2</v>
       </c>
       <c r="AGS1">
-        <v>5.5662975000000003E-2</v>
+        <v>-1.6507078620185529E-2</v>
       </c>
       <c r="AGT1">
-        <v>5.5733916000000001E-2</v>
+        <v>-1.6535150839064799E-2</v>
       </c>
       <c r="AGU1">
-        <v>5.5791037000000002E-2</v>
+        <v>-1.6582696927652279E-2</v>
       </c>
       <c r="AGV1">
-        <v>5.5861348999999998E-2</v>
+        <v>-1.661560700429254E-2</v>
       </c>
       <c r="AGW1">
-        <v>5.5929810000000003E-2</v>
+        <v>-1.66524344192235E-2</v>
       </c>
       <c r="AGX1">
-        <v>5.6027348999999997E-2</v>
+        <v>-1.6667555226356729E-2</v>
       </c>
       <c r="AGY1">
-        <v>5.6151129000000001E-2</v>
+        <v>-1.665126219265306E-2</v>
       </c>
       <c r="AGZ1">
-        <v>5.6249902999999997E-2</v>
+        <v>-1.665939587230891E-2</v>
       </c>
       <c r="AHA1">
-        <v>5.6349300999999997E-2</v>
+        <v>-1.6670688778690521E-2</v>
       </c>
       <c r="AHB1">
-        <v>5.6439188000000001E-2</v>
+        <v>-1.6683173496408851E-2</v>
       </c>
       <c r="AHC1">
-        <v>5.6494664999999999E-2</v>
+        <v>-1.673174451781187E-2</v>
       </c>
       <c r="AHD1">
-        <v>5.6569612999999998E-2</v>
+        <v>-1.6763721404426609E-2</v>
       </c>
       <c r="AHE1">
-        <v>5.6657876000000003E-2</v>
+        <v>-1.678003429122189E-2</v>
       </c>
       <c r="AHF1">
-        <v>5.6752416999999999E-2</v>
+        <v>-1.67935959573156E-2</v>
       </c>
       <c r="AHG1">
-        <v>5.6880749000000001E-2</v>
+        <v>-1.6769959043809891E-2</v>
       </c>
       <c r="AHH1">
-        <v>5.7003086000000001E-2</v>
+        <v>-1.6752725473995971E-2</v>
       </c>
       <c r="AHI1">
-        <v>5.7104848E-2</v>
+        <v>-1.6755118391742981E-2</v>
       </c>
       <c r="AHJ1">
-        <v>5.7166498000000003E-2</v>
+        <v>-1.6791177636736401E-2</v>
       </c>
       <c r="AHK1">
-        <v>5.7216718E-2</v>
+        <v>-1.684053659090258E-2</v>
       </c>
       <c r="AHL1">
-        <v>5.7293412000000002E-2</v>
+        <v>-1.6860721112006639E-2</v>
       </c>
       <c r="AHM1">
-        <v>5.7372846999999998E-2</v>
+        <v>-1.6875603682415079E-2</v>
       </c>
       <c r="AHN1">
-        <v>5.7473734999999998E-2</v>
+        <v>-1.6871462246393919E-2</v>
       </c>
       <c r="AHO1">
-        <v>5.7556892999999998E-2</v>
+        <v>-1.6877795983082911E-2</v>
       </c>
       <c r="AHP1">
-        <v>5.7640915000000001E-2</v>
+        <v>-1.687848987051806E-2</v>
       </c>
       <c r="AHQ1">
-        <v>5.7699365000000002E-2</v>
+        <v>-1.6900193437905161E-2</v>
       </c>
       <c r="AHR1">
-        <v>5.7740974E-2</v>
+        <v>-1.6934619143998981E-2</v>
       </c>
       <c r="AHS1">
-        <v>5.7777670000000003E-2</v>
+        <v>-1.6964615674703819E-2</v>
       </c>
       <c r="AHT1">
-        <v>5.7839562999999997E-2</v>
+        <v>-1.6968256849760371E-2</v>
       </c>
       <c r="AHU1">
-        <v>5.7896276000000003E-2</v>
+        <v>-1.6968585525994308E-2</v>
       </c>
       <c r="AHV1">
-        <v>5.7949336999999997E-2</v>
+        <v>-1.6961016496782701E-2</v>
       </c>
       <c r="AHW1">
-        <v>5.7987247999999998E-2</v>
+        <v>-1.6967734308846849E-2</v>
       </c>
       <c r="AHX1">
-        <v>5.8018971000000003E-2</v>
+        <v>-1.6971352384001579E-2</v>
       </c>
       <c r="AHY1">
-        <v>5.8038827000000001E-2</v>
+        <v>-1.6982046279866179E-2</v>
       </c>
       <c r="AHZ1">
-        <v>5.8052037000000001E-2</v>
+        <v>-1.699840556550972E-2</v>
       </c>
       <c r="AIA1">
-        <v>5.8080329999999999E-2</v>
+        <v>-1.6982898954589262E-2</v>
       </c>
       <c r="AIB1">
-        <v>5.8082311999999997E-2</v>
+        <v>-1.6985995343117961E-2</v>
       </c>
       <c r="AIC1">
-        <v>5.8079837000000002E-2</v>
+        <v>-1.6986983283629568E-2</v>
       </c>
       <c r="AID1">
-        <v>5.8077067000000003E-2</v>
+        <v>-1.6976512829027349E-2</v>
       </c>
       <c r="AIE1">
-        <v>5.8055909000000003E-2</v>
+        <v>-1.6986794066753359E-2</v>
       </c>
       <c r="AIF1">
-        <v>5.8035606000000003E-2</v>
+        <v>-1.6991006810954098E-2</v>
       </c>
       <c r="AIG1">
-        <v>5.7998354000000002E-2</v>
+        <v>-1.7004265768519371E-2</v>
       </c>
       <c r="AIH1">
-        <v>5.7961084000000003E-2</v>
+        <v>-1.7014815581630049E-2</v>
       </c>
       <c r="AII1">
-        <v>5.7931305000000002E-2</v>
+        <v>-1.700543643329222E-2</v>
       </c>
       <c r="AIJ1">
-        <v>5.7888088999999997E-2</v>
+        <v>-1.7003767195457941E-2</v>
       </c>
       <c r="AIK1">
-        <v>5.7835224999999997E-2</v>
+        <v>-1.7006425204321201E-2</v>
       </c>
       <c r="AIL1">
-        <v>5.7738649000000003E-2</v>
+        <v>-1.7040012062771701E-2</v>
       </c>
       <c r="AIM1">
-        <v>5.7642530999999997E-2</v>
+        <v>-1.7068267069284951E-2</v>
       </c>
       <c r="AIN1">
-        <v>5.7550736999999998E-2</v>
+        <v>-1.707832286894909E-2</v>
       </c>
       <c r="AIO1">
-        <v>5.7446993000000002E-2</v>
+        <v>-1.708381590924276E-2</v>
       </c>
       <c r="AIP1">
-        <v>5.7383736999999997E-2</v>
+        <v>-1.703943645920436E-2</v>
       </c>
       <c r="AIQ1">
-        <v>5.7300080000000003E-2</v>
+        <v>-1.6994694872166372E-2</v>
       </c>
       <c r="AIR1">
-        <v>5.7188279000000002E-2</v>
+        <v>-1.696628957618625E-2</v>
       </c>
       <c r="AIS1">
-        <v>5.7063795E-2</v>
+        <v>-1.693885305072779E-2</v>
       </c>
       <c r="AIT1">
-        <v>5.6914606E-2</v>
+        <v>-1.691862464487431E-2</v>
       </c>
       <c r="AIU1">
-        <v>5.6731320000000002E-2</v>
+        <v>-1.6913976836829658E-2</v>
       </c>
       <c r="AIV1">
-        <v>5.6540317999999999E-2</v>
+        <v>-1.6910107978234609E-2</v>
       </c>
       <c r="AIW1">
-        <v>5.6332617000000001E-2</v>
+        <v>-1.6904090140248931E-2</v>
       </c>
       <c r="AIX1">
-        <v>5.6140470999999997E-2</v>
+        <v>-1.6864970602170602E-2</v>
       </c>
       <c r="AIY1">
-        <v>5.5959522999999997E-2</v>
+        <v>-1.6806094668508829E-2</v>
       </c>
       <c r="AIZ1">
-        <v>5.5732772E-2</v>
+        <v>-1.676943667027701E-2</v>
       </c>
       <c r="AJA1">
-        <v>5.5513640000000003E-2</v>
+        <v>-1.6713229929123889E-2</v>
       </c>
       <c r="AJB1">
-        <v>5.5283763E-2</v>
+        <v>-1.665746617550214E-2</v>
       </c>
       <c r="AJC1">
-        <v>5.4988397000000001E-2</v>
+        <v>-1.6645297975309281E-2</v>
       </c>
       <c r="AJD1">
-        <v>5.4726973999999998E-2</v>
+        <v>-1.6593041166310749E-2</v>
       </c>
       <c r="AJE1">
-        <v>5.4469249999999997E-2</v>
+        <v>-1.652317881453445E-2</v>
       </c>
       <c r="AJF1">
-        <v>5.4163492000000001E-2</v>
+        <v>-1.6482189185140671E-2</v>
       </c>
       <c r="AJG1">
-        <v>5.3867124000000002E-2</v>
+        <v>-1.6422458106364831E-2</v>
       </c>
       <c r="AJH1">
-        <v>5.3549685999999999E-2</v>
+        <v>-1.6363346349743142E-2</v>
       </c>
       <c r="AJI1">
-        <v>5.3238594E-2</v>
+        <v>-1.6285082416350662E-2</v>
       </c>
       <c r="AJJ1">
-        <v>5.2943412000000002E-2</v>
+        <v>-1.6181847407164569E-2</v>
       </c>
       <c r="AJK1">
-        <v>5.2616112999999999E-2</v>
+        <v>-1.6096088726557909E-2</v>
       </c>
       <c r="AJL1">
-        <v>5.2311762999999997E-2</v>
+        <v>-1.5983126871278751E-2</v>
       </c>
       <c r="AJM1">
-        <v>5.2003343E-2</v>
+        <v>-1.5861430266767101E-2</v>
       </c>
       <c r="AJN1">
-        <v>5.1641763E-2</v>
+        <v>-1.578001838980744E-2</v>
       </c>
       <c r="AJO1">
-        <v>5.1289564000000003E-2</v>
+        <v>-1.5683059846873699E-2</v>
       </c>
       <c r="AJP1">
-        <v>5.0924177000000001E-2</v>
+        <v>-1.558360281157555E-2</v>
       </c>
       <c r="AJQ1">
-        <v>5.0543848000000002E-2</v>
+        <v>-1.5494363816478779E-2</v>
       </c>
       <c r="AJR1">
-        <v>5.0196014999999997E-2</v>
+        <v>-1.536850140493261E-2</v>
       </c>
       <c r="AJS1">
-        <v>4.9851937999999998E-2</v>
+        <v>-1.522469739276573E-2</v>
       </c>
       <c r="AJT1">
-        <v>4.9509214000000003E-2</v>
+        <v>-1.507900996249718E-2</v>
       </c>
       <c r="AJU1">
-        <v>4.9134540999999997E-2</v>
+        <v>-1.49519264599021E-2</v>
       </c>
       <c r="AJV1">
-        <v>4.8746501999999997E-2</v>
+        <v>-1.483055144214407E-2</v>
       </c>
       <c r="AJW1">
-        <v>4.8368333999999999E-2</v>
+        <v>-1.4707442700121391E-2</v>
       </c>
       <c r="AJX1">
-        <v>4.7956772000000002E-2</v>
+        <v>-1.460183711189068E-2</v>
       </c>
       <c r="AJY1">
-        <v>4.7564886000000001E-2</v>
+        <v>-1.4475915855633559E-2</v>
       </c>
       <c r="AJZ1">
-        <v>4.7191998999999998E-2</v>
+        <v>-1.4336318497498999E-2</v>
       </c>
       <c r="AKA1">
-        <v>4.6806116000000002E-2</v>
+        <v>-1.419788912915005E-2</v>
       </c>
       <c r="AKB1">
-        <v>4.6414826999999999E-2</v>
+        <v>-1.405430177514394E-2</v>
       </c>
       <c r="AKC1">
-        <v>4.6033646999999997E-2</v>
+        <v>-1.390934555455624E-2</v>
       </c>
       <c r="AKD1">
-        <v>4.5654919000000002E-2</v>
+        <v>-1.3759355317558531E-2</v>
       </c>
       <c r="AKE1">
-        <v>4.5271684999999999E-2</v>
+        <v>-1.361626043520447E-2</v>
       </c>
       <c r="AKF1">
-        <v>4.4892593000000001E-2</v>
+        <v>-1.347607229733026E-2</v>
       </c>
       <c r="AKG1">
-        <v>4.4511874E-2</v>
+        <v>-1.332981836459589E-2</v>
       </c>
       <c r="AKH1">
-        <v>4.4116819000000002E-2</v>
+        <v>-1.3201581198173461E-2</v>
       </c>
       <c r="AKI1">
-        <v>4.3716584000000003E-2</v>
+        <v>-1.308225568820909E-2</v>
       </c>
       <c r="AKJ1">
-        <v>4.3315569999999998E-2</v>
+        <v>-1.2956442200275401E-2</v>
       </c>
       <c r="AKK1">
-        <v>4.2944100999999998E-2</v>
+        <v>-1.281139260777152E-2</v>
       </c>
       <c r="AKL1">
-        <v>4.2591034999999999E-2</v>
+        <v>-1.2645677941906691E-2</v>
       </c>
       <c r="AKM1">
-        <v>4.2227503999999999E-2</v>
+        <v>-1.249514839674425E-2</v>
       </c>
       <c r="AKN1">
-        <v>4.1862458999999998E-2</v>
+        <v>-1.2359768040951669E-2</v>
       </c>
       <c r="AKO1">
-        <v>4.1504069999999997E-2</v>
+        <v>-1.2212079975327529E-2</v>
       </c>
       <c r="AKP1">
-        <v>4.1135918E-2</v>
+        <v>-1.208580470405286E-2</v>
       </c>
       <c r="AKQ1">
-        <v>4.0774177000000002E-2</v>
+        <v>-1.196319560926575E-2</v>
       </c>
       <c r="AKR1">
-        <v>4.0433961999999997E-2</v>
+        <v>-1.1819313939454529E-2</v>
       </c>
       <c r="AKS1">
-        <v>4.0089038E-2</v>
+        <v>-1.1701676079008761E-2</v>
       </c>
       <c r="AKT1">
-        <v>3.9760136000000001E-2</v>
+        <v>-1.1576127008164129E-2</v>
       </c>
       <c r="AKU1">
-        <v>3.9453842000000003E-2</v>
+        <v>-1.143622031634401E-2</v>
       </c>
       <c r="AKV1">
-        <v>3.9138043999999997E-2</v>
+        <v>-1.132834497317717E-2</v>
       </c>
       <c r="AKW1">
-        <v>3.8831998999999999E-2</v>
+        <v>-1.1213472179976289E-2</v>
       </c>
       <c r="AKX1">
-        <v>3.8548529999999998E-2</v>
+        <v>-1.109013641486346E-2</v>
       </c>
       <c r="AKY1">
-        <v>3.8260735999999997E-2</v>
+        <v>-1.0988366444057349E-2</v>
       </c>
       <c r="AKZ1">
-        <v>3.7971466000000002E-2</v>
+        <v>-1.088806250490724E-2</v>
       </c>
       <c r="ALA1">
-        <v>3.7709615000000002E-2</v>
+        <v>-1.077946280646837E-2</v>
       </c>
       <c r="ALB1">
-        <v>3.7452449999999998E-2</v>
+        <v>-1.0678334069977259E-2</v>
       </c>
       <c r="ALC1">
-        <v>3.7191449000000001E-2</v>
+        <v>-1.058570755686021E-2</v>
       </c>
       <c r="ALD1">
-        <v>3.6970063999999997E-2</v>
+        <v>-1.0470628132554531E-2</v>
       </c>
       <c r="ALE1">
-        <v>3.6734957999999998E-2</v>
+        <v>-1.037322744520151E-2</v>
       </c>
       <c r="ALF1">
-        <v>3.6501857999999998E-2</v>
+        <v>-1.028408264460611E-2</v>
       </c>
       <c r="ALG1">
-        <v>3.6310328000000003E-2</v>
+        <v>-1.016787572531702E-2</v>
       </c>
       <c r="ALH1">
-        <v>3.6087829000000002E-2</v>
+        <v>-1.008771047797496E-2</v>
       </c>
       <c r="ALI1">
-        <v>3.5879935000000002E-2</v>
+        <v>-1.000893446508363E-2</v>
       </c>
       <c r="ALJ1">
-        <v>3.5691554E-2</v>
+        <v>-9.920953083549712E-3</v>
       </c>
       <c r="ALK1">
-        <v>3.5510723000000001E-2</v>
+        <v>-9.835398927896713E-3</v>
       </c>
       <c r="ALL1">
-        <v>3.5333793000000002E-2</v>
+        <v>-9.7560146046093491E-3</v>
       </c>
       <c r="ALM1">
-        <v>3.5174872000000003E-2</v>
+        <v>-9.6683547176058537E-3</v>
       </c>
       <c r="ALN1">
-        <v>3.5014056000000002E-2</v>
+        <v>-9.5912486179174986E-3</v>
       </c>
       <c r="ALO1">
-        <v>3.4846646000000002E-2</v>
+        <v>-9.5325900573282607E-3</v>
       </c>
       <c r="ALP1">
-        <v>3.4691381E-2</v>
+        <v>-9.4643245913755558E-3</v>
       </c>
       <c r="ALQ1">
-        <v>3.4557896999999997E-2</v>
+        <v>-9.3823418432418815E-3</v>
       </c>
       <c r="ALR1">
-        <v>3.4418307000000002E-2</v>
+        <v>-9.3114368622617266E-3</v>
       </c>
       <c r="ALS1">
-        <v>3.4286604999999998E-2</v>
+        <v>-9.2368716823074404E-3</v>
       </c>
       <c r="ALT1">
-        <v>3.413625E-2</v>
+        <v>-9.1834179359174054E-3</v>
       </c>
       <c r="ALU1">
-        <v>3.3966248999999997E-2</v>
+        <v>-9.1557404826149852E-3</v>
       </c>
       <c r="ALV1">
-        <v>3.3810088000000002E-2</v>
+        <v>-9.1112252158904172E-3</v>
       </c>
       <c r="ALW1">
-        <v>3.3645908000000002E-2</v>
+        <v>-9.0784243159246492E-3</v>
       </c>
       <c r="ALX1">
-        <v>3.3498923999999999E-2</v>
+        <v>-9.0245754206233417E-3</v>
       </c>
       <c r="ALY1">
-        <v>3.3371639000000002E-2</v>
+        <v>-8.9487848111607371E-3</v>
       </c>
       <c r="ALZ1">
-        <v>3.3237883000000003E-2</v>
+        <v>-8.881276516558477E-3</v>
       </c>
       <c r="AMA1">
-        <v>3.3094186999999997E-2</v>
+        <v>-8.8173703428682665E-3</v>
       </c>
       <c r="AMB1">
-        <v>3.2941599000000002E-2</v>
+        <v>-8.7560888158928971E-3</v>
       </c>
       <c r="AMC1">
-        <v>3.2782039999999998E-2</v>
+        <v>-8.7026123297672189E-3</v>
       </c>
       <c r="AMD1">
-        <v>3.2605382000000002E-2</v>
+        <v>-8.6550291054900627E-3</v>
       </c>
       <c r="AME1">
-        <v>3.2417517999999999E-2</v>
+        <v>-8.6140168915776472E-3</v>
       </c>
       <c r="AMF1">
-        <v>3.2240310000000001E-2</v>
+        <v>-8.5584882010116339E-3</v>
       </c>
       <c r="AMG1">
-        <v>3.2050108000000001E-2</v>
+        <v>-8.5017419405682901E-3</v>
       </c>
       <c r="AMH1">
-        <v>3.1857758999999999E-2</v>
+        <v>-8.4457636856925811E-3</v>
       </c>
       <c r="AMI1">
-        <v>3.1677351999999999E-2</v>
+        <v>-8.3716872672706111E-3</v>
       </c>
       <c r="AMJ1">
-        <v>3.1475773999999998E-2</v>
+        <v>-8.3035214699863566E-3</v>
       </c>
       <c r="AMK1">
-        <v>3.1253256E-2</v>
+        <v>-8.249403181901302E-3</v>
       </c>
       <c r="AML1">
-        <v>3.1034195000000001E-2</v>
+        <v>-8.1787550673397165E-3</v>
       </c>
       <c r="AMM1">
-        <v>3.0809191999999999E-2</v>
+        <v>-8.1057975552282745E-3</v>
       </c>
       <c r="AMN1">
-        <v>3.0568417000000001E-2</v>
+        <v>-8.0426302987248802E-3</v>
       </c>
       <c r="AMO1">
-        <v>3.0326275E-2</v>
+        <v>-7.9687790253909624E-3</v>
       </c>
       <c r="AMP1">
-        <v>3.0077133999999998E-2</v>
+        <v>-7.8998622844550538E-3</v>
       </c>
       <c r="AMQ1">
-        <v>2.9824831E-2</v>
+        <v>-7.82803248207916E-3</v>
       </c>
       <c r="AMR1">
-        <v>2.9587444000000001E-2</v>
+        <v>-7.7364787541669014E-3</v>
       </c>
       <c r="AMS1">
-        <v>2.9357795999999999E-2</v>
+        <v>-7.6437188752854733E-3</v>
       </c>
       <c r="AMT1">
-        <v>2.9120888000000001E-2</v>
+        <v>-7.5523145478942691E-3</v>
       </c>
       <c r="AMU1">
-        <v>2.8888699E-2</v>
+        <v>-7.4561534462417424E-3</v>
       </c>
       <c r="AMV1">
-        <v>2.864972E-2</v>
+        <v>-7.3743681408177516E-3</v>
       </c>
       <c r="AMW1">
-        <v>2.8404407E-2</v>
+        <v>-7.296097750450363E-3</v>
       </c>
       <c r="AMX1">
-        <v>2.8180032000000001E-2</v>
+        <v>-7.2070819031409203E-3</v>
       </c>
       <c r="AMY1">
-        <v>2.7935370000000001E-2</v>
+        <v>-7.1473211607882767E-3</v>
       </c>
       <c r="AMZ1">
-        <v>2.7686591E-2</v>
+        <v>-7.0947981666962742E-3</v>
       </c>
       <c r="ANA1">
-        <v>2.7451722000000001E-2</v>
+        <v>-7.0396460918272681E-3</v>
       </c>
       <c r="ANB1">
-        <v>2.7194935E-2</v>
+        <v>-7.0099626345993364E-3</v>
       </c>
       <c r="ANC1">
-        <v>2.6960068E-2</v>
+        <v>-6.9667440833238899E-3</v>
       </c>
       <c r="AND1">
-        <v>2.6744499000000001E-2</v>
+        <v>-6.9153320001264116E-3</v>
       </c>
       <c r="ANE1">
-        <v>2.6531227000000001E-2</v>
+        <v>-6.8687972206472742E-3</v>
       </c>
       <c r="ANF1">
-        <v>2.6347254000000001E-2</v>
+        <v>-6.8068559774919421E-3</v>
       </c>
       <c r="ANG1">
-        <v>2.6166537E-2</v>
+        <v>-6.7494346093818249E-3</v>
       </c>
       <c r="ANH1">
-        <v>2.5987617000000001E-2</v>
+        <v>-6.6987964447850004E-3</v>
       </c>
       <c r="ANI1">
-        <v>2.5814581999999999E-2</v>
+        <v>-6.6537386631434943E-3</v>
       </c>
       <c r="ANJ1">
-        <v>2.564493E-2</v>
+        <v>-6.6138970928767832E-3</v>
       </c>
       <c r="ANK1">
-        <v>2.5474239999999999E-2</v>
+        <v>-6.5869221789868447E-3</v>
       </c>
       <c r="ANL1">
-        <v>2.5304279999999998E-2</v>
+        <v>-6.5729227489491789E-3</v>
       </c>
       <c r="ANM1">
-        <v>2.5145089999999998E-2</v>
+        <v>-6.5550270129013516E-3</v>
       </c>
       <c r="ANN1">
-        <v>2.4985787999999998E-2</v>
+        <v>-6.5474320475084197E-3</v>
       </c>
       <c r="ANO1">
-        <v>2.4837524E-2</v>
+        <v>-6.5391527370110419E-3</v>
       </c>
       <c r="ANP1">
-        <v>2.4709756999999999E-2</v>
+        <v>-6.5194277753268014E-3</v>
       </c>
       <c r="ANQ1">
-        <v>2.4584549000000001E-2</v>
+        <v>-6.5056862312699547E-3</v>
       </c>
       <c r="ANR1">
-        <v>2.4454805999999999E-2</v>
+        <v>-6.5066613427820254E-3</v>
       </c>
       <c r="ANS1">
-        <v>2.4338874999999999E-2</v>
+        <v>-6.5000576162037964E-3</v>
       </c>
       <c r="ANT1">
-        <v>2.4231921E-2</v>
+        <v>-6.4934812325061972E-3</v>
       </c>
       <c r="ANU1">
-        <v>2.4129100000000001E-2</v>
+        <v>-6.4889264187442189E-3</v>
       </c>
       <c r="ANV1">
-        <v>2.4037454999999999E-2</v>
+        <v>-6.4814973776075244E-3</v>
       </c>
       <c r="ANW1">
-        <v>2.3956905000000001E-2</v>
+        <v>-6.4694072116472066E-3</v>
       </c>
       <c r="ANX1">
-        <v>2.3884934999999999E-2</v>
+        <v>-6.4563434796035546E-3</v>
       </c>
       <c r="ANY1">
-        <v>2.3818571E-2</v>
+        <v>-6.4404659575225537E-3</v>
       </c>
       <c r="ANZ1">
-        <v>2.3769977000000001E-2</v>
+        <v>-6.4114313634206499E-3</v>
       </c>
       <c r="AOA1">
-        <v>2.3703901999999999E-2</v>
+        <v>-6.4038754447144561E-3</v>
       </c>
       <c r="AOB1">
-        <v>2.3631552E-2</v>
+        <v>-6.4069872346346722E-3</v>
       </c>
       <c r="AOC1">
-        <v>2.3565099999999999E-2</v>
+        <v>-6.4090889808889736E-3</v>
       </c>
       <c r="AOD1">
-        <v>2.3487034E-2</v>
+        <v>-6.4297056940493813E-3</v>
       </c>
       <c r="AOE1">
-        <v>2.3428114999999999E-2</v>
+        <v>-6.4332672338693964E-3</v>
       </c>
       <c r="AOF1">
-        <v>2.3385886000000002E-2</v>
+        <v>-6.4234211637613711E-3</v>
       </c>
       <c r="AOG1">
-        <v>2.3342201E-2</v>
+        <v>-6.4164963222013878E-3</v>
       </c>
       <c r="AOH1">
-        <v>2.3304397000000001E-2</v>
+        <v>-6.405126730123032E-3</v>
       </c>
       <c r="AOI1">
-        <v>2.3256915E-2</v>
+        <v>-6.4075001867156013E-3</v>
       </c>
       <c r="AOJ1">
-        <v>2.3204096E-2</v>
+        <v>-6.4193383888408034E-3</v>
       </c>
       <c r="AOK1">
-        <v>2.3162695000000001E-2</v>
+        <v>-6.4202396213336801E-3</v>
       </c>
       <c r="AOL1">
-        <v>2.3119605000000001E-2</v>
+        <v>-6.4243796252777957E-3</v>
       </c>
       <c r="AOM1">
-        <v>2.3089060000000002E-2</v>
+        <v>-6.4226701434416042E-3</v>
       </c>
       <c r="AON1">
-        <v>2.3061080000000001E-2</v>
+        <v>-6.4163081589566733E-3</v>
       </c>
       <c r="AOO1">
-        <v>2.3043554000000001E-2</v>
+        <v>-6.4041949825774103E-3</v>
       </c>
       <c r="AOP1">
-        <v>2.3028797E-2</v>
+        <v>-6.395096446533452E-3</v>
       </c>
       <c r="AOQ1">
-        <v>2.3001748999999998E-2</v>
+        <v>-6.3906644365613711E-3</v>
       </c>
       <c r="AOR1">
-        <v>2.2991655E-2</v>
+        <v>-6.3720457857216204E-3</v>
       </c>
       <c r="AOS1">
-        <v>2.2978235999999999E-2</v>
+        <v>-6.3600421491454527E-3</v>
       </c>
       <c r="AOT1">
-        <v>2.2937361999999999E-2</v>
+        <v>-6.3726158621921656E-3</v>
       </c>
       <c r="AOU1">
-        <v>2.292686E-2</v>
+        <v>-6.3647919766050449E-3</v>
       </c>
       <c r="AOV1">
-        <v>2.2931973000000001E-2</v>
+        <v>-6.3436269691057E-3</v>
       </c>
       <c r="AOW1">
-        <v>2.2911561E-2</v>
+        <v>-6.3441437266709179E-3</v>
       </c>
       <c r="AOX1">
-        <v>2.2907278999999999E-2</v>
+        <v>-6.3329076532590194E-3</v>
       </c>
       <c r="AOY1">
-        <v>2.2910817E-2</v>
+        <v>-6.310712446600919E-3</v>
       </c>
       <c r="AOZ1">
-        <v>2.2901083999999999E-2</v>
+        <v>-6.3030704738772578E-3</v>
       </c>
       <c r="APA1">
-        <v>2.2892764999999999E-2</v>
+        <v>-6.2987265765523451E-3</v>
       </c>
       <c r="APB1">
-        <v>2.2872852999999999E-2</v>
+        <v>-6.304549576986538E-3</v>
       </c>
       <c r="APC1">
-        <v>2.2850232000000002E-2</v>
+        <v>-6.3166671815675403E-3</v>
       </c>
       <c r="APD1">
-        <v>2.2845519000000002E-2</v>
+        <v>-6.3097435139538652E-3</v>
       </c>
       <c r="APE1">
-        <v>2.2842319E-2</v>
+        <v>-6.3011541861025429E-3</v>
       </c>
       <c r="APF1">
-        <v>2.2849063999999999E-2</v>
+        <v>-6.2870880974406872E-3</v>
       </c>
       <c r="APG1">
-        <v>2.2856074000000001E-2</v>
+        <v>-6.2708544138597513E-3</v>
       </c>
       <c r="APH1">
-        <v>2.2836206000000001E-2</v>
+        <v>-6.2837747212062256E-3</v>
       </c>
       <c r="API1">
-        <v>2.282996E-2</v>
+        <v>-6.282863472664095E-3</v>
       </c>
       <c r="APJ1">
-        <v>2.2849311000000001E-2</v>
+        <v>-6.2545760304871696E-3</v>
       </c>
       <c r="APK1">
-        <v>2.2851150000000001E-2</v>
+        <v>-6.2484340013469059E-3</v>
       </c>
       <c r="APL1">
-        <v>2.2840033999999999E-2</v>
+        <v>-6.2542630160418583E-3</v>
       </c>
       <c r="APM1">
-        <v>2.2833824999999999E-2</v>
+        <v>-6.2580826943427967E-3</v>
       </c>
       <c r="APN1">
-        <v>2.2811034000000001E-2</v>
+        <v>-6.2804891192038519E-3</v>
       </c>
       <c r="APO1">
-        <v>2.2791138999999998E-2</v>
+        <v>-6.2949263179280616E-3</v>
       </c>
       <c r="APP1">
-        <v>2.2796568E-2</v>
+        <v>-6.2881784997969254E-3</v>
       </c>
       <c r="APQ1">
-        <v>2.2790590999999999E-2</v>
+        <v>-6.2930250766075717E-3</v>
       </c>
       <c r="APR1">
-        <v>2.2771481999999999E-2</v>
+        <v>-6.3085203217143476E-3</v>
       </c>
       <c r="APS1">
-        <v>2.2779210000000001E-2</v>
+        <v>-6.3047456434711102E-3</v>
       </c>
       <c r="APT1">
-        <v>2.2793872999999999E-2</v>
+        <v>-6.2942170753710301E-3</v>
       </c>
       <c r="APU1">
-        <v>2.2787906E-2</v>
+        <v>-6.3030604454460994E-3</v>
       </c>
       <c r="APV1">
-        <v>2.2800856000000001E-2</v>
+        <v>-6.2977849616140426E-3</v>
       </c>
       <c r="APW1">
-        <v>2.2817704000000001E-2</v>
+        <v>-6.2865557816844247E-3</v>
       </c>
       <c r="APX1">
-        <v>2.2815733000000001E-2</v>
+        <v>-6.2955678791577971E-3</v>
       </c>
       <c r="APY1">
-        <v>2.2839875999999999E-2</v>
+        <v>-6.2820950363239826E-3</v>
       </c>
       <c r="APZ1">
-        <v>2.2878046999999999E-2</v>
+        <v>-6.2566150801101617E-3</v>
       </c>
       <c r="AQA1">
-        <v>2.2904022E-2</v>
+        <v>-6.2486741668520036E-3</v>
       </c>
       <c r="AQB1">
-        <v>2.2934243999999999E-2</v>
+        <v>-6.2343248268717476E-3</v>
       </c>
       <c r="AQC1">
-        <v>2.2958993E-2</v>
+        <v>-6.2261299193485282E-3</v>
       </c>
       <c r="AQD1">
-        <v>2.2967944000000001E-2</v>
+        <v>-6.2368614487359787E-3</v>
       </c>
       <c r="AQE1">
-        <v>2.2980298999999999E-2</v>
+        <v>-6.2421951752687499E-3</v>
       </c>
       <c r="AQF1">
-        <v>2.3006509000000001E-2</v>
+        <v>-6.2394221410403267E-3</v>
       </c>
       <c r="AQG1">
-        <v>2.3043483999999999E-2</v>
+        <v>-6.2270996137968257E-3</v>
       </c>
       <c r="AQH1">
-        <v>2.3085847999999999E-2</v>
+        <v>-6.2062346142860514E-3</v>
       </c>
       <c r="AQI1">
-        <v>2.3125777E-2</v>
+        <v>-6.1926085152591744E-3</v>
       </c>
       <c r="AQJ1">
-        <v>2.3162561000000002E-2</v>
+        <v>-6.1816667143915734E-3</v>
       </c>
       <c r="AQK1">
-        <v>2.3197288999999999E-2</v>
+        <v>-6.1748319998863599E-3</v>
       </c>
       <c r="AQL1">
-        <v>2.3230371999999999E-2</v>
+        <v>-6.1742931316743346E-3</v>
       </c>
       <c r="AQM1">
-        <v>2.3253834000000001E-2</v>
+        <v>-6.178692092762568E-3</v>
       </c>
       <c r="AQN1">
-        <v>2.3271897999999999E-2</v>
+        <v>-6.1893071102081566E-3</v>
       </c>
       <c r="AQO1">
-        <v>2.3304658999999998E-2</v>
+        <v>-6.1846825466574488E-3</v>
       </c>
       <c r="AQP1">
-        <v>2.3336262E-2</v>
+        <v>-6.1784913185228101E-3</v>
       </c>
       <c r="AQQ1">
-        <v>2.337324E-2</v>
+        <v>-6.1750951774227729E-3</v>
       </c>
       <c r="AQR1">
-        <v>2.3420446000000001E-2</v>
+        <v>-6.1642739594972356E-3</v>
       </c>
       <c r="AQS1">
-        <v>2.3451255000000001E-2</v>
+        <v>-6.1693584982381137E-3</v>
       </c>
       <c r="AQT1">
-        <v>2.3478266000000001E-2</v>
+        <v>-6.1813111315419276E-3</v>
       </c>
       <c r="AQU1">
-        <v>2.3507957999999999E-2</v>
+        <v>-6.1865066290622932E-3</v>
       </c>
       <c r="AQV1">
-        <v>2.3540391000000001E-2</v>
+        <v>-6.1859300659446786E-3</v>
       </c>
       <c r="AQW1">
-        <v>2.3568790999999999E-2</v>
+        <v>-6.1915013507214713E-3</v>
       </c>
       <c r="AQX1">
-        <v>2.3603163999999999E-2</v>
+        <v>-6.1917040027764172E-3</v>
       </c>
       <c r="AQY1">
-        <v>2.3651061000000001E-2</v>
+        <v>-6.1809533230595889E-3</v>
       </c>
       <c r="AQZ1">
-        <v>2.3675597999999999E-2</v>
+        <v>-6.1935015722935534E-3</v>
       </c>
       <c r="ARA1">
-        <v>2.3712909000000001E-2</v>
+        <v>-6.1928201254653412E-3</v>
       </c>
       <c r="ARB1">
-        <v>2.3778249000000001E-2</v>
+        <v>-6.1656882512897138E-3</v>
       </c>
       <c r="ARC1">
-        <v>2.3819073E-2</v>
+        <v>-6.159656399823691E-3</v>
       </c>
       <c r="ARD1">
-        <v>2.3858556999999999E-2</v>
+        <v>-6.1575302029167577E-3</v>
       </c>
       <c r="ARE1">
-        <v>2.3913144000000001E-2</v>
+        <v>-6.1420794235313297E-3</v>
       </c>
       <c r="ARF1">
-        <v>2.3962417E-2</v>
+        <v>-6.1279675441138206E-3</v>
       </c>
       <c r="ARG1">
-        <v>2.4003361000000001E-2</v>
+        <v>-6.125472571276297E-3</v>
       </c>
       <c r="ARH1">
-        <v>2.4042812E-2</v>
+        <v>-6.1233857828087018E-3</v>
       </c>
       <c r="ARI1">
-        <v>2.4085352000000001E-2</v>
+        <v>-6.1161280552115491E-3</v>
       </c>
       <c r="ARJ1">
-        <v>2.4100888000000001E-2</v>
+        <v>-6.1391702465055271E-3</v>
       </c>
       <c r="ARK1">
-        <v>2.4115493000000002E-2</v>
+        <v>-6.1616524148182181E-3</v>
       </c>
       <c r="ARL1">
-        <v>2.416364E-2</v>
+        <v>-6.1523247270644892E-3</v>
       </c>
       <c r="ARM1">
-        <v>2.4212072000000001E-2</v>
+        <v>-6.1420069433458027E-3</v>
       </c>
       <c r="ARN1">
-        <v>2.4254583999999999E-2</v>
+        <v>-6.1342484902788437E-3</v>
       </c>
       <c r="ARO1">
-        <v>2.4294065E-2</v>
+        <v>-6.1344468990351094E-3</v>
       </c>
       <c r="ARP1">
-        <v>2.4313694E-2</v>
+        <v>-6.1538868575750257E-3</v>
       </c>
       <c r="ARQ1">
-        <v>2.4332618E-2</v>
+        <v>-6.1744987557149009E-3</v>
       </c>
       <c r="ARR1">
-        <v>2.4370234000000001E-2</v>
+        <v>-6.1794089346389677E-3</v>
       </c>
       <c r="ARS1">
-        <v>2.4410769999999998E-2</v>
+        <v>-6.1744513460544456E-3</v>
       </c>
       <c r="ART1">
-        <v>2.4460050000000001E-2</v>
+        <v>-6.1607447131531816E-3</v>
       </c>
       <c r="ARU1">
-        <v>2.4496220999999999E-2</v>
+        <v>-6.1629728647130946E-3</v>
       </c>
       <c r="ARV1">
-        <v>2.4517623999999998E-2</v>
+        <v>-6.17772818305019E-3</v>
       </c>
       <c r="ARW1">
-        <v>2.4551975E-2</v>
+        <v>-6.1850857852976844E-3</v>
       </c>
       <c r="ARX1">
-        <v>2.4577696E-2</v>
+        <v>-6.201260291702558E-3</v>
       </c>
       <c r="ARY1">
-        <v>2.4608094E-2</v>
+        <v>-6.2091120056521239E-3</v>
       </c>
       <c r="ARZ1">
-        <v>2.4651151E-2</v>
+        <v>-6.2069070118266727E-3</v>
       </c>
       <c r="ASA1">
-        <v>2.4686443999999998E-2</v>
+        <v>-6.2094687501755806E-3</v>
       </c>
       <c r="ASB1">
-        <v>2.4723913E-2</v>
+        <v>-6.2088287778425304E-3</v>
       </c>
       <c r="ASC1">
-        <v>2.4758708000000001E-2</v>
+        <v>-6.2109541302625693E-3</v>
       </c>
       <c r="ASD1">
-        <v>2.4802247999999999E-2</v>
+        <v>-6.204299168715819E-3</v>
       </c>
       <c r="ASE1">
-        <v>2.4846455E-2</v>
+        <v>-6.2014189370478007E-3</v>
       </c>
       <c r="ASF1">
-        <v>2.4861095999999999E-2</v>
+        <v>-6.2252226202271976E-3</v>
       </c>
       <c r="ASG1">
-        <v>2.4902824E-2</v>
+        <v>-6.2237778295866561E-3</v>
       </c>
       <c r="ASH1">
-        <v>2.4956850999999999E-2</v>
+        <v>-6.2114192975081702E-3</v>
       </c>
       <c r="ASI1">
-        <v>2.4979133000000001E-2</v>
+        <v>-6.222311909701541E-3</v>
       </c>
       <c r="ASJ1">
-        <v>2.5025814E-2</v>
+        <v>-6.2117082734661662E-3</v>
       </c>
       <c r="ASK1">
-        <v>2.5073523E-2</v>
+        <v>-6.2012675762231143E-3</v>
       </c>
       <c r="ASL1">
-        <v>2.5093254999999998E-2</v>
+        <v>-6.2148821215058901E-3</v>
       </c>
       <c r="ASM1">
-        <v>2.5118768E-2</v>
+        <v>-6.2291931968945571E-3</v>
       </c>
       <c r="ASN1">
-        <v>2.5142101E-2</v>
+        <v>-6.2459939571679023E-3</v>
       </c>
       <c r="ASO1">
-        <v>2.5170963000000001E-2</v>
+        <v>-6.2533894147340091E-3</v>
       </c>
       <c r="ASP1">
-        <v>2.5215980999999998E-2</v>
+        <v>-6.2446852141120274E-3</v>
       </c>
       <c r="ASQ1">
-        <v>2.5259255000000001E-2</v>
+        <v>-6.234217515505798E-3</v>
       </c>
       <c r="ASR1">
-        <v>2.5306703E-2</v>
+        <v>-6.2208455287711163E-3</v>
       </c>
       <c r="ASS1">
-        <v>2.5342580999999999E-2</v>
+        <v>-6.2212275658018656E-3</v>
       </c>
       <c r="AST1">
-        <v>2.5348900000000001E-2</v>
+        <v>-6.2516343045411664E-3</v>
       </c>
       <c r="ASU1">
-        <v>2.5356408E-2</v>
+        <v>-6.2841041288166227E-3</v>
       </c>
       <c r="ASV1">
-        <v>2.5369776E-2</v>
+        <v>-6.3068481640934718E-3</v>
       </c>
       <c r="ASW1">
-        <v>2.5391219999999999E-2</v>
+        <v>-6.3205672934364028E-3</v>
       </c>
       <c r="ASX1">
-        <v>2.5442068000000002E-2</v>
+        <v>-6.3049763133826257E-3</v>
       </c>
       <c r="ASY1">
-        <v>2.5492465999999998E-2</v>
+        <v>-6.2856587280382681E-3</v>
       </c>
       <c r="ASZ1">
-        <v>2.5520103999999998E-2</v>
+        <v>-6.2946163293929082E-3</v>
       </c>
       <c r="ATA1">
-        <v>2.5556862E-2</v>
+        <v>-6.2934486763065248E-3</v>
       </c>
       <c r="ATB1">
-        <v>2.5583062E-2</v>
+        <v>-6.2995696893970062E-3</v>
       </c>
       <c r="ATC1">
-        <v>2.5582355000000001E-2</v>
+        <v>-6.3384721554356066E-3</v>
       </c>
       <c r="ATD1">
-        <v>2.5617353999999998E-2</v>
+        <v>-6.3367134652416654E-3</v>
       </c>
       <c r="ATE1">
-        <v>2.5651305999999999E-2</v>
+        <v>-6.3357143750099008E-3</v>
       </c>
       <c r="ATF1">
-        <v>2.5664472000000001E-2</v>
+        <v>-6.3596771854732212E-3</v>
       </c>
       <c r="ATG1">
-        <v>2.5717473000000001E-2</v>
+        <v>-6.3362171997446044E-3</v>
       </c>
       <c r="ATH1">
-        <v>2.5762402E-2</v>
+        <v>-6.3224220173216626E-3</v>
       </c>
       <c r="ATI1">
-        <v>2.5792995999999999E-2</v>
+        <v>-6.3243692011318853E-3</v>
       </c>
       <c r="ATJ1">
-        <v>2.5827941E-2</v>
+        <v>-6.3195025921017889E-3</v>
       </c>
       <c r="ATK1">
-        <v>2.5844122000000001E-2</v>
+        <v>-6.3395921303054138E-3</v>
       </c>
       <c r="ATL1">
-        <v>2.5861077E-2</v>
+        <v>-6.3555323612002022E-3</v>
       </c>
       <c r="ATM1">
-        <v>2.5879256999999999E-2</v>
+        <v>-6.3685093212772492E-3</v>
       </c>
       <c r="ATN1">
-        <v>2.5908305999999999E-2</v>
+        <v>-6.3728721915351644E-3</v>
       </c>
       <c r="ATO1">
-        <v>2.5949626E-2</v>
+        <v>-6.3596443732091756E-3</v>
       </c>
       <c r="ATP1">
-        <v>2.5980219999999998E-2</v>
+        <v>-6.3615239949627138E-3</v>
       </c>
       <c r="ATQ1">
-        <v>2.6009682999999999E-2</v>
+        <v>-6.3630609499878248E-3</v>
       </c>
       <c r="ATR1">
-        <v>2.6040546000000001E-2</v>
+        <v>-6.3580338538951967E-3</v>
       </c>
       <c r="ATS1">
-        <v>2.6073919000000001E-2</v>
+        <v>-6.3564900809215674E-3</v>
       </c>
       <c r="ATT1">
-        <v>2.6102516999999999E-2</v>
+        <v>-6.3570546026079609E-3</v>
       </c>
       <c r="ATU1">
-        <v>2.6142789E-2</v>
+        <v>-6.3467966659821566E-3</v>
       </c>
       <c r="ATV1">
-        <v>2.6198729E-2</v>
+        <v>-6.3241831536450938E-3</v>
       </c>
       <c r="ATW1">
-        <v>2.6214529E-2</v>
+        <v>-6.3335749915637424E-3</v>
       </c>
       <c r="ATX1">
-        <v>2.6234932999999998E-2</v>
+        <v>-6.3386071547040061E-3</v>
       </c>
       <c r="ATY1">
-        <v>2.626508E-2</v>
+        <v>-6.3352644265757332E-3</v>
       </c>
       <c r="ATZ1">
-        <v>2.6277398E-2</v>
+        <v>-6.3493789660497083E-3</v>
       </c>
       <c r="AUA1">
-        <v>2.6311896000000001E-2</v>
+        <v>-6.3487062063875242E-3</v>
       </c>
       <c r="AUB1">
-        <v>2.6317839999999999E-2</v>
+        <v>-6.3740302048754111E-3</v>
       </c>
       <c r="AUC1">
-        <v>2.6311883000000001E-2</v>
+        <v>-6.409281153901332E-3</v>
       </c>
       <c r="AUD1">
-        <v>2.6334553E-2</v>
+        <v>-6.4173352894458628E-3</v>
       </c>
       <c r="AUE1">
-        <v>2.636575E-2</v>
+        <v>-6.4111596278446092E-3</v>
       </c>
       <c r="AUF1">
-        <v>2.6420505E-2</v>
+        <v>-6.3858659245489349E-3</v>
       </c>
       <c r="AUG1">
-        <v>2.6470361000000001E-2</v>
+        <v>-6.3660125394859463E-3</v>
       </c>
       <c r="AUH1">
-        <v>2.6489681000000001E-2</v>
+        <v>-6.3730177908850778E-3</v>
       </c>
       <c r="AUI1">
-        <v>2.6503550000000001E-2</v>
+        <v>-6.391453911079259E-3</v>
       </c>
       <c r="AUJ1">
-        <v>2.6521336999999999E-2</v>
+        <v>-6.4024816435791854E-3</v>
       </c>
       <c r="AUK1">
-        <v>2.6546672E-2</v>
+        <v>-6.4058424496584686E-3</v>
       </c>
       <c r="AUL1">
-        <v>2.6572327E-2</v>
+        <v>-6.4116657710788921E-3</v>
       </c>
       <c r="AUM1">
-        <v>2.6574601999999999E-2</v>
+        <v>-6.4344901532326013E-3</v>
       </c>
       <c r="AUN1">
-        <v>2.6594986000000001E-2</v>
+        <v>-6.4424906634735976E-3</v>
       </c>
       <c r="AUO1">
-        <v>2.6623336000000001E-2</v>
+        <v>-6.4406624327194156E-3</v>
       </c>
       <c r="AUP1">
-        <v>2.6653934000000001E-2</v>
+        <v>-6.4334308844906478E-3</v>
       </c>
       <c r="AUQ1">
-        <v>2.6719155000000001E-2</v>
+        <v>-6.4002138584781133E-3</v>
       </c>
       <c r="AUR1">
-        <v>2.6752347999999999E-2</v>
+        <v>-6.3956746917308641E-3</v>
       </c>
       <c r="AUS1">
-        <v>2.6786489E-2</v>
+        <v>-6.3888826061912173E-3</v>
       </c>
       <c r="AUT1">
-        <v>2.6834205999999999E-2</v>
+        <v>-6.3714105294192594E-3</v>
       </c>
       <c r="AUU1">
-        <v>2.6845082999999999E-2</v>
+        <v>-6.3816568839802981E-3</v>
       </c>
       <c r="AUV1">
-        <v>2.6858743000000001E-2</v>
+        <v>-6.389137825109515E-3</v>
       </c>
       <c r="AUW1">
-        <v>2.6879305999999999E-2</v>
+        <v>-6.3926474977069291E-3</v>
       </c>
       <c r="AUX1">
-        <v>2.6894852E-2</v>
+        <v>-6.3999992036624974E-3</v>
       </c>
       <c r="AUY1">
-        <v>2.6883776000000002E-2</v>
+        <v>-6.43893721062469E-3</v>
       </c>
       <c r="AUZ1">
-        <v>2.6870642E-2</v>
+        <v>-6.4782204449591423E-3</v>
       </c>
       <c r="AVA1">
-        <v>2.689859E-2</v>
+        <v>-6.4750198767749836E-3</v>
       </c>
       <c r="AVB1">
-        <v>2.6915583E-2</v>
+        <v>-6.4826170917765824E-3</v>
       </c>
       <c r="AVC1">
-        <v>2.6939510999999999E-2</v>
+        <v>-6.4772337460890991E-3</v>
       </c>
       <c r="AVD1">
-        <v>2.6993303999999999E-2</v>
+        <v>-6.4453795760231643E-3</v>
       </c>
       <c r="AVE1">
-        <v>2.6999809E-2</v>
+        <v>-6.4618750832279477E-3</v>
       </c>
       <c r="AVF1">
-        <v>2.6979439000000001E-2</v>
+        <v>-6.5029303706715599E-3</v>
       </c>
       <c r="AVG1">
-        <v>2.7004394000000001E-2</v>
+        <v>-6.5056184463190662E-3</v>
       </c>
       <c r="AVH1">
-        <v>2.7042699E-2</v>
+        <v>-6.4921478527856314E-3</v>
       </c>
       <c r="AVI1">
-        <v>2.7069537000000001E-2</v>
+        <v>-6.4859556042063636E-3</v>
       </c>
       <c r="AVJ1">
-        <v>2.7105613000000001E-2</v>
+        <v>-6.4740818154745616E-3</v>
       </c>
       <c r="AVK1">
-        <v>2.7134572999999999E-2</v>
+        <v>-6.4641734357451996E-3</v>
       </c>
       <c r="AVL1">
-        <v>2.7149676000000001E-2</v>
+        <v>-6.4702594534274648E-3</v>
       </c>
       <c r="AVM1">
-        <v>2.7159500999999999E-2</v>
+        <v>-6.4807850164926087E-3</v>
       </c>
       <c r="AVN1">
-        <v>2.7178896000000001E-2</v>
+        <v>-6.4844103634931517E-3</v>
       </c>
       <c r="AVO1">
-        <v>2.7175055E-2</v>
+        <v>-6.5107721148338236E-3</v>
       </c>
       <c r="AVP1">
-        <v>2.7191541E-2</v>
+        <v>-6.5164207980825568E-3</v>
       </c>
       <c r="AVQ1">
-        <v>2.7218445000000001E-2</v>
+        <v>-6.5155161847600188E-3</v>
       </c>
       <c r="AVR1">
-        <v>2.7227422000000001E-2</v>
+        <v>-6.5273457042763364E-3</v>
       </c>
       <c r="AVS1">
-        <v>2.7254852999999999E-2</v>
+        <v>-6.5191866748193529E-3</v>
       </c>
       <c r="AVT1">
-        <v>2.7278535E-2</v>
+        <v>-6.5168265526393022E-3</v>
       </c>
       <c r="AVU1">
-        <v>2.728908E-2</v>
+        <v>-6.5258476831627976E-3</v>
       </c>
       <c r="AVV1">
-        <v>2.7319085999999999E-2</v>
+        <v>-6.5188377677965932E-3</v>
       </c>
       <c r="AVW1">
-        <v>2.7356866000000001E-2</v>
+        <v>-6.5045903832632278E-3</v>
       </c>
       <c r="AVX1">
-        <v>2.7387808999999999E-2</v>
+        <v>-6.4942083762717893E-3</v>
       </c>
       <c r="AVY1">
-        <v>2.7409658999999999E-2</v>
+        <v>-6.4940438859235443E-3</v>
       </c>
       <c r="AVZ1">
-        <v>2.7418535000000001E-2</v>
+        <v>-6.5037558455484749E-3</v>
       </c>
       <c r="AWA1">
-        <v>2.7416287000000001E-2</v>
+        <v>-6.5250268173698452E-3</v>
       </c>
       <c r="AWB1">
-        <v>2.7430462999999999E-2</v>
+        <v>-6.5298553799535558E-3</v>
       </c>
       <c r="AWC1">
-        <v>2.7451744E-2</v>
+        <v>-6.5225620890132542E-3</v>
       </c>
       <c r="AWD1">
-        <v>2.7475665999999999E-2</v>
+        <v>-6.5167286771007499E-3</v>
       </c>
       <c r="AWE1">
-        <v>2.7519017999999999E-2</v>
+        <v>-6.4920942505583383E-3</v>
       </c>
       <c r="AWF1">
-        <v>2.75439E-2</v>
+        <v>-6.4852797439491376E-3</v>
       </c>
       <c r="AWG1">
-        <v>2.7535541E-2</v>
+        <v>-6.5124392748393406E-3</v>
       </c>
       <c r="AWH1">
-        <v>2.7507329000000001E-2</v>
+        <v>-6.5541940982222421E-3</v>
       </c>
       <c r="AWI1">
-        <v>2.7482152999999999E-2</v>
+        <v>-6.5949501044606923E-3</v>
       </c>
       <c r="AWJ1">
-        <v>2.7474695E-2</v>
+        <v>-6.617943778898714E-3</v>
       </c>
       <c r="AWK1">
-        <v>2.7514723000000001E-2</v>
+        <v>-6.5914661278701284E-3</v>
       </c>
       <c r="AWL1">
-        <v>2.7599083999999999E-2</v>
+        <v>-6.5262970460109038E-3</v>
       </c>
       <c r="AWM1">
-        <v>2.7637833000000001E-2</v>
+        <v>-6.5022015780845169E-3</v>
       </c>
       <c r="AWN1">
-        <v>2.7624200000000002E-2</v>
+        <v>-6.5262356938512421E-3</v>
       </c>
       <c r="AWO1">
-        <v>2.7620979E-2</v>
+        <v>-6.5422381666851584E-3</v>
       </c>
       <c r="AWP1">
-        <v>2.7618189000000001E-2</v>
+        <v>-6.5536942122478813E-3</v>
       </c>
       <c r="AWQ1">
-        <v>2.7630050999999999E-2</v>
+        <v>-6.5530229724481449E-3</v>
       </c>
       <c r="AWR1">
-        <v>2.7679913E-2</v>
+        <v>-6.5166244217260312E-3</v>
       </c>
       <c r="AWS1">
-        <v>2.7701709000000001E-2</v>
+        <v>-6.5062102672891371E-3</v>
       </c>
       <c r="AWT1">
-        <v>2.7698699E-2</v>
+        <v>-6.5253805183621109E-3</v>
       </c>
       <c r="AWU1">
-        <v>2.7704858999999998E-2</v>
+        <v>-6.533438823644204E-3</v>
       </c>
       <c r="AWV1">
-        <v>2.7700987E-2</v>
+        <v>-6.5500391896030283E-3</v>
       </c>
       <c r="AWW1">
-        <v>2.7697995E-2</v>
+        <v>-6.5685711577663994E-3</v>
       </c>
       <c r="AWX1">
-        <v>2.7703986E-2</v>
+        <v>-6.5724044654977241E-3</v>
       </c>
       <c r="AWY1">
-        <v>2.7705705000000001E-2</v>
+        <v>-6.5819886949478289E-3</v>
       </c>
       <c r="AWZ1">
-        <v>2.7720037999999999E-2</v>
+        <v>-6.580511651336312E-3</v>
       </c>
       <c r="AXA1">
-        <v>2.7742501999999999E-2</v>
+        <v>-6.5693567298130209E-3</v>
       </c>
       <c r="AXB1">
-        <v>2.7743327000000002E-2</v>
+        <v>-6.5863313739840364E-3</v>
       </c>
       <c r="AXC1">
-        <v>2.7753085E-2</v>
+        <v>-6.5887516285575778E-3</v>
       </c>
       <c r="AXD1">
-        <v>2.7756033999999999E-2</v>
+        <v>-6.5937838308794579E-3</v>
       </c>
       <c r="AXE1">
-        <v>2.7733206999999999E-2</v>
+        <v>-6.626144845686778E-3</v>
       </c>
       <c r="AXF1">
-        <v>2.7724207000000001E-2</v>
+        <v>-6.6389538631657086E-3</v>
       </c>
       <c r="AXG1">
-        <v>2.7740153E-2</v>
+        <v>-6.6307248946216486E-3</v>
       </c>
       <c r="AXH1">
-        <v>2.7797715000000001E-2</v>
+        <v>-6.5782590032002451E-3</v>
       </c>
       <c r="AXI1">
-        <v>2.7821375999999998E-2</v>
+        <v>-6.5628843004883891E-3</v>
       </c>
       <c r="AXJ1">
-        <v>2.7846513E-2</v>
+        <v>-6.5484221028524886E-3</v>
       </c>
       <c r="AXK1">
-        <v>2.7860493E-2</v>
+        <v>-6.5413126312134501E-3</v>
       </c>
       <c r="AXL1">
-        <v>2.7845484E-2</v>
+        <v>-6.5672205792699744E-3</v>
       </c>
       <c r="AXM1">
-        <v>2.7832352000000001E-2</v>
+        <v>-6.5861030241632186E-3</v>
       </c>
       <c r="AXN1">
-        <v>2.7835444000000001E-2</v>
+        <v>-6.5830066602594432E-3</v>
       </c>
       <c r="AXO1">
-        <v>2.7821081000000001E-2</v>
+        <v>-6.6007221565607876E-3</v>
       </c>
       <c r="AXP1">
-        <v>2.7758497E-2</v>
+        <v>-6.6628587870044657E-3</v>
       </c>
       <c r="AXQ1">
-        <v>2.7756871999999998E-2</v>
+        <v>-6.6690677843587766E-3</v>
       </c>
       <c r="AXR1">
-        <v>2.7787664E-2</v>
+        <v>-6.647869116905309E-3</v>
       </c>
       <c r="AXS1">
-        <v>2.7800945000000001E-2</v>
+        <v>-6.6372896496635601E-3</v>
       </c>
       <c r="AXT1">
-        <v>2.7850931999999998E-2</v>
+        <v>-6.591223472172638E-3</v>
       </c>
       <c r="AXU1">
-        <v>2.7866605999999999E-2</v>
+        <v>-6.5723885195484617E-3</v>
       </c>
       <c r="AXV1">
-        <v>2.7849604999999999E-2</v>
+        <v>-6.5896998878106176E-3</v>
       </c>
       <c r="AXW1">
-        <v>2.7848448000000001E-2</v>
+        <v>-6.5925240277045077E-3</v>
       </c>
       <c r="AXX1">
-        <v>2.7847242000000001E-2</v>
+        <v>-6.5891750141127518E-3</v>
       </c>
       <c r="AXY1">
-        <v>2.7868365999999999E-2</v>
+        <v>-6.5686327727368342E-3</v>
       </c>
       <c r="AXZ1">
-        <v>2.7886628E-2</v>
+        <v>-6.5483856758387386E-3</v>
       </c>
       <c r="AYA1">
-        <v>2.7861380000000002E-2</v>
+        <v>-6.5740686279325417E-3</v>
       </c>
       <c r="AYB1">
-        <v>2.7858539000000002E-2</v>
+        <v>-6.5820013577881677E-3</v>
       </c>
       <c r="AYC1">
-        <v>2.7854249000000001E-2</v>
+        <v>-6.579475693738901E-3</v>
       </c>
       <c r="AYD1">
-        <v>2.7834666000000001E-2</v>
+        <v>-6.5950757477631376E-3</v>
       </c>
       <c r="AYE1">
-        <v>2.7861760999999999E-2</v>
+        <v>-6.5656461598022804E-3</v>
       </c>
       <c r="AYF1">
-        <v>2.788436E-2</v>
+        <v>-6.5357802902131432E-3</v>
       </c>
       <c r="AYG1">
-        <v>2.7889045000000001E-2</v>
+        <v>-6.5350587147201232E-3</v>
       </c>
       <c r="AYH1">
-        <v>2.7915088000000001E-2</v>
+        <v>-6.5112263421846193E-3</v>
       </c>
       <c r="AYI1">
-        <v>2.7951791E-2</v>
+        <v>-6.4745418666030544E-3</v>
       </c>
       <c r="AYJ1">
-        <v>2.7951883E-2</v>
+        <v>-6.4786775356563721E-3</v>
       </c>
       <c r="AYK1">
-        <v>2.7924549E-2</v>
+        <v>-6.5040071667152406E-3</v>
       </c>
       <c r="AYL1">
-        <v>2.7916689000000001E-2</v>
+        <v>-6.5108331011138644E-3</v>
       </c>
       <c r="AYM1">
-        <v>2.7896231E-2</v>
+        <v>-6.5267257570520189E-3</v>
       </c>
       <c r="AYN1">
-        <v>2.7907184000000002E-2</v>
+        <v>-6.5100847367993639E-3</v>
       </c>
       <c r="AYO1">
-        <v>2.7969444E-2</v>
+        <v>-6.4537157140714049E-3</v>
       </c>
       <c r="AYP1">
-        <v>2.7972662999999998E-2</v>
+        <v>-6.4526278275808951E-3</v>
       </c>
       <c r="AYQ1">
-        <v>2.7974352000000001E-2</v>
+        <v>-6.4521505353771456E-3</v>
       </c>
       <c r="AYR1">
-        <v>2.7962833999999999E-2</v>
+        <v>-6.4615213890357494E-3</v>
       </c>
       <c r="AYS1">
-        <v>2.7897557E-2</v>
+        <v>-6.5155285523930441E-3</v>
       </c>
       <c r="AYT1">
-        <v>2.7879793999999999E-2</v>
+        <v>-6.526999768505317E-3</v>
       </c>
       <c r="AYU1">
-        <v>2.7885266999999998E-2</v>
+        <v>-6.5157768186784627E-3</v>
       </c>
       <c r="AYV1">
-        <v>2.7877452E-2</v>
+        <v>-6.5194600413664358E-3</v>
       </c>
       <c r="AYW1">
-        <v>2.78873E-2</v>
+        <v>-6.5080020309518233E-3</v>
       </c>
       <c r="AYX1">
-        <v>2.7880344000000001E-2</v>
+        <v>-6.5099923588478881E-3</v>
       </c>
       <c r="AYY1">
-        <v>2.7841451E-2</v>
+        <v>-6.5466704081552293E-3</v>
       </c>
       <c r="AYZ1">
-        <v>2.7841736999999998E-2</v>
+        <v>-6.5392232816756622E-3</v>
       </c>
       <c r="AZA1">
-        <v>2.7864877999999999E-2</v>
+        <v>-6.5036218438330982E-3</v>
       </c>
       <c r="AZB1">
-        <v>2.7884863999999999E-2</v>
+        <v>-6.4740257005428611E-3</v>
       </c>
       <c r="AZC1">
-        <v>2.7930013E-2</v>
+        <v>-6.4181130499376474E-3</v>
       </c>
       <c r="AZD1">
-        <v>2.7952345E-2</v>
+        <v>-6.3852733504498153E-3</v>
       </c>
       <c r="AZE1">
-        <v>2.7966722999999999E-2</v>
+        <v>-6.3601781460178308E-3</v>
       </c>
       <c r="AZF1">
-        <v>2.7960313000000001E-2</v>
+        <v>-6.3541257995468579E-3</v>
       </c>
       <c r="AZG1">
-        <v>2.7940585E-2</v>
+        <v>-6.3632997370213322E-3</v>
       </c>
       <c r="AZH1">
-        <v>2.7914323000000001E-2</v>
+        <v>-6.3719417364107023E-3</v>
       </c>
       <c r="AZI1">
-        <v>2.7858616999999999E-2</v>
+        <v>-6.406225115938996E-3</v>
       </c>
       <c r="AZJ1">
-        <v>2.7849677999999999E-2</v>
+        <v>-6.3990796428972756E-3</v>
       </c>
       <c r="AZK1">
-        <v>2.7834339E-2</v>
+        <v>-6.3893726071765598E-3</v>
       </c>
       <c r="AZL1">
-        <v>2.7843653999999999E-2</v>
+        <v>-6.3682412931192027E-3</v>
       </c>
       <c r="AZM1">
-        <v>2.7853665E-2</v>
+        <v>-6.3447508032334933E-3</v>
       </c>
       <c r="AZN1">
-        <v>2.7824984000000001E-2</v>
+        <v>-6.3541780065944631E-3</v>
       </c>
       <c r="AZO1">
-        <v>2.7811837999999998E-2</v>
+        <v>-6.3495526460603984E-3</v>
       </c>
       <c r="AZP1">
-        <v>2.7804454999999999E-2</v>
+        <v>-6.3266245877326259E-3</v>
       </c>
       <c r="AZQ1">
-        <v>2.7766039999999999E-2</v>
+        <v>-6.3371013788884011E-3</v>
       </c>
       <c r="AZR1">
-        <v>2.7739931999999998E-2</v>
+        <v>-6.3359764674025473E-3</v>
       </c>
       <c r="AZS1">
-        <v>2.77249E-2</v>
+        <v>-6.3154043776571904E-3</v>
       </c>
       <c r="AZT1">
-        <v>2.7700633999999998E-2</v>
+        <v>-6.3164200751408342E-3</v>
       </c>
       <c r="AZU1">
-        <v>2.7680871999999999E-2</v>
+        <v>-6.3065396763160447E-3</v>
       </c>
       <c r="AZV1">
-        <v>2.7662988999999999E-2</v>
+        <v>-6.2953693285158494E-3</v>
       </c>
       <c r="AZW1">
-        <v>2.7650584999999998E-2</v>
+        <v>-6.2740777732295423E-3</v>
       </c>
       <c r="AZX1">
-        <v>2.7639041999999999E-2</v>
+        <v>-6.2455556002773659E-3</v>
       </c>
       <c r="AZY1">
-        <v>2.7625708999999998E-2</v>
+        <v>-6.2173349420596678E-3</v>
       </c>
       <c r="AZZ1">
-        <v>2.7634453E-2</v>
+        <v>-6.1618185253836874E-3</v>
       </c>
       <c r="BAA1">
-        <v>2.7615006000000001E-2</v>
+        <v>-6.1368332913836789E-3</v>
       </c>
       <c r="BAB1">
-        <v>2.7579145999999999E-2</v>
+        <v>-6.1301957317850819E-3</v>
       </c>
       <c r="BAC1">
-        <v>2.7536888999999998E-2</v>
+        <v>-6.1229825233294656E-3</v>
       </c>
       <c r="BAD1">
-        <v>2.7469395000000001E-2</v>
+        <v>-6.1405064564256963E-3</v>
       </c>
       <c r="BAE1">
-        <v>2.7418397000000001E-2</v>
+        <v>-6.1365856766319692E-3</v>
       </c>
       <c r="BAF1">
-        <v>2.7378428999999999E-2</v>
+        <v>-6.1140748093110771E-3</v>
       </c>
       <c r="BAG1">
-        <v>2.7318298000000001E-2</v>
+        <v>-6.1120234261122274E-3</v>
       </c>
       <c r="BAH1">
-        <v>2.7239895E-2</v>
+        <v>-6.1217293810909186E-3</v>
       </c>
       <c r="BAI1">
-        <v>2.7193921999999999E-2</v>
+        <v>-6.1093393275116724E-3</v>
       </c>
       <c r="BAJ1">
-        <v>2.7146292999999998E-2</v>
+        <v>-6.1017524039139077E-3</v>
       </c>
       <c r="BAK1">
-        <v>2.7110935999999999E-2</v>
+        <v>-6.0804895003433723E-3</v>
       </c>
       <c r="BAL1">
-        <v>2.7109748999999999E-2</v>
+        <v>-6.0323482148427546E-3</v>
       </c>
       <c r="BAM1">
-        <v>2.7092608000000001E-2</v>
+        <v>-5.9948349306103224E-3</v>
       </c>
       <c r="BAN1">
-        <v>2.7060635E-2</v>
+        <v>-5.965573624228046E-3</v>
       </c>
       <c r="BAO1">
-        <v>2.7050912E-2</v>
+        <v>-5.9231250622842659E-3</v>
       </c>
       <c r="BAP1">
-        <v>2.7069862E-2</v>
+        <v>-5.8556912142770402E-3</v>
       </c>
       <c r="BAQ1">
-        <v>2.7023504E-2</v>
+        <v>-5.8552520169175941E-3</v>
       </c>
       <c r="BAR1">
-        <v>2.6960598999999998E-2</v>
+        <v>-5.8702774619868968E-3</v>
       </c>
       <c r="BAS1">
-        <v>2.6881715E-2</v>
+        <v>-5.9031326389590924E-3</v>
       </c>
       <c r="BAT1">
-        <v>2.6821958999999999E-2</v>
+        <v>-5.9177891792951652E-3</v>
       </c>
       <c r="BAU1">
-        <v>2.6784657E-2</v>
+        <v>-5.9126857970948389E-3</v>
       </c>
       <c r="BAV1">
-        <v>2.6757678E-2</v>
+        <v>-5.8956803305915892E-3</v>
       </c>
       <c r="BAW1">
-        <v>2.6746157E-2</v>
+        <v>-5.8583991630560342E-3</v>
       </c>
       <c r="BAX1">
-        <v>2.6722201000000001E-2</v>
+        <v>-5.8406727806070459E-3</v>
       </c>
       <c r="BAY1">
-        <v>2.6708132999999998E-2</v>
+        <v>-5.8173635742468331E-3</v>
       </c>
       <c r="BAZ1">
-        <v>2.6688367000000001E-2</v>
+        <v>-5.7991190693695094E-3</v>
       </c>
       <c r="BBA1">
-        <v>2.664294E-2</v>
+        <v>-5.8170754571375974E-3</v>
       </c>
       <c r="BBB1">
-        <v>2.662372E-2</v>
+        <v>-5.7964967449786152E-3</v>
       </c>
       <c r="BBC1">
-        <v>2.6629940000000001E-2</v>
+        <v>-5.739815727337963E-3</v>
       </c>
       <c r="BBD1">
-        <v>2.6617556000000001E-2</v>
+        <v>-5.7076124686938207E-3</v>
       </c>
       <c r="BBE1">
-        <v>2.6618124999999999E-2</v>
+        <v>-5.6577245708119631E-3</v>
       </c>
       <c r="BBF1">
-        <v>2.6589867999999999E-2</v>
+        <v>-5.641523500052651E-3</v>
       </c>
       <c r="BBG1">
-        <v>2.6523987999999998E-2</v>
+        <v>-5.6704008562730758E-3</v>
       </c>
       <c r="BBH1">
-        <v>2.6492874E-2</v>
+        <v>-5.6590085689499784E-3</v>
       </c>
       <c r="BBI1">
-        <v>2.6478543E-2</v>
+        <v>-5.6303634792405884E-3</v>
       </c>
       <c r="BBJ1">
-        <v>2.6426264000000001E-2</v>
+        <v>-5.6350883369387199E-3</v>
       </c>
       <c r="BBK1">
-        <v>2.6369343999999999E-2</v>
+        <v>-5.6397935687435702E-3</v>
       </c>
       <c r="BBL1">
-        <v>2.6318365999999999E-2</v>
+        <v>-5.6419239725426888E-3</v>
       </c>
       <c r="BBM1">
-        <v>2.6233679999999999E-2</v>
+        <v>-5.6743430199955487E-3</v>
       </c>
       <c r="BBN1">
-        <v>2.6180835999999999E-2</v>
+        <v>-5.6822219846837836E-3</v>
       </c>
       <c r="BBO1">
-        <v>2.6160180000000002E-2</v>
+        <v>-5.663945528049677E-3</v>
       </c>
       <c r="BBP1">
-        <v>2.6101391000000002E-2</v>
+        <v>-5.6842000577451736E-3</v>
       </c>
       <c r="BBQ1">
-        <v>2.6075118000000001E-2</v>
+        <v>-5.6647238745378206E-3</v>
       </c>
       <c r="BBR1">
-        <v>2.6071770000000001E-2</v>
+        <v>-5.6127683235842572E-3</v>
       </c>
       <c r="BBS1">
-        <v>2.6066736E-2</v>
+        <v>-5.5705984281439781E-3</v>
       </c>
       <c r="BBT1">
-        <v>2.6073632999999999E-2</v>
+        <v>-5.5149752020970978E-3</v>
       </c>
       <c r="BBU1">
-        <v>2.6081252999999999E-2</v>
+        <v>-5.4664665122493286E-3</v>
       </c>
       <c r="BBV1">
-        <v>2.6102520000000001E-2</v>
+        <v>-5.4182521105102556E-3</v>
       </c>
       <c r="BBW1">
-        <v>2.6107401999999998E-2</v>
+        <v>-5.3811894808962306E-3</v>
       </c>
       <c r="BBX1">
-        <v>2.6119887000000001E-2</v>
+        <v>-5.3391884123807423E-3</v>
       </c>
       <c r="BBY1">
-        <v>2.6103973999999999E-2</v>
+        <v>-5.3216966589574874E-3</v>
       </c>
       <c r="BBZ1">
-        <v>2.6038263999999998E-2</v>
+        <v>-5.3467857797069099E-3</v>
       </c>
       <c r="BCA1">
-        <v>2.6009965999999999E-2</v>
+        <v>-5.3406926946618673E-3</v>
       </c>
       <c r="BCB1">
-        <v>2.5987513E-2</v>
+        <v>-5.3271501686457737E-3</v>
       </c>
       <c r="BCC1">
-        <v>2.5965967E-2</v>
+        <v>-5.3224310495319574E-3</v>
       </c>
       <c r="BCD1">
-        <v>2.5974565000000002E-2</v>
+        <v>-5.2976493022868394E-3</v>
       </c>
       <c r="BCE1">
-        <v>2.5960303000000001E-2</v>
+        <v>-5.292346691508746E-3</v>
       </c>
       <c r="BCF1">
-        <v>2.5923083999999999E-2</v>
+        <v>-5.315300790666562E-3</v>
       </c>
       <c r="BCG1">
-        <v>2.5905435000000001E-2</v>
+        <v>-5.3130194813146674E-3</v>
       </c>
       <c r="BCH1">
-        <v>2.5889681000000001E-2</v>
+        <v>-5.3042048075386712E-3</v>
       </c>
       <c r="BCI1">
-        <v>2.5873877999999999E-2</v>
+        <v>-5.2974542104135764E-3</v>
       </c>
       <c r="BCJ1">
-        <v>2.5861407999999999E-2</v>
+        <v>-5.2850155783480783E-3</v>
       </c>
       <c r="BCK1">
-        <v>2.5832537999999999E-2</v>
+        <v>-5.3047158285664808E-3</v>
       </c>
       <c r="BCL1">
-        <v>2.5857811000000001E-2</v>
+        <v>-5.2692721008906242E-3</v>
       </c>
       <c r="BCM1">
-        <v>2.5890152999999999E-2</v>
+        <v>-5.226662145928037E-3</v>
       </c>
       <c r="BCN1">
-        <v>2.5888432999999999E-2</v>
+        <v>-5.2161355087822388E-3</v>
       </c>
       <c r="BCO1">
-        <v>2.5885853E-2</v>
+        <v>-5.2018784438313736E-3</v>
       </c>
       <c r="BCP1">
-        <v>2.5880554E-2</v>
+        <v>-5.1853926832597028E-3</v>
       </c>
       <c r="BCQ1">
-        <v>2.5883021999999999E-2</v>
+        <v>-5.1685204186396813E-3</v>
       </c>
       <c r="BCR1">
-        <v>2.5898102999999999E-2</v>
+        <v>-5.1443438139176234E-3</v>
       </c>
       <c r="BCS1">
-        <v>2.5941365000000001E-2</v>
+        <v>-5.0946062323815704E-3</v>
       </c>
       <c r="BCT1">
-        <v>2.5949765999999999E-2</v>
+        <v>-5.0775263472079522E-3</v>
       </c>
       <c r="BCU1">
-        <v>2.5931988E-2</v>
+        <v>-5.0899025261048484E-3</v>
       </c>
       <c r="BCV1">
-        <v>2.591162E-2</v>
+        <v>-5.0997115992242638E-3</v>
       </c>
       <c r="BCW1">
-        <v>2.5849380000000002E-2</v>
+        <v>-5.1424859010078469E-3</v>
       </c>
       <c r="BCX1">
-        <v>2.5841013999999999E-2</v>
+        <v>-5.1367506606889157E-3</v>
       </c>
       <c r="BCY1">
-        <v>2.5868386E-2</v>
+        <v>-5.0955734197769172E-3</v>
       </c>
       <c r="BCZ1">
-        <v>2.5873940000000002E-2</v>
+        <v>-5.0835834171159867E-3</v>
       </c>
       <c r="BDA1">
-        <v>2.5916996000000001E-2</v>
+        <v>-5.0420331838327177E-3</v>
       </c>
       <c r="BDB1">
-        <v>2.5894204000000001E-2</v>
+        <v>-5.0614728596805186E-3</v>
       </c>
       <c r="BDC1">
-        <v>2.5817225999999999E-2</v>
+        <v>-5.138633036888527E-3</v>
       </c>
       <c r="BDD1">
-        <v>2.5774518E-2</v>
+        <v>-5.1714562843315319E-3</v>
       </c>
       <c r="BDE1">
-        <v>2.5736752000000002E-2</v>
+        <v>-5.1935846976508314E-3</v>
       </c>
       <c r="BDF1">
-        <v>2.5758036000000002E-2</v>
+        <v>-5.1591480766603158E-3</v>
       </c>
       <c r="BDG1">
-        <v>2.5752035999999999E-2</v>
+        <v>-5.1593950243914131E-3</v>
       </c>
       <c r="BDH1">
-        <v>2.5763504E-2</v>
+        <v>-5.1416276439018617E-3</v>
       </c>
       <c r="BDI1">
-        <v>2.5825496999999999E-2</v>
+        <v>-5.0797618076574257E-3</v>
       </c>
       <c r="BDJ1">
-        <v>2.5892736999999999E-2</v>
+        <v>-5.0127227694933829E-3</v>
       </c>
       <c r="BDK1">
-        <v>2.5917062000000001E-2</v>
+        <v>-4.9770992009070397E-3</v>
       </c>
       <c r="BDL1">
-        <v>2.5938553999999999E-2</v>
+        <v>-4.9391641982249046E-3</v>
       </c>
       <c r="BDM1">
-        <v>2.5933405E-2</v>
+        <v>-4.9209288083125989E-3</v>
       </c>
       <c r="BDN1">
-        <v>2.5878232000000001E-2</v>
+        <v>-4.9548868420061466E-3</v>
       </c>
       <c r="BDO1">
-        <v>2.5822905E-2</v>
+        <v>-4.9969422375732396E-3</v>
       </c>
       <c r="BDP1">
-        <v>2.5798925E-2</v>
+        <v>-5.0181642141974084E-3</v>
       </c>
       <c r="BDQ1">
-        <v>2.5766445999999998E-2</v>
+        <v>-5.0415064730326559E-3</v>
       </c>
       <c r="BDR1">
-        <v>2.5742399999999999E-2</v>
+        <v>-5.0536483417152186E-3</v>
       </c>
       <c r="BDS1">
-        <v>2.5742391E-2</v>
+        <v>-5.0385057867782697E-3</v>
       </c>
       <c r="BDT1">
-        <v>2.5728147E-2</v>
+        <v>-5.0311785299837451E-3</v>
       </c>
       <c r="BDU1">
-        <v>2.5698757999999999E-2</v>
+        <v>-5.0422591506048657E-3</v>
       </c>
       <c r="BDV1">
-        <v>2.5680962000000002E-2</v>
+        <v>-5.041863347213224E-3</v>
       </c>
       <c r="BDW1">
-        <v>2.5709321E-2</v>
+        <v>-5.0010951972416298E-3</v>
       </c>
       <c r="BDX1">
-        <v>2.5739818000000001E-2</v>
+        <v>-4.9637091072503824E-3</v>
       </c>
       <c r="BDY1">
-        <v>2.5803327000000001E-2</v>
+        <v>-4.8980271936375176E-3</v>
       </c>
       <c r="BDZ1">
-        <v>2.4643142999999999E-2</v>
+        <v>-6.0949538561210249E-3</v>
       </c>
       <c r="BEA1">
-        <v>2.4614824E-2</v>
+        <v>-6.0946295110568781E-3</v>
       </c>
       <c r="BEB1">
-        <v>2.4600717000000001E-2</v>
+        <v>-6.0814526386950042E-3</v>
       </c>
       <c r="BEC1">
-        <v>2.4606678999999999E-2</v>
+        <v>-6.0567351768013519E-3</v>
       </c>
       <c r="BED1">
-        <v>2.4579376999999999E-2</v>
+        <v>-6.0600891812198528E-3</v>
       </c>
       <c r="BEE1">
-        <v>2.4567958000000001E-2</v>
+        <v>-6.0482757650162228E-3</v>
       </c>
       <c r="BEF1">
-        <v>2.4547718999999999E-2</v>
+        <v>-6.0504250271848784E-3</v>
       </c>
       <c r="BEG1">
-        <v>2.4581077E-2</v>
+        <v>-5.9936722984050084E-3</v>
       </c>
       <c r="BEH1">
-        <v>2.4565127999999999E-2</v>
+        <v>-5.9760999287254007E-3</v>
       </c>
       <c r="BEI1">
-        <v>2.4574459999999999E-2</v>
+        <v>-5.9318727707876216E-3</v>
       </c>
       <c r="BEJ1">
-        <v>2.4572159999999999E-2</v>
+        <v>-5.8980597659822574E-3</v>
       </c>
       <c r="BEK1">
-        <v>2.4478623000000001E-2</v>
+        <v>-5.9589369807392144E-3</v>
       </c>
       <c r="BEL1">
-        <v>2.4445993999999999E-2</v>
+        <v>-5.9610472787403916E-3</v>
       </c>
       <c r="BEM1">
-        <v>2.4409442999999999E-2</v>
+        <v>-5.9622036400690109E-3</v>
       </c>
       <c r="BEN1">
-        <v>2.4396487000000001E-2</v>
+        <v>-5.9401027719110664E-3</v>
       </c>
       <c r="BEO1">
-        <v>2.4423037000000002E-2</v>
+        <v>-5.872222332213739E-3</v>
       </c>
       <c r="BEP1">
-        <v>2.4403838000000001E-2</v>
+        <v>-5.8442238402795386E-3</v>
       </c>
       <c r="BEQ1">
-        <v>2.4388203000000001E-2</v>
+        <v>-5.8062021652692739E-3</v>
       </c>
       <c r="BER1">
-        <v>2.4301652E-2</v>
+        <v>-5.8407007265989762E-3</v>
       </c>
       <c r="BES1">
-        <v>2.4154268999999999E-2</v>
+        <v>-5.9255995917166931E-3</v>
       </c>
       <c r="BET1">
-        <v>2.4044783E-2</v>
+        <v>-5.9700282434482976E-3</v>
       </c>
       <c r="BEU1">
-        <v>2.3910878E-2</v>
+        <v>-6.036107121735565E-3</v>
       </c>
       <c r="BEV1">
-        <v>2.3836468E-2</v>
+        <v>-6.0325651986503429E-3</v>
       </c>
       <c r="BEW1">
-        <v>2.3852547000000002E-2</v>
+        <v>-5.9466025314957836E-3</v>
       </c>
       <c r="BEX1">
-        <v>2.3811690999999999E-2</v>
+        <v>-5.9132057408301207E-3</v>
       </c>
       <c r="BEY1">
-        <v>2.3758336000000001E-2</v>
+        <v>-5.8845951421029304E-3</v>
       </c>
       <c r="BEZ1">
-        <v>2.3680619999999999E-2</v>
+        <v>-5.8831096025658176E-3</v>
       </c>
       <c r="BFA1">
-        <v>2.3589582000000001E-2</v>
+        <v>-5.8805015010825919E-3</v>
       </c>
       <c r="BFB1">
-        <v>2.345293E-2</v>
+        <v>-5.9095516920016633E-3</v>
       </c>
       <c r="BFC1">
-        <v>2.3360916999999998E-2</v>
+        <v>-5.8904764241542729E-3</v>
       </c>
       <c r="BFD1">
-        <v>2.3279726000000001E-2</v>
+        <v>-5.863245324938763E-3</v>
       </c>
       <c r="BFE1">
-        <v>2.3177639E-2</v>
+        <v>-5.8467200929638273E-3</v>
       </c>
       <c r="BFF1">
-        <v>2.3071811000000001E-2</v>
+        <v>-5.8404639134509891E-3</v>
       </c>
       <c r="BFG1">
-        <v>2.2936489000000001E-2</v>
+        <v>-5.8534307880933611E-3</v>
       </c>
       <c r="BFH1">
-        <v>2.2767850999999999E-2</v>
+        <v>-5.8859729168787601E-3</v>
       </c>
       <c r="BFI1">
-        <v>2.2647156000000002E-2</v>
+        <v>-5.8714197744478037E-3</v>
       </c>
       <c r="BFJ1">
-        <v>2.2532004000000001E-2</v>
+        <v>-5.8363826509611784E-3</v>
       </c>
       <c r="BFK1">
-        <v>2.2379509999999998E-2</v>
+        <v>-5.835582343552987E-3</v>
       </c>
       <c r="BFL1">
-        <v>2.2252184000000001E-2</v>
+        <v>-5.8094610624320094E-3</v>
       </c>
       <c r="BFM1">
-        <v>2.2137243000000001E-2</v>
+        <v>-5.7689480600779282E-3</v>
       </c>
       <c r="BFN1">
-        <v>2.2010813000000001E-2</v>
+        <v>-5.7320170000596631E-3</v>
       </c>
       <c r="BFO1">
-        <v>2.1882459999999999E-2</v>
+        <v>-5.7024928418413674E-3</v>
       </c>
       <c r="BFP1">
-        <v>2.1746603E-2</v>
+        <v>-5.6765441541109553E-3</v>
       </c>
       <c r="BFQ1">
-        <v>2.1568965999999998E-2</v>
+        <v>-5.690749378913354E-3</v>
       </c>
       <c r="BFR1">
-        <v>2.1367681999999999E-2</v>
+        <v>-5.7303231522846179E-3</v>
       </c>
       <c r="BFS1">
-        <v>2.1142748999999999E-2</v>
+        <v>-5.7798188863371E-3</v>
       </c>
       <c r="BFT1">
-        <v>2.0939363999999999E-2</v>
+        <v>-5.8114187376896304E-3</v>
       </c>
       <c r="BFU1">
-        <v>2.0730856999999998E-2</v>
+        <v>-5.8525324744449943E-3</v>
       </c>
       <c r="BFV1">
-        <v>2.0479984E-2</v>
+        <v>-5.9232500998491269E-3</v>
       </c>
       <c r="BFW1">
-        <v>2.0278124000000002E-2</v>
+        <v>-5.9548054115539061E-3</v>
       </c>
       <c r="BFX1">
-        <v>2.0100590000000002E-2</v>
+        <v>-5.9609840842850606E-3</v>
       </c>
       <c r="BFY1">
-        <v>1.9943821E-2</v>
+        <v>-5.9469044684771662E-3</v>
       </c>
       <c r="BFZ1">
-        <v>1.9783213000000001E-2</v>
+        <v>-5.9255544293851208E-3</v>
       </c>
       <c r="BGA1">
-        <v>1.9663834000000002E-2</v>
+        <v>-5.8735416168634418E-3</v>
       </c>
       <c r="BGB1">
-        <v>1.9509552999999999E-2</v>
+        <v>-5.8493392302231967E-3</v>
       </c>
       <c r="BGC1">
-        <v>1.9310924E-2</v>
+        <v>-5.8708485984571386E-3</v>
       </c>
       <c r="BGD1">
-        <v>1.9104258999999998E-2</v>
+        <v>-5.9111217298874301E-3</v>
       </c>
       <c r="BGE1">
-        <v>1.8885025E-2</v>
+        <v>-5.9591662253244554E-3</v>
       </c>
       <c r="BGF1">
-        <v>1.8679609999999999E-2</v>
+        <v>-6.0040616373842164E-3</v>
       </c>
       <c r="BGG1">
-        <v>1.8464721999999999E-2</v>
+        <v>-6.0625484700140356E-3</v>
       </c>
       <c r="BGH1">
-        <v>1.8295893000000001E-2</v>
+        <v>-6.0734132741605204E-3</v>
       </c>
       <c r="BGI1">
-        <v>1.8149085999999998E-2</v>
+        <v>-6.0717268684092876E-3</v>
       </c>
       <c r="BGJ1">
-        <v>1.8034046000000001E-2</v>
+        <v>-6.0431102972308103E-3</v>
       </c>
       <c r="BGK1">
-        <v>1.7936985999999999E-2</v>
+        <v>-6.0060877169167519E-3</v>
       </c>
       <c r="BGL1">
-        <v>1.7907917999999998E-2</v>
+        <v>-5.9093847062200444E-3</v>
       </c>
       <c r="BGM1">
-        <v>1.7785136999999999E-2</v>
+        <v>-5.9176393684593383E-3</v>
       </c>
       <c r="BGN1">
-        <v>1.7656008000000001E-2</v>
+        <v>-5.9351520640303808E-3</v>
       </c>
       <c r="BGO1">
-        <v>1.7458769999999998E-2</v>
+        <v>-6.0350605210270289E-3</v>
       </c>
       <c r="BGP1">
-        <v>1.7191530999999999E-2</v>
+        <v>-6.2091573305968354E-3</v>
       </c>
       <c r="BGQ1">
-        <v>1.7075396999999999E-2</v>
+        <v>-6.2361607610684523E-3</v>
       </c>
       <c r="BGR1">
-        <v>1.7022364000000002E-2</v>
+        <v>-6.2174568129435767E-3</v>
       </c>
       <c r="BGS1">
-        <v>1.7008459E-2</v>
+        <v>-6.1582037419682786E-3</v>
       </c>
       <c r="BGT1">
-        <v>1.7037375E-2</v>
+        <v>-6.0603916530990662E-3</v>
       </c>
       <c r="BGU1">
-        <v>1.7021661E-2</v>
+        <v>-6.0189322532927586E-3</v>
       </c>
       <c r="BGV1">
-        <v>1.6991762000000001E-2</v>
+        <v>-5.9937137598378024E-3</v>
       </c>
       <c r="BGW1">
-        <v>1.6948569E-2</v>
+        <v>-5.9817663431609297E-3</v>
       </c>
       <c r="BGX1">
-        <v>1.6869769999999999E-2</v>
+        <v>-6.0208913678293473E-3</v>
       </c>
       <c r="BGY1">
-        <v>1.6747036E-2</v>
+        <v>-6.1086659296623637E-3</v>
       </c>
       <c r="BGZ1">
-        <v>1.667339E-2</v>
+        <v>-6.1481643933440008E-3</v>
       </c>
       <c r="BHA1">
-        <v>1.6588935999999999E-2</v>
+        <v>-6.2088200993261726E-3</v>
       </c>
       <c r="BHB1">
-        <v>1.6517820999999999E-2</v>
+        <v>-6.2467431090330906E-3</v>
       </c>
       <c r="BHC1">
-        <v>1.6500969000000001E-2</v>
+        <v>-6.2356073396753536E-3</v>
       </c>
       <c r="BHD1">
-        <v>1.6456256999999998E-2</v>
+        <v>-6.2592591034095896E-3</v>
       </c>
       <c r="BHE1">
-        <v>1.6423403999999999E-2</v>
+        <v>-6.2657936538566446E-3</v>
       </c>
       <c r="BHF1">
-        <v>1.6415329999999999E-2</v>
+        <v>-6.2607148063663562E-3</v>
       </c>
       <c r="BHG1">
-        <v>1.6422501999999999E-2</v>
+        <v>-6.240229900896805E-3</v>
       </c>
       <c r="BHH1">
-        <v>1.6496528E-2</v>
+        <v>-6.1559634624250292E-3</v>
       </c>
       <c r="BHI1">
-        <v>1.6504913999999999E-2</v>
+        <v>-6.1357752047321648E-3</v>
       </c>
       <c r="BHJ1">
-        <v>1.6502902999999999E-2</v>
+        <v>-6.1297653442383693E-3</v>
       </c>
       <c r="BHK1">
-        <v>1.6455607000000001E-2</v>
+        <v>-6.1652763251231237E-3</v>
       </c>
       <c r="BHL1">
-        <v>1.6405889E-2</v>
+        <v>-6.201889703681452E-3</v>
       </c>
       <c r="BHM1">
-        <v>1.6389779E-2</v>
+        <v>-6.2119111812615341E-3</v>
       </c>
       <c r="BHN1">
-        <v>1.6400567000000001E-2</v>
+        <v>-6.195864315606734E-3</v>
       </c>
       <c r="BHO1">
-        <v>1.6452952999999999E-2</v>
+        <v>-6.1446643940425323E-3</v>
       </c>
       <c r="BHP1">
-        <v>1.6484293000000001E-2</v>
+        <v>-6.1151506621425801E-3</v>
       </c>
       <c r="BHQ1">
-        <v>1.6436014999999998E-2</v>
+        <v>-6.1624564952987501E-3</v>
       </c>
       <c r="BHR1">
-        <v>1.6372270000000001E-2</v>
+        <v>-6.2284488965821568E-3</v>
       </c>
       <c r="BHS1">
-        <v>1.6313773E-2</v>
+        <v>-6.2814548535163363E-3</v>
       </c>
       <c r="BHT1">
-        <v>1.6294965000000002E-2</v>
+        <v>-6.2991702472760536E-3</v>
       </c>
       <c r="BHU1">
-        <v>1.6299108E-2</v>
+        <v>-6.2953347799652899E-3</v>
       </c>
       <c r="BHV1">
-        <v>1.6318208000000001E-2</v>
+        <v>-6.2781845768322582E-3</v>
       </c>
       <c r="BHW1">
-        <v>1.6368122999999998E-2</v>
+        <v>-6.2284866665296276E-3</v>
       </c>
       <c r="BHX1">
-        <v>1.6436996999999998E-2</v>
+        <v>-6.1703267962913491E-3</v>
       </c>
       <c r="BHY1">
-        <v>1.6449229999999999E-2</v>
+        <v>-6.1659211689486307E-3</v>
       </c>
       <c r="BHZ1">
-        <v>1.6496176000000001E-2</v>
+        <v>-6.1230243490650212E-3</v>
       </c>
       <c r="BIA1">
-        <v>1.6532443000000001E-2</v>
+        <v>-6.0958776556594811E-3</v>
       </c>
       <c r="BIB1">
-        <v>1.6522500999999998E-2</v>
+        <v>-6.1059682560644403E-3</v>
       </c>
       <c r="BIC1">
-        <v>1.6537702000000001E-2</v>
+        <v>-6.0935686675876984E-3</v>
       </c>
       <c r="BID1">
-        <v>1.6578273000000001E-2</v>
+        <v>-6.062428356569817E-3</v>
       </c>
       <c r="BIE1">
-        <v>1.6625760999999999E-2</v>
+        <v>-6.0194175608614016E-3</v>
       </c>
       <c r="BIF1">
-        <v>1.6667208999999999E-2</v>
+        <v>-5.9852226107772006E-3</v>
       </c>
       <c r="BIG1">
-        <v>1.6679486E-2</v>
+        <v>-5.9803366463509816E-3</v>
       </c>
       <c r="BIH1">
-        <v>1.6659818999999999E-2</v>
+        <v>-6.0061044372625751E-3</v>
       </c>
       <c r="BII1">
-        <v>1.6657070999999999E-2</v>
+        <v>-6.0166732451918739E-3</v>
       </c>
       <c r="BIJ1">
-        <v>1.6637968E-2</v>
+        <v>-6.0452274256476077E-3</v>
       </c>
       <c r="BIK1">
-        <v>1.6631896E-2</v>
+        <v>-6.0604229126027011E-3</v>
       </c>
       <c r="BIL1">
-        <v>1.6620316999999999E-2</v>
+        <v>-6.0810734334480823E-3</v>
       </c>
       <c r="BIM1">
-        <v>1.6679179999999998E-2</v>
+        <v>-6.0337208886324586E-3</v>
       </c>
       <c r="BIN1">
-        <v>1.6714699E-2</v>
+        <v>-6.0072672030179221E-3</v>
       </c>
       <c r="BIO1">
-        <v>1.6727431000000001E-2</v>
+        <v>-6.0123214539913108E-3</v>
       </c>
       <c r="BIP1">
-        <v>1.6786180000000001E-2</v>
+        <v>-5.9710370742528246E-3</v>
       </c>
       <c r="BIQ1">
-        <v>1.6796144999999998E-2</v>
+        <v>-5.9733150609836659E-3</v>
       </c>
       <c r="BIR1">
-        <v>1.6775628000000001E-2</v>
+        <v>-6.0063794019973686E-3</v>
       </c>
       <c r="BIS1">
-        <v>1.6767944E-2</v>
+        <v>-6.0165028793732244E-3</v>
       </c>
       <c r="BIT1">
-        <v>1.6788679000000001E-2</v>
+        <v>-6.006030483200725E-3</v>
       </c>
       <c r="BIU1">
-        <v>1.6844511999999999E-2</v>
+        <v>-5.9609049858412484E-3</v>
       </c>
       <c r="BIV1">
-        <v>1.6856790999999999E-2</v>
+        <v>-5.9621448794234533E-3</v>
       </c>
       <c r="BIW1">
-        <v>1.6859053999999998E-2</v>
+        <v>-5.9797533937464148E-3</v>
       </c>
       <c r="BIX1">
-        <v>1.6884406000000001E-2</v>
+        <v>-5.973563662192434E-3</v>
       </c>
       <c r="BIY1">
-        <v>1.6905567E-2</v>
+        <v>-5.9725571145322863E-3</v>
       </c>
       <c r="BIZ1">
-        <v>1.6905650000000001E-2</v>
+        <v>-5.9879918746181017E-3</v>
       </c>
       <c r="BJA1">
-        <v>1.6883768E-2</v>
+        <v>-6.0340638336388898E-3</v>
       </c>
       <c r="BJB1">
-        <v>1.6885668E-2</v>
+        <v>-6.0511242907081118E-3</v>
       </c>
       <c r="BJC1">
-        <v>1.6899457999999999E-2</v>
+        <v>-6.0588409515888184E-3</v>
       </c>
       <c r="BJD1">
-        <v>1.6887198999999999E-2</v>
+        <v>-6.0942615487552532E-3</v>
       </c>
       <c r="BJE1">
-        <v>1.6953512E-2</v>
+        <v>-6.0447516826247077E-3</v>
       </c>
       <c r="BJF1">
-        <v>1.7054482999999999E-2</v>
+        <v>-5.9671930570470398E-3</v>
       </c>
       <c r="BJG1">
-        <v>1.7096098000000001E-2</v>
+        <v>-5.9482649862766107E-3</v>
       </c>
       <c r="BJH1">
-        <v>1.7077985E-2</v>
+        <v>-5.9885785967570132E-3</v>
       </c>
       <c r="BJI1">
-        <v>1.7109883999999999E-2</v>
+        <v>-5.979879091748682E-3</v>
       </c>
       <c r="BJJ1">
-        <v>1.7160038999999998E-2</v>
+        <v>-5.9555346061512769E-3</v>
       </c>
       <c r="BJK1">
-        <v>1.718159E-2</v>
+        <v>-5.9578545573764179E-3</v>
       </c>
       <c r="BJL1">
-        <v>1.7216912000000001E-2</v>
+        <v>-5.9468072414976918E-3</v>
       </c>
       <c r="BJM1">
-        <v>1.723715E-2</v>
+        <v>-5.9493774267571284E-3</v>
       </c>
       <c r="BJN1">
-        <v>1.7231917999999999E-2</v>
+        <v>-5.9767399428878494E-3</v>
       </c>
       <c r="BJO1">
-        <v>1.7201289000000002E-2</v>
+        <v>-6.0295359124631744E-3</v>
       </c>
       <c r="BJP1">
-        <v>1.7242815000000002E-2</v>
+        <v>-6.0067137324157603E-3</v>
       </c>
       <c r="BJQ1">
-        <v>1.7258229999999999E-2</v>
+        <v>-6.0111692669747793E-3</v>
       </c>
       <c r="BJR1">
-        <v>1.7248782000000001E-2</v>
+        <v>-6.0417084974790196E-3</v>
       </c>
       <c r="BJS1">
-        <v>1.7297659E-2</v>
+        <v>-6.0077476108071756E-3</v>
       </c>
       <c r="BJT1">
-        <v>1.7317804999999999E-2</v>
+        <v>-6.0043290367472538E-3</v>
       </c>
       <c r="BJU1">
-        <v>1.7335559E-2</v>
+        <v>-6.0052757455842237E-3</v>
       </c>
       <c r="BJV1">
-        <v>1.7391727999999999E-2</v>
+        <v>-5.9693678238263298E-3</v>
       </c>
       <c r="BJW1">
-        <v>1.7502084000000001E-2</v>
+        <v>-5.8825103857156683E-3</v>
       </c>
       <c r="BJX1">
-        <v>1.7553037000000001E-2</v>
+        <v>-5.8542704453447107E-3</v>
       </c>
       <c r="BJY1">
-        <v>1.7615432E-2</v>
+        <v>-5.8160960866572679E-3</v>
       </c>
       <c r="BJZ1">
-        <v>1.7649676999999999E-2</v>
+        <v>-5.8034146136641956E-3</v>
       </c>
       <c r="BKA1">
-        <v>1.7634650000000002E-2</v>
+        <v>-5.8368743755143858E-3</v>
       </c>
       <c r="BKB1">
-        <v>1.7645107E-2</v>
+        <v>-5.8473224371278013E-3</v>
       </c>
       <c r="BKC1">
-        <v>1.7653785000000002E-2</v>
+        <v>-5.8586925267274902E-3</v>
       </c>
       <c r="BKD1">
-        <v>1.7648206999999999E-2</v>
+        <v>-5.888469568884086E-3</v>
       </c>
       <c r="BKE1">
-        <v>1.7696604000000001E-2</v>
+        <v>-5.8619883010597026E-3</v>
       </c>
       <c r="BKF1">
-        <v>1.779801E-2</v>
+        <v>-5.7860013142297974E-3</v>
       </c>
       <c r="BKG1">
-        <v>1.7848375E-2</v>
+        <v>-5.7572986278122233E-3</v>
       </c>
       <c r="BKH1">
-        <v>1.7893630000000001E-2</v>
+        <v>-5.7314769435205214E-3</v>
       </c>
       <c r="BKI1">
-        <v>1.7909959E-2</v>
+        <v>-5.7368914324745094E-3</v>
       </c>
       <c r="BKJ1">
-        <v>1.7837392000000001E-2</v>
+        <v>-5.8306767875094569E-3</v>
       </c>
       <c r="BKK1">
-        <v>1.7833472E-2</v>
+        <v>-5.8563705732699971E-3</v>
       </c>
       <c r="BKL1">
-        <v>1.7872577000000001E-2</v>
+        <v>-5.8407098618777154E-3</v>
       </c>
       <c r="BKM1">
-        <v>1.7889120000000001E-2</v>
+        <v>-5.8468294461172937E-3</v>
       </c>
       <c r="BKN1">
-        <v>1.7909056E-2</v>
+        <v>-5.8503529906431921E-3</v>
       </c>
       <c r="BKO1">
-        <v>1.7930044999999999E-2</v>
+        <v>-5.85338215817785E-3</v>
       </c>
       <c r="BKP1">
-        <v>1.7908470999999999E-2</v>
+        <v>-5.8976777595667121E-3</v>
       </c>
       <c r="BKQ1">
-        <v>1.7945432000000001E-2</v>
+        <v>-5.8852339318859262E-3</v>
       </c>
       <c r="BKR1">
-        <v>1.8001247000000001E-2</v>
+        <v>-5.8591779421500491E-3</v>
       </c>
       <c r="BKS1">
-        <v>1.8121577E-2</v>
+        <v>-5.7597009756796694E-3</v>
       </c>
       <c r="BKT1">
-        <v>1.8193681999999999E-2</v>
+        <v>-5.7088630115099369E-3</v>
       </c>
       <c r="BKU1">
-        <v>1.8258218E-2</v>
+        <v>-5.6670334285574518E-3</v>
       </c>
       <c r="BKV1">
-        <v>1.8292803E-2</v>
+        <v>-5.6495004296170451E-3</v>
       </c>
       <c r="BKW1">
-        <v>1.8243914E-2</v>
+        <v>-5.7234830502827646E-3</v>
       </c>
       <c r="BKX1">
-        <v>1.8229025999999999E-2</v>
+        <v>-5.7619647533017383E-3</v>
       </c>
       <c r="BKY1">
-        <v>1.8190212000000001E-2</v>
+        <v>-5.8264396989317138E-3</v>
       </c>
       <c r="BKZ1">
-        <v>1.8222872000000001E-2</v>
+        <v>-5.817988494472421E-3</v>
       </c>
       <c r="BLA1">
-        <v>1.8287879999999999E-2</v>
+        <v>-5.7772299152855089E-3</v>
       </c>
       <c r="BLB1">
-        <v>1.8337198999999998E-2</v>
+        <v>-5.7503145522181942E-3</v>
       </c>
       <c r="BLC1">
-        <v>1.8454880999999999E-2</v>
+        <v>-5.653678259126986E-3</v>
       </c>
       <c r="BLD1">
-        <v>1.8492268999999999E-2</v>
+        <v>-5.6392289553828306E-3</v>
       </c>
       <c r="BLE1">
-        <v>1.8461325000000001E-2</v>
+        <v>-5.6920961487268414E-3</v>
       </c>
       <c r="BLF1">
-        <v>1.8454897000000001E-2</v>
+        <v>-5.7238906692925022E-3</v>
       </c>
       <c r="BLG1">
-        <v>1.8405353999999999E-2</v>
+        <v>-5.8017793509652846E-3</v>
       </c>
       <c r="BLH1">
-        <v>1.8424697E-2</v>
+        <v>-5.8096462712079328E-3</v>
       </c>
       <c r="BLI1">
-        <v>1.8487740999999999E-2</v>
+        <v>-5.7780281593733836E-3</v>
       </c>
       <c r="BLJ1">
-        <v>1.8531137999999999E-2</v>
+        <v>-5.7597405159894588E-3</v>
       </c>
       <c r="BLK1">
-        <v>1.8665397E-2</v>
+        <v>-5.6493079134375193E-3</v>
       </c>
       <c r="BLL1">
-        <v>1.8736618E-2</v>
+        <v>-5.6035248430651649E-3</v>
       </c>
       <c r="BLM1">
-        <v>1.8714181E-2</v>
+        <v>-5.6428993789043166E-3</v>
       </c>
       <c r="BLN1">
-        <v>1.8770785000000002E-2</v>
+        <v>-5.6088509058296737E-3</v>
       </c>
       <c r="BLO1">
-        <v>1.8804182999999999E-2</v>
+        <v>-5.6002731262301368E-3</v>
       </c>
       <c r="BLP1">
-        <v>1.8799577000000001E-2</v>
+        <v>-5.6323504630670131E-3</v>
       </c>
       <c r="BLQ1">
-        <v>1.8834863E-2</v>
+        <v>-5.6206255619109281E-3</v>
       </c>
       <c r="BLR1">
-        <v>1.8910409E-2</v>
+        <v>-5.5719540926378389E-3</v>
       </c>
       <c r="BLS1">
-        <v>1.8951914E-2</v>
+        <v>-5.551401026515617E-3</v>
       </c>
       <c r="BLT1">
-        <v>1.8993241000000001E-2</v>
+        <v>-5.5237843750800993E-3</v>
       </c>
       <c r="BLU1">
-        <v>1.9024039999999999E-2</v>
+        <v>-5.5116720922374074E-3</v>
       </c>
       <c r="BLV1">
-        <v>1.9049033E-2</v>
+        <v>-5.5052851959066784E-3</v>
       </c>
       <c r="BLW1">
-        <v>1.9068432E-2</v>
+        <v>-5.5072281135529894E-3</v>
       </c>
       <c r="BLX1">
-        <v>1.9068265000000001E-2</v>
+        <v>-5.5314668598300219E-3</v>
       </c>
       <c r="BLY1">
-        <v>1.9070004000000002E-2</v>
+        <v>-5.5517301987256266E-3</v>
       </c>
       <c r="BLZ1">
-        <v>1.9054324000000001E-2</v>
+        <v>-5.5925372546867733E-3</v>
       </c>
       <c r="BMA1">
-        <v>1.9059825999999998E-2</v>
+        <v>-5.606980957682018E-3</v>
       </c>
       <c r="BMB1">
-        <v>1.9120149999999999E-2</v>
+        <v>-5.5650068425426094E-3</v>
       </c>
       <c r="BMC1">
-        <v>1.9133786999999999E-2</v>
+        <v>-5.5722918345712871E-3</v>
       </c>
       <c r="BMD1">
-        <v>1.9113254E-2</v>
+        <v>-5.6090624814993774E-3</v>
       </c>
       <c r="BME1">
-        <v>1.9163629000000001E-2</v>
+        <v>-5.579888171015325E-3</v>
       </c>
       <c r="BMF1">
-        <v>1.9195084000000001E-2</v>
+        <v>-5.5678043637172742E-3</v>
       </c>
       <c r="BMG1">
-        <v>1.9190611E-2</v>
+        <v>-5.5908666919029307E-3</v>
       </c>
       <c r="BMH1">
-        <v>1.9235110999999999E-2</v>
+        <v>-5.5664436073997008E-3</v>
       </c>
       <c r="BMI1">
-        <v>1.9341258E-2</v>
+        <v>-5.4811957265918226E-3</v>
       </c>
       <c r="BMJ1">
-        <v>1.9390022999999999E-2</v>
+        <v>-5.4523830399795456E-3</v>
       </c>
       <c r="BMK1">
-        <v>1.9434393000000001E-2</v>
+        <v>-5.4304134971022607E-3</v>
       </c>
       <c r="BML1">
-        <v>1.9465142000000001E-2</v>
+        <v>-5.418097681364982E-3</v>
       </c>
       <c r="BMM1">
-        <v>1.9460920999999999E-2</v>
+        <v>-5.4373471380907701E-3</v>
       </c>
       <c r="BMN1">
-        <v>1.9482961E-2</v>
+        <v>-5.4333242883829796E-3</v>
       </c>
       <c r="BMO1">
-        <v>1.9506536000000001E-2</v>
+        <v>-5.4269713058977508E-3</v>
       </c>
       <c r="BMP1">
-        <v>1.9527191999999999E-2</v>
+        <v>-5.4231199663375036E-3</v>
       </c>
       <c r="BMQ1">
-        <v>1.9553405999999999E-2</v>
+        <v>-5.4170958353345934E-3</v>
       </c>
       <c r="BMR1">
-        <v>1.9580606E-2</v>
+        <v>-5.4057855423613292E-3</v>
       </c>
       <c r="BMS1">
-        <v>1.9605920999999998E-2</v>
+        <v>-5.3906163724400519E-3</v>
       </c>
       <c r="BMT1">
-        <v>1.9624794000000001E-2</v>
+        <v>-5.3862301555641402E-3</v>
       </c>
       <c r="BMU1">
-        <v>1.9664230000000001E-2</v>
+        <v>-5.3570784170438096E-3</v>
       </c>
       <c r="BMV1">
-        <v>1.9714497000000001E-2</v>
+        <v>-5.3246817223882546E-3</v>
       </c>
       <c r="BMW1">
-        <v>1.9780593999999999E-2</v>
+        <v>-5.2772848131961434E-3</v>
       </c>
       <c r="BMX1">
-        <v>1.9886449E-2</v>
+        <v>-5.1949082819181952E-3</v>
       </c>
       <c r="BMY1">
-        <v>1.9931728999999999E-2</v>
+        <v>-5.1688024613510816E-3</v>
       </c>
       <c r="BMZ1">
-        <v>1.997763E-2</v>
+        <v>-5.1419745608508628E-3</v>
       </c>
       <c r="BNA1">
-        <v>1.9991511999999999E-2</v>
+        <v>-5.1471076383525528E-3</v>
       </c>
       <c r="BNB1">
-        <v>1.9934773999999999E-2</v>
+        <v>-5.2198420175893073E-3</v>
       </c>
       <c r="BNC1">
-        <v>1.9918832000000001E-2</v>
+        <v>-5.256336932712484E-3</v>
       </c>
       <c r="BND1">
-        <v>1.9897848999999999E-2</v>
+        <v>-5.304607256278647E-3</v>
       </c>
       <c r="BNE1">
-        <v>1.9904127000000001E-2</v>
+        <v>-5.3194012959690631E-3</v>
       </c>
       <c r="BNF1">
-        <v>1.9952349000000001E-2</v>
+        <v>-5.2905898744553398E-3</v>
       </c>
       <c r="BNG1">
-        <v>1.9965643000000002E-2</v>
+        <v>-5.2963022952201046E-3</v>
       </c>
       <c r="BNH1">
-        <v>1.9959312E-2</v>
+        <v>-5.3143053231358602E-3</v>
       </c>
       <c r="BNI1">
-        <v>1.9980649999999999E-2</v>
+        <v>-5.3102666658674698E-3</v>
       </c>
       <c r="BNJ1">
-        <v>1.9990286999999999E-2</v>
+        <v>-5.3241388053168262E-3</v>
       </c>
       <c r="BNK1">
-        <v>2.0014115999999998E-2</v>
+        <v>-5.319977142890446E-3</v>
       </c>
       <c r="BNL1">
-        <v>2.0092648000000001E-2</v>
+        <v>-5.2569588628790902E-3</v>
       </c>
       <c r="BNM1">
-        <v>2.0151509000000001E-2</v>
+        <v>-5.2234580117477003E-3</v>
       </c>
       <c r="BNN1">
-        <v>2.0135483999999999E-2</v>
+        <v>-5.257820848826672E-3</v>
       </c>
       <c r="BNO1">
-        <v>2.0089231999999999E-2</v>
+        <v>-5.3222744406696033E-3</v>
       </c>
       <c r="BNP1">
-        <v>2.0101555E-2</v>
+        <v>-5.3293331630535311E-3</v>
       </c>
       <c r="BNQ1">
-        <v>2.0108171000000001E-2</v>
+        <v>-5.3444083158952563E-3</v>
       </c>
       <c r="BNR1">
-        <v>2.0117341E-2</v>
+        <v>-5.3526915731537221E-3</v>
       </c>
       <c r="BNS1">
-        <v>2.018199E-2</v>
+        <v>-5.3029376676066546E-3</v>
       </c>
       <c r="BNT1">
-        <v>2.0204828000000001E-2</v>
+        <v>-5.2971283944581926E-3</v>
       </c>
       <c r="BNU1">
-        <v>2.0172997000000002E-2</v>
+        <v>-5.3452167414214484E-3</v>
       </c>
       <c r="BNV1">
-        <v>2.0182513999999999E-2</v>
+        <v>-5.3532575318178876E-3</v>
       </c>
       <c r="BNW1">
-        <v>2.0226482E-2</v>
+        <v>-5.3292776945447172E-3</v>
       </c>
       <c r="BNX1">
-        <v>2.0241846000000001E-2</v>
+        <v>-5.3320084443719308E-3</v>
       </c>
       <c r="BNY1">
-        <v>2.0237403000000001E-2</v>
+        <v>-5.3522627026697522E-3</v>
       </c>
       <c r="BNZ1">
-        <v>2.0255411000000001E-2</v>
+        <v>-5.3515853206351979E-3</v>
       </c>
       <c r="BOA1">
-        <v>2.0279533999999998E-2</v>
+        <v>-5.3463013498282093E-3</v>
       </c>
       <c r="BOB1">
-        <v>2.0297439E-2</v>
+        <v>-5.3456492991471941E-3</v>
       </c>
       <c r="BOC1">
-        <v>2.0320733000000001E-2</v>
+        <v>-5.3393161773500203E-3</v>
       </c>
       <c r="BOD1">
-        <v>2.0352981999999999E-2</v>
+        <v>-5.3248219475751186E-3</v>
       </c>
       <c r="BOE1">
-        <v>2.0380982999999998E-2</v>
+        <v>-5.3133155436704271E-3</v>
       </c>
       <c r="BOF1">
-        <v>2.0415213000000001E-2</v>
+        <v>-5.2964976035238184E-3</v>
       </c>
       <c r="BOG1">
-        <v>2.0491228E-2</v>
+        <v>-5.2408703060355527E-3</v>
       </c>
       <c r="BOH1">
-        <v>2.0524944E-2</v>
+        <v>-5.2233596678394473E-3</v>
       </c>
       <c r="BOI1">
-        <v>2.0539564E-2</v>
+        <v>-5.227848995742114E-3</v>
       </c>
       <c r="BOJ1">
-        <v>2.0526551000000001E-2</v>
+        <v>-5.2594544396908499E-3</v>
       </c>
       <c r="BOK1">
-        <v>2.0526539E-2</v>
+        <v>-5.2807587648250574E-3</v>
       </c>
       <c r="BOL1">
-        <v>2.0488044E-2</v>
+        <v>-5.3446698837777279E-3</v>
       </c>
       <c r="BOM1">
-        <v>2.0519968999999999E-2</v>
+        <v>-5.333485743413021E-3</v>
       </c>
       <c r="BON1">
-        <v>2.0600266999999998E-2</v>
+        <v>-5.2737241816584284E-3</v>
       </c>
       <c r="BOO1">
-        <v>2.065614E-2</v>
+        <v>-5.237455559677872E-3</v>
       </c>
       <c r="BOP1">
-        <v>2.0738749000000001E-2</v>
+        <v>-5.1702849030613278E-3</v>
       </c>
       <c r="BOQ1">
-        <v>2.0788605000000002E-2</v>
+        <v>-5.1378123079255343E-3</v>
       </c>
       <c r="BOR1">
-        <v>2.0820847E-2</v>
+        <v>-5.1240727094949493E-3</v>
       </c>
       <c r="BOS1">
-        <v>2.0846706999999999E-2</v>
+        <v>-5.1169318409161916E-3</v>
       </c>
       <c r="BOT1">
-        <v>2.0886558999999999E-2</v>
+        <v>-5.0967915126199914E-3</v>
       </c>
       <c r="BOU1">
-        <v>2.0886722999999999E-2</v>
+        <v>-5.1155857171316134E-3</v>
       </c>
       <c r="BOV1">
-        <v>2.0797329E-2</v>
+        <v>-5.222887425814747E-3</v>
       </c>
       <c r="BOW1">
-        <v>2.0799991E-2</v>
+        <v>-5.2395168672558596E-3</v>
       </c>
       <c r="BOX1">
-        <v>2.0843196000000001E-2</v>
+        <v>-5.2136001720855911E-3</v>
       </c>
       <c r="BOY1">
-        <v>2.0856552E-2</v>
+        <v>-5.2203351979202527E-3</v>
       </c>
       <c r="BOZ1">
-        <v>2.0942611E-2</v>
+        <v>-5.1612562706544983E-3</v>
       </c>
       <c r="BPA1">
-        <v>2.0978726E-2</v>
+        <v>-5.1465853650514114E-3</v>
       </c>
       <c r="BPB1">
-        <v>2.0927475000000001E-2</v>
+        <v>-5.2143070552227444E-3</v>
       </c>
       <c r="BPC1">
-        <v>2.0920279E-2</v>
+        <v>-5.2442610277287117E-3</v>
       </c>
       <c r="BPD1">
-        <v>2.093573E-2</v>
+        <v>-5.2465277760710867E-3</v>
       </c>
       <c r="BPE1">
-        <v>2.0952373E-2</v>
+        <v>-5.2461243054186917E-3</v>
       </c>
       <c r="BPF1">
-        <v>2.0966439E-2</v>
+        <v>-5.2485655718765879E-3</v>
       </c>
       <c r="BPG1">
-        <v>2.0999006000000001E-2</v>
+        <v>-5.2344465460024761E-3</v>
       </c>
       <c r="BPH1">
-        <v>2.1007234999999999E-2</v>
+        <v>-5.2396872381887836E-3</v>
       </c>
       <c r="BPI1">
-        <v>2.1008097E-2</v>
+        <v>-5.2461474514034004E-3</v>
       </c>
       <c r="BPJ1">
-        <v>2.0990274E-2</v>
+        <v>-5.2796109874739088E-3</v>
       </c>
       <c r="BPK1">
-        <v>2.0918692999999999E-2</v>
+        <v>-5.3701493214859779E-3</v>
       </c>
       <c r="BPL1">
-        <v>2.0943984999999998E-2</v>
+        <v>-5.3610201687561768E-3</v>
       </c>
       <c r="BPM1">
-        <v>2.1006401000000001E-2</v>
+        <v>-5.3192541771237487E-3</v>
       </c>
       <c r="BPN1">
-        <v>2.1050802E-2</v>
+        <v>-5.2902575571355144E-3</v>
       </c>
       <c r="BPO1">
-        <v>2.1188708000000001E-2</v>
+        <v>-5.1600175207318884E-3</v>
       </c>
       <c r="BPP1">
-        <v>2.1226347E-2</v>
+        <v>-5.1358169604131124E-3</v>
       </c>
       <c r="BPQ1">
-        <v>2.1179676000000001E-2</v>
+        <v>-5.2004967411725701E-3</v>
       </c>
       <c r="BPR1">
-        <v>2.1167577E-2</v>
+        <v>-5.2256925071533407E-3</v>
       </c>
       <c r="BPS1">
-        <v>2.1116726999999998E-2</v>
+        <v>-5.2892546800507E-3</v>
       </c>
       <c r="BPT1">
-        <v>2.1113544000000001E-2</v>
+        <v>-5.3043879385433063E-3</v>
       </c>
       <c r="BPU1">
-        <v>2.1124731000000001E-2</v>
+        <v>-5.3001544084540879E-3</v>
       </c>
       <c r="BPV1">
-        <v>2.1156399999999999E-2</v>
+        <v>-5.2782100295456179E-3</v>
       </c>
       <c r="BPW1">
-        <v>2.1244855E-2</v>
+        <v>-5.203138783191192E-3</v>
       </c>
       <c r="BPX1">
-        <v>2.1300040999999999E-2</v>
+        <v>-5.1573850580944186E-3</v>
       </c>
       <c r="BPY1">
-        <v>2.1354807999999999E-2</v>
+        <v>-5.1111958056589517E-3</v>
       </c>
       <c r="BPZ1">
-        <v>2.1411144E-2</v>
+        <v>-5.0619757103701861E-3</v>
       </c>
       <c r="BQA1">
-        <v>2.1457646E-2</v>
+        <v>-5.0160814495108612E-3</v>
       </c>
       <c r="BQB1">
-        <v>2.1497523000000001E-2</v>
+        <v>-4.9822233880291436E-3</v>
       </c>
       <c r="BQC1">
-        <v>2.1522864999999999E-2</v>
+        <v>-4.9646955944008253E-3</v>
       </c>
       <c r="BQD1">
-        <v>2.1550224E-2</v>
+        <v>-4.9471290164203111E-3</v>
       </c>
       <c r="BQE1">
-        <v>2.1553824999999999E-2</v>
+        <v>-4.9509697971148667E-3</v>
       </c>
       <c r="BQF1">
-        <v>2.1526146999999999E-2</v>
+        <v>-4.9899442017638856E-3</v>
       </c>
       <c r="BQG1">
-        <v>2.1509364999999999E-2</v>
+        <v>-5.0111249776249832E-3</v>
       </c>
       <c r="BQH1">
-        <v>2.1494327000000001E-2</v>
+        <v>-5.0240742147767727E-3</v>
       </c>
       <c r="BQI1">
-        <v>2.1466038999999999E-2</v>
+        <v>-5.0555906768466087E-3</v>
       </c>
       <c r="BQJ1">
-        <v>2.1403887E-2</v>
+        <v>-5.1210865327736424E-3</v>
       </c>
       <c r="BQK1">
-        <v>2.1400149E-2</v>
+        <v>-5.1284209462812112E-3</v>
       </c>
       <c r="BQL1">
-        <v>2.1435411000000001E-2</v>
+        <v>-5.1023293411012714E-3</v>
       </c>
       <c r="BQM1">
-        <v>2.1424173000000001E-2</v>
+        <v>-5.1133371685844094E-3</v>
       </c>
       <c r="BQN1">
-        <v>2.1385069E-2</v>
+        <v>-5.1433983271377617E-3</v>
       </c>
       <c r="BQO1">
-        <v>2.1437393999999999E-2</v>
+        <v>-5.0892184208985621E-3</v>
       </c>
       <c r="BQP1">
-        <v>2.1516482999999999E-2</v>
+        <v>-5.0055115718828022E-3</v>
       </c>
       <c r="BQQ1">
-        <v>2.1567313000000001E-2</v>
+        <v>-4.9541013028124156E-3</v>
       </c>
       <c r="BQR1">
-        <v>2.1753656E-2</v>
+        <v>-4.7778651401749776E-3</v>
       </c>
       <c r="BQS1">
-        <v>2.1774145000000002E-2</v>
+        <v>-4.7588257178662573E-3</v>
       </c>
       <c r="BQT1">
-        <v>2.1592099999999999E-2</v>
+        <v>-4.9390483562593013E-3</v>
       </c>
       <c r="BQU1">
-        <v>2.1560286000000001E-2</v>
+        <v>-4.9672877152299212E-3</v>
       </c>
       <c r="BQV1">
-        <v>2.1545809999999999E-2</v>
+        <v>-4.9716265201578298E-3</v>
       </c>
       <c r="BQW1">
-        <v>2.1541794999999999E-2</v>
+        <v>-4.9683931373934731E-3</v>
       </c>
       <c r="BQX1">
-        <v>2.1669932999999999E-2</v>
+        <v>-4.830672958940619E-3</v>
       </c>
       <c r="BQY1">
-        <v>2.1693675999999999E-2</v>
+        <v>-4.8014940664029178E-3</v>
       </c>
       <c r="BQZ1">
-        <v>2.1613911999999999E-2</v>
+        <v>-4.8820544446595733E-3</v>
       </c>
       <c r="BRA1">
-        <v>2.1572948000000002E-2</v>
+        <v>-4.9205150496876076E-3</v>
       </c>
       <c r="BRB1">
-        <v>2.1498864999999999E-2</v>
+        <v>-4.9925287535219007E-3</v>
       </c>
       <c r="BRC1">
-        <v>2.1445626999999998E-2</v>
+        <v>-5.0436061693377174E-3</v>
       </c>
       <c r="BRD1">
-        <v>2.1435172999999998E-2</v>
+        <v>-5.052121450523972E-3</v>
       </c>
       <c r="BRE1">
-        <v>2.1492227999999999E-2</v>
+        <v>-4.9829746792399814E-3</v>
       </c>
       <c r="BRF1">
-        <v>2.1504209E-2</v>
+        <v>-4.9655449050472764E-3</v>
       </c>
       <c r="BRG1">
-        <v>2.1535123E-2</v>
+        <v>-4.9298832278999762E-3</v>
       </c>
       <c r="BRH1">
-        <v>2.1529817E-2</v>
+        <v>-4.9310053399466598E-3</v>
       </c>
       <c r="BRI1">
-        <v>2.1506846E-2</v>
+        <v>-4.9521171680492566E-3</v>
       </c>
       <c r="BRJ1">
-        <v>2.1470787000000002E-2</v>
+        <v>-4.9841349406336416E-3</v>
       </c>
       <c r="BRK1">
-        <v>2.1391283000000001E-2</v>
+        <v>-5.0588911145668554E-3</v>
       </c>
       <c r="BRL1">
-        <v>2.1378814999999999E-2</v>
+        <v>-5.0670578920199993E-3</v>
       </c>
       <c r="BRM1">
-        <v>2.1360223000000001E-2</v>
+        <v>-5.0777573409629892E-3</v>
       </c>
       <c r="BRN1">
-        <v>2.139493E-2</v>
+        <v>-5.0406401312927188E-3</v>
       </c>
       <c r="BRO1">
-        <v>2.1558763000000002E-2</v>
+        <v>-4.8796176948902306E-3</v>
       </c>
       <c r="BRP1">
-        <v>2.1568407000000001E-2</v>
+        <v>-4.8688554881814623E-3</v>
       </c>
       <c r="BRQ1">
-        <v>2.1474738E-2</v>
+        <v>-4.963598308678218E-3</v>
       </c>
       <c r="BRR1">
-        <v>2.1492819999999999E-2</v>
+        <v>-4.9439876394678818E-3</v>
       </c>
       <c r="BRS1">
-        <v>2.1493452E-2</v>
+        <v>-4.9374921697683746E-3</v>
       </c>
       <c r="BRT1">
-        <v>2.1506634E-2</v>
+        <v>-4.9200153022284851E-3</v>
       </c>
       <c r="BRU1">
-        <v>2.1673418999999999E-2</v>
+        <v>-4.749826183768794E-3</v>
       </c>
       <c r="BRV1">
-        <v>2.1686052000000001E-2</v>
+        <v>-4.7322908808098939E-3</v>
       </c>
       <c r="BRW1">
-        <v>2.1493063999999999E-2</v>
+        <v>-4.9193654508218956E-3</v>
       </c>
       <c r="BRX1">
-        <v>2.1478849000000001E-2</v>
+        <v>-4.9274275435262499E-3</v>
       </c>
       <c r="BRY1">
-        <v>2.1552654000000001E-2</v>
+        <v>-4.8446683371387717E-3</v>
       </c>
       <c r="BRZ1">
-        <v>2.1558010999999998E-2</v>
+        <v>-4.8346061397177668E-3</v>
       </c>
       <c r="BSA1">
-        <v>2.1646528000000002E-2</v>
+        <v>-4.743702877894846E-3</v>
       </c>
       <c r="BSB1">
-        <v>2.1664816999999999E-2</v>
+        <v>-4.7222441300354004E-3</v>
       </c>
       <c r="BSC1">
-        <v>2.1530981000000001E-2</v>
+        <v>-4.8545698522631832E-3</v>
       </c>
       <c r="BSD1">
-        <v>2.1489021000000001E-2</v>
+        <v>-4.8950630188102778E-3</v>
       </c>
       <c r="BSE1">
-        <v>2.1494388E-2</v>
+        <v>-4.89242886524964E-3</v>
       </c>
       <c r="BSF1">
-        <v>2.1507493999999999E-2</v>
+        <v>-4.8751811712008687E-3</v>
       </c>
       <c r="BSG1">
-        <v>2.1588627999999999E-2</v>
+        <v>-4.7833055466070459E-3</v>
       </c>
       <c r="BSH1">
-        <v>2.1614412999999999E-2</v>
+        <v>-4.7524910940230508E-3</v>
       </c>
       <c r="BSI1">
-        <v>2.166088E-2</v>
+        <v>-4.7013934207268716E-3</v>
       </c>
       <c r="BSJ1">
-        <v>2.1617845E-2</v>
+        <v>-4.7335540000232176E-3</v>
       </c>
       <c r="BSK1">
-        <v>2.1510502000000001E-2</v>
+        <v>-4.8435853424708339E-3</v>
       </c>
       <c r="BSL1">
-        <v>2.1445274E-2</v>
+        <v>-4.9070554755249766E-3</v>
       </c>
       <c r="BSM1">
-        <v>2.1376164999999999E-2</v>
+        <v>-4.9748191101832984E-3</v>
       </c>
       <c r="BSN1">
-        <v>2.1371892E-2</v>
+        <v>-4.9832049874089174E-3</v>
       </c>
       <c r="BSO1">
-        <v>2.1394122000000002E-2</v>
+        <v>-4.9611704122123623E-3</v>
       </c>
       <c r="BSP1">
-        <v>2.1494839000000002E-2</v>
+        <v>-4.8625206878073514E-3</v>
       </c>
       <c r="BSQ1">
-        <v>2.1518201000000001E-2</v>
+        <v>-4.8400629474968926E-3</v>
       </c>
       <c r="BSR1">
-        <v>2.1573835E-2</v>
+        <v>-4.7824529174946744E-3</v>
       </c>
       <c r="BSS1">
-        <v>2.1531290000000002E-2</v>
+        <v>-4.8237017922260553E-3</v>
       </c>
       <c r="BST1">
-        <v>2.1375142999999999E-2</v>
+        <v>-4.978615073009781E-3</v>
       </c>
       <c r="BSU1">
-        <v>2.1340508000000001E-2</v>
+        <v>-5.0128413180866513E-3</v>
       </c>
       <c r="BSV1">
-        <v>2.1273389E-2</v>
+        <v>-5.081174472265429E-3</v>
       </c>
       <c r="BSW1">
-        <v>2.1286768000000001E-2</v>
+        <v>-5.0640456749839191E-3</v>
       </c>
       <c r="BSX1">
-        <v>2.1443571000000002E-2</v>
+        <v>-4.9034261259769986E-3</v>
       </c>
       <c r="BSY1">
-        <v>2.1497281E-2</v>
+        <v>-4.8453469217205891E-3</v>
       </c>
       <c r="BSZ1">
-        <v>2.1549430000000001E-2</v>
+        <v>-4.7820357900850256E-3</v>
       </c>
       <c r="BTA1">
-        <v>2.1560664E-2</v>
+        <v>-4.7653690496759294E-3</v>
       </c>
       <c r="BTB1">
-        <v>2.1499147999999999E-2</v>
+        <v>-4.8230072417039154E-3</v>
       </c>
       <c r="BTC1">
-        <v>2.1485361000000001E-2</v>
+        <v>-4.8346356958796563E-3</v>
       </c>
       <c r="BTD1">
-        <v>2.1447384E-2</v>
+        <v>-4.8752574240065009E-3</v>
       </c>
       <c r="BTE1">
-        <v>2.1457985999999998E-2</v>
+        <v>-4.862925587399973E-3</v>
       </c>
       <c r="BTF1">
-        <v>2.1524102E-2</v>
+        <v>-4.7952402976682088E-3</v>
       </c>
       <c r="BTG1">
-        <v>2.1571914000000001E-2</v>
+        <v>-4.7473635002468484E-3</v>
       </c>
       <c r="BTH1">
-        <v>2.1668057000000001E-2</v>
+        <v>-4.6463266288002888E-3</v>
       </c>
       <c r="BTI1">
-        <v>2.169828E-2</v>
+        <v>-4.6164506491361799E-3</v>
       </c>
       <c r="BTJ1">
-        <v>2.1709714000000001E-2</v>
+        <v>-4.6135190601551239E-3</v>
       </c>
       <c r="BTK1">
-        <v>2.1673425999999999E-2</v>
+        <v>-4.6501389715766887E-3</v>
       </c>
       <c r="BTL1">
-        <v>2.1530866999999999E-2</v>
+        <v>-4.7893902460773852E-3</v>
       </c>
       <c r="BTM1">
-        <v>2.1467948000000001E-2</v>
+        <v>-4.8514425300347766E-3</v>
       </c>
       <c r="BTN1">
-        <v>2.1421434E-2</v>
+        <v>-4.8936440418338341E-3</v>
       </c>
       <c r="BTO1">
-        <v>2.1368343000000001E-2</v>
+        <v>-4.9457581265616342E-3</v>
       </c>
       <c r="BTP1">
-        <v>2.1322744000000001E-2</v>
+        <v>-4.9975371464561109E-3</v>
       </c>
       <c r="BTQ1">
-        <v>2.1324789E-2</v>
+        <v>-4.9945702122796559E-3</v>
       </c>
       <c r="BTR1">
-        <v>2.1347563E-2</v>
+        <v>-4.9650301364925556E-3</v>
       </c>
       <c r="BTS1">
-        <v>2.1372357000000002E-2</v>
+        <v>-4.9355896630888171E-3</v>
       </c>
       <c r="BTT1">
-        <v>2.1491162000000001E-2</v>
+        <v>-4.8072107379529862E-3</v>
       </c>
       <c r="BTU1">
-        <v>2.1540113E-2</v>
+        <v>-4.7548765548766567E-3</v>
       </c>
       <c r="BTV1">
-        <v>2.1524736999999999E-2</v>
+        <v>-4.7711071226478538E-3</v>
       </c>
       <c r="BTW1">
-        <v>2.1515579999999999E-2</v>
+        <v>-4.7844190100162567E-3</v>
       </c>
       <c r="BTX1">
-        <v>2.1470288000000001E-2</v>
+        <v>-4.8430524613734642E-3</v>
       </c>
       <c r="BTY1">
-        <v>2.1426687E-2</v>
+        <v>-4.8909179908912769E-3</v>
       </c>
       <c r="BTZ1">
-        <v>2.1512179999999999E-2</v>
+        <v>-4.814412012725925E-3</v>
       </c>
       <c r="BUA1">
-        <v>2.1578826999999998E-2</v>
+        <v>-4.7479606257478969E-3</v>
       </c>
       <c r="BUB1">
-        <v>2.1681221000000001E-2</v>
+        <v>-4.6487377954152484E-3</v>
       </c>
       <c r="BUC1">
-        <v>2.1777588000000001E-2</v>
+        <v>-4.5595011695071172E-3</v>
       </c>
       <c r="BUD1">
-        <v>2.1631965999999999E-2</v>
+        <v>-4.7087961087528239E-3</v>
       </c>
       <c r="BUE1">
-        <v>2.1572237000000001E-2</v>
+        <v>-4.7846803115535394E-3</v>
       </c>
       <c r="BUF1">
-        <v>2.1556863999999998E-2</v>
+        <v>-4.8043928268946198E-3</v>
       </c>
       <c r="BUG1">
-        <v>2.1482904000000001E-2</v>
+        <v>-4.8791936223352246E-3</v>
       </c>
       <c r="BUH1">
-        <v>2.1600062E-2</v>
+        <v>-4.7725667207731588E-3</v>
       </c>
       <c r="BUI1">
-        <v>2.1588883E-2</v>
+        <v>-4.7811605940775159E-3</v>
       </c>
       <c r="BUJ1">
-        <v>2.1465229999999998E-2</v>
+        <v>-4.9135469247748144E-3</v>
       </c>
       <c r="BUK1">
-        <v>2.1480163E-2</v>
+        <v>-4.9120260471121396E-3</v>
       </c>
       <c r="BUL1">
-        <v>2.1486991E-2</v>
+        <v>-4.91225676122857E-3</v>
       </c>
       <c r="BUM1">
-        <v>2.1493544999999999E-2</v>
+        <v>-4.9104046459505293E-3</v>
       </c>
       <c r="BUN1">
-        <v>2.1535783999999999E-2</v>
+        <v>-4.8805088014089899E-3</v>
       </c>
       <c r="BUO1">
-        <v>2.1660307E-2</v>
+        <v>-4.76847703586342E-3</v>
       </c>
       <c r="BUP1">
-        <v>2.1667372000000001E-2</v>
+        <v>-4.7748573469619041E-3</v>
       </c>
       <c r="BUQ1">
-        <v>2.1593042E-2</v>
+        <v>-4.8690658535322437E-3</v>
       </c>
       <c r="BUR1">
-        <v>2.1603435000000001E-2</v>
+        <v>-4.8714682251848121E-3</v>
       </c>
       <c r="BUS1">
-        <v>2.1614906E-2</v>
+        <v>-4.8663261129551884E-3</v>
       </c>
       <c r="BUT1">
-        <v>2.1648622999999999E-2</v>
+        <v>-4.8444811764606042E-3</v>
       </c>
       <c r="BUU1">
-        <v>2.1764849999999999E-2</v>
+        <v>-4.7454532851451958E-3</v>
       </c>
       <c r="BUV1">
-        <v>2.1804347000000002E-2</v>
+        <v>-4.7183138272332142E-3</v>
       </c>
       <c r="BUW1">
-        <v>2.1799450000000001E-2</v>
+        <v>-4.7349466871913319E-3</v>
       </c>
       <c r="BUX1">
-        <v>2.1791036E-2</v>
+        <v>-4.7518316496942929E-3</v>
       </c>
       <c r="BUY1">
-        <v>2.1771999E-2</v>
+        <v>-4.7718088277941932E-3</v>
       </c>
       <c r="BUZ1">
-        <v>2.1720878999999998E-2</v>
+        <v>-4.8298581006142802E-3</v>
       </c>
       <c r="BVA1">
-        <v>2.1631596999999999E-2</v>
+        <v>-4.9295242012740957E-3</v>
       </c>
       <c r="BVB1">
-        <v>2.1582482E-2</v>
+        <v>-4.9868852884138587E-3</v>
       </c>
       <c r="BVC1">
-        <v>2.1485048E-2</v>
+        <v>-5.0968226008305494E-3</v>
       </c>
       <c r="BVD1">
-        <v>2.1488321000000001E-2</v>
+        <v>-5.0997641494774856E-3</v>
       </c>
       <c r="BVE1">
-        <v>2.1569444E-2</v>
+        <v>-5.020465289337854E-3</v>
       </c>
       <c r="BVF1">
-        <v>2.1623926000000002E-2</v>
+        <v>-4.965462726543822E-3</v>
       </c>
       <c r="BVG1">
-        <v>2.1759657000000002E-2</v>
+        <v>-4.8200880109478574E-3</v>
       </c>
       <c r="BVH1">
-        <v>2.1801276000000001E-2</v>
+        <v>-4.7790788843695871E-3</v>
       </c>
       <c r="BVI1">
-        <v>2.1804667999999999E-2</v>
+        <v>-4.7750299630617173E-3</v>
       </c>
       <c r="BVJ1">
-        <v>2.1767894999999999E-2</v>
+        <v>-4.8214850006556703E-3</v>
       </c>
       <c r="BVK1">
-        <v>2.1622031999999999E-2</v>
+        <v>-4.9936154853314138E-3</v>
       </c>
       <c r="BVL1">
-        <v>2.1585917E-2</v>
+        <v>-5.0472749972810156E-3</v>
       </c>
       <c r="BVM1">
-        <v>2.1605000999999999E-2</v>
+        <v>-5.0470709357509601E-3</v>
       </c>
       <c r="BVN1">
-        <v>2.1569245000000001E-2</v>
+        <v>-5.0984032416633261E-3</v>
       </c>
       <c r="BVO1">
-        <v>2.1542734000000001E-2</v>
+        <v>-5.1336280375828859E-3</v>
       </c>
       <c r="BVP1">
-        <v>2.1540276000000001E-2</v>
+        <v>-5.1460833507395651E-3</v>
       </c>
       <c r="BVQ1">
-        <v>2.1459042000000001E-2</v>
+        <v>-5.2343811748956784E-3</v>
       </c>
       <c r="BVR1">
-        <v>2.1501143E-2</v>
+        <v>-5.2086713072930953E-3</v>
       </c>
       <c r="BVS1">
-        <v>2.1722815999999999E-2</v>
+        <v>-5.0061013300863218E-3</v>
       </c>
       <c r="BVT1">
-        <v>2.1780105000000001E-2</v>
+        <v>-4.9758172363873823E-3</v>
       </c>
       <c r="BVU1">
-        <v>2.1806328E-2</v>
+        <v>-4.9912967549109281E-3</v>
       </c>
       <c r="BVV1">
-        <v>2.1803109000000001E-2</v>
+        <v>-5.0264126419273282E-3</v>
       </c>
       <c r="BVW1">
-        <v>2.1624021E-2</v>
+        <v>-5.2273193899596039E-3</v>
       </c>
       <c r="BVX1">
-        <v>2.1625960999999999E-2</v>
+        <v>-5.2618286376555669E-3</v>
       </c>
       <c r="BVY1">
-        <v>2.1786693999999999E-2</v>
+        <v>-5.1456300005680196E-3</v>
       </c>
       <c r="BVZ1">
-        <v>2.1813880000000001E-2</v>
+        <v>-5.1575680327665624E-3</v>
       </c>
       <c r="BWA1">
-        <v>2.1865539999999999E-2</v>
+        <v>-5.1620874212961777E-3</v>
       </c>
       <c r="BWB1">
-        <v>2.1863566000000001E-2</v>
+        <v>-5.2070658318879859E-3</v>
       </c>
       <c r="BWC1">
-        <v>2.1708841999999999E-2</v>
+        <v>-5.3923717583886852E-3</v>
       </c>
       <c r="BWD1">
-        <v>2.1667437000000001E-2</v>
+        <v>-5.4622011078687589E-3</v>
       </c>
       <c r="BWE1">
-        <v>2.1676741999999999E-2</v>
+        <v>-5.4853269398089377E-3</v>
       </c>
       <c r="BWF1">
-        <v>2.1696262000000001E-2</v>
+        <v>-5.4743747524610559E-3</v>
       </c>
       <c r="BWG1">
-        <v>2.1769628999999999E-2</v>
+        <v>-5.3945018581402866E-3</v>
       </c>
       <c r="BWH1">
-        <v>2.1825348000000001E-2</v>
+        <v>-5.3240933576027723E-3</v>
       </c>
       <c r="BWI1">
-        <v>2.1925381000000001E-2</v>
+        <v>-5.1882456371609292E-3</v>
       </c>
       <c r="BWJ1">
-        <v>2.1948013999999998E-2</v>
+        <v>-5.134226815057534E-3</v>
       </c>
       <c r="BWK1">
-        <v>2.1929298E-2</v>
+        <v>-5.1274558992949297E-3</v>
       </c>
       <c r="BWL1">
-        <v>2.1892521000000002E-2</v>
+        <v>-5.1150283299938454E-3</v>
       </c>
       <c r="BWM1">
-        <v>2.180375E-2</v>
+        <v>-5.1409763211085341E-3</v>
       </c>
       <c r="BWN1">
-        <v>2.1661792999999999E-2</v>
+        <v>-5.2094258491435751E-3</v>
       </c>
       <c r="BWO1">
-        <v>2.1402001E-2</v>
+        <v>-5.3666565441086722E-3</v>
       </c>
       <c r="BWP1">
-        <v>2.1327083E-2</v>
+        <v>-5.3537966315778743E-3</v>
       </c>
       <c r="BWQ1">
-        <v>2.1307909E-2</v>
+        <v>-5.2812893817867218E-3</v>
       </c>
       <c r="BWR1">
-        <v>2.1309541000000001E-2</v>
+        <v>-5.2009489528776626E-3</v>
       </c>
       <c r="BWS1">
-        <v>2.1570155000000001E-2</v>
+        <v>-4.8727090119034498E-3</v>
       </c>
       <c r="BWT1">
-        <v>2.1561054E-2</v>
+        <v>-4.8116914690750356E-3</v>
       </c>
       <c r="BWU1">
-        <v>2.1318837E-2</v>
+        <v>-4.9864883515100336E-3</v>
       </c>
       <c r="BWV1">
-        <v>2.1210311999999999E-2</v>
+        <v>-5.0316894275670024E-3</v>
       </c>
       <c r="BWW1">
-        <v>2.1015855E-2</v>
+        <v>-5.1646774998495666E-3</v>
       </c>
       <c r="BWX1">
-        <v>2.0894993000000001E-2</v>
+        <v>-5.2267634140732806E-3</v>
       </c>
       <c r="BWY1">
-        <v>2.0868035E-2</v>
+        <v>-5.1966738497667246E-3</v>
       </c>
       <c r="BWZ1">
-        <v>2.0839081999999998E-2</v>
+        <v>-5.1824600108387048E-3</v>
       </c>
       <c r="BXA1">
-        <v>2.0869057999999999E-2</v>
+        <v>-5.1167243066921296E-3</v>
       </c>
       <c r="BXB1">
-        <v>2.0898557000000002E-2</v>
+        <v>-5.0514231362386343E-3</v>
       </c>
       <c r="BXC1">
-        <v>2.0974278999999998E-2</v>
+        <v>-4.9468380298614938E-3</v>
       </c>
       <c r="BXD1">
-        <v>2.1010104000000002E-2</v>
+        <v>-4.8868307059508308E-3</v>
       </c>
       <c r="BXE1">
-        <v>2.0967520999999999E-2</v>
+        <v>-4.9086691346187962E-3</v>
       </c>
       <c r="BXF1">
-        <v>2.0941547000000001E-2</v>
+        <v>-4.9165157010754926E-3</v>
       </c>
       <c r="BXG1">
-        <v>2.0953355999999999E-2</v>
+        <v>-4.8930489056784911E-3</v>
       </c>
       <c r="BXH1">
-        <v>2.0893396000000002E-2</v>
+        <v>-4.9514956911342924E-3</v>
       </c>
       <c r="BXI1">
-        <v>2.0820755E-2</v>
+        <v>-5.0252683916266194E-3</v>
       </c>
       <c r="BXJ1">
-        <v>2.073086E-2</v>
+        <v>-5.1173940651836718E-3</v>
       </c>
       <c r="BXK1">
-        <v>2.0498551E-2</v>
+        <v>-5.3637055922921492E-3</v>
       </c>
       <c r="BXL1">
-        <v>2.0419862E-2</v>
+        <v>-5.4532406329346776E-3</v>
       </c>
       <c r="BXM1">
-        <v>2.0419803E-2</v>
+        <v>-5.4600912011845207E-3</v>
       </c>
       <c r="BXN1">
-        <v>2.0448787999999999E-2</v>
+        <v>-5.4462889990718188E-3</v>
       </c>
       <c r="BXO1">
-        <v>2.0631839999999999E-2</v>
+        <v>-5.2913060471484821E-3</v>
       </c>
       <c r="BXP1">
-        <v>2.070874E-2</v>
+        <v>-5.2379945301200131E-3</v>
       </c>
       <c r="BXQ1">
-        <v>2.0685425E-2</v>
+        <v>-5.2913442993945204E-3</v>
       </c>
       <c r="BXR1">
-        <v>2.0758921999999999E-2</v>
+        <v>-5.233210414704377E-3</v>
       </c>
       <c r="BXS1">
-        <v>2.0890137999999999E-2</v>
+        <v>-5.1032591401752002E-3</v>
       </c>
       <c r="BXT1">
-        <v>2.0948906999999999E-2</v>
+        <v>-5.0441079394903084E-3</v>
       </c>
       <c r="BXU1">
-        <v>2.1116683000000001E-2</v>
+        <v>-4.8722585346273432E-3</v>
       </c>
       <c r="BXV1">
-        <v>2.1119105999999999E-2</v>
+        <v>-4.8572878196443819E-3</v>
       </c>
       <c r="BXW1">
-        <v>2.0871069999999999E-2</v>
+        <v>-5.09573385232958E-3</v>
       </c>
       <c r="BXX1">
-        <v>2.0768941999999999E-2</v>
+        <v>-5.1760669478870744E-3</v>
       </c>
       <c r="BXY1">
-        <v>2.0642174999999999E-2</v>
+        <v>-5.2617542834956371E-3</v>
       </c>
       <c r="BXZ1">
-        <v>2.0584491E-2</v>
+        <v>-5.2776039028359116E-3</v>
       </c>
       <c r="BYA1">
-        <v>2.0710236999999999E-2</v>
+        <v>-5.0978302856237064E-3</v>
       </c>
       <c r="BYB1">
-        <v>2.0722168999999999E-2</v>
+        <v>-5.0326148724485972E-3</v>
       </c>
       <c r="BYC1">
-        <v>2.0706129E-2</v>
+        <v>-4.9923637344968831E-3</v>
       </c>
       <c r="BYD1">
-        <v>2.0607545000000001E-2</v>
+        <v>-5.0343361852126581E-3</v>
       </c>
       <c r="BYE1">
-        <v>2.0332745999999999E-2</v>
+        <v>-5.2572119926731047E-3</v>
       </c>
       <c r="BYF1">
-        <v>2.0171497E-2</v>
+        <v>-5.3672559490825639E-3</v>
       </c>
       <c r="BYG1">
-        <v>2.0023926000000001E-2</v>
+        <v>-5.4580255111282283E-3</v>
       </c>
       <c r="BYH1">
-        <v>1.9973581000000001E-2</v>
+        <v>-5.4598791168821506E-3</v>
       </c>
       <c r="BYI1">
-        <v>2.0083784E-2</v>
+        <v>-5.2948315542473007E-3</v>
       </c>
       <c r="BYJ1">
-        <v>2.0120931000000002E-2</v>
+        <v>-5.2099899753302306E-3</v>
       </c>
       <c r="BYK1">
-        <v>2.0146975000000001E-2</v>
+        <v>-5.1490920314838824E-3</v>
       </c>
       <c r="BYL1">
-        <v>2.0147754E-2</v>
+        <v>-5.1115927204465651E-3</v>
       </c>
       <c r="BYM1">
-        <v>2.0053001000000001E-2</v>
+        <v>-5.1750305428703604E-3</v>
       </c>
       <c r="BYN1">
-        <v>2.0057274999999999E-2</v>
+        <v>-5.1505190034205582E-3</v>
       </c>
       <c r="BYO1">
-        <v>2.0219137000000002E-2</v>
+        <v>-4.9731787758374758E-3</v>
       </c>
       <c r="BYP1">
-        <v>2.0207325000000002E-2</v>
+        <v>-4.9649440777273963E-3</v>
       </c>
       <c r="BYQ1">
-        <v>2.0100011000000001E-2</v>
+        <v>-5.0583788821480062E-3</v>
       </c>
       <c r="BYR1">
-        <v>2.0101343000000001E-2</v>
+        <v>-5.037685872062013E-3</v>
       </c>
       <c r="BYS1">
-        <v>2.0051843999999999E-2</v>
+        <v>-5.0619191460380131E-3</v>
       </c>
       <c r="BYT1">
-        <v>1.9975644000000001E-2</v>
+        <v>-5.1215460364655539E-3</v>
       </c>
       <c r="BYU1">
-        <v>1.9985708000000001E-2</v>
+        <v>-5.1049301217940676E-3</v>
       </c>
       <c r="BYV1">
-        <v>1.9974902999999999E-2</v>
+        <v>-5.0992496073565263E-3</v>
       </c>
       <c r="BYW1">
-        <v>1.9802638000000001E-2</v>
+        <v>-5.2525817894558298E-3</v>
       </c>
       <c r="BYX1">
-        <v>1.9819264E-2</v>
+        <v>-5.2083710041006216E-3</v>
       </c>
       <c r="BYY1">
-        <v>2.0066896000000001E-2</v>
+        <v>-4.9168979625062274E-3</v>
       </c>
       <c r="BYZ1">
-        <v>2.0170018000000001E-2</v>
+        <v>-4.7760045476427822E-3</v>
       </c>
       <c r="BZA1">
-        <v>2.04078E-2</v>
+        <v>-4.5047868737387101E-3</v>
       </c>
       <c r="BZB1">
-        <v>2.0345182E-2</v>
+        <v>-4.5367708682187936E-3</v>
       </c>
       <c r="BZC1">
-        <v>1.9912910999999998E-2</v>
+        <v>-4.9396623598120699E-3</v>
       </c>
       <c r="BZD1">
-        <v>1.9710946999999999E-2</v>
+        <v>-5.1207668547118904E-3</v>
       </c>
       <c r="BZE1">
-        <v>1.9333151E-2</v>
+        <v>-5.4805755004421648E-3</v>
       </c>
       <c r="BZF1">
-        <v>1.9221451000000001E-2</v>
+        <v>-5.5703404586962824E-3</v>
       </c>
       <c r="BZG1">
-        <v>1.9480088999999999E-2</v>
+        <v>-5.2907999937534186E-3</v>
       </c>
       <c r="BZH1">
-        <v>1.9550515000000001E-2</v>
+        <v>-5.1971587278323824E-3</v>
       </c>
       <c r="BZI1">
-        <v>1.9599801E-2</v>
+        <v>-5.1245129544237877E-3</v>
       </c>
       <c r="BZJ1">
-        <v>1.9707738999999998E-2</v>
+        <v>-4.9909064469415036E-3</v>
       </c>
       <c r="BZK1">
-        <v>1.983068E-2</v>
+        <v>-4.8397672541195223E-3</v>
       </c>
       <c r="BZL1">
-        <v>1.9791381E-2</v>
+        <v>-4.8721366458660369E-3</v>
       </c>
       <c r="BZM1">
-        <v>1.9764515E-2</v>
+        <v>-4.9048610145003731E-3</v>
       </c>
       <c r="BZN1">
-        <v>1.9779318000000001E-2</v>
+        <v>-4.870345563989624E-3</v>
       </c>
       <c r="BZO1">
-        <v>1.9626616E-2</v>
+        <v>-5.0022259024994076E-3</v>
       </c>
       <c r="BZP1">
-        <v>1.9890997000000001E-2</v>
+        <v>-4.683093694712686E-3</v>
       </c>
       <c r="BZQ1">
-        <v>2.0068727000000001E-2</v>
+        <v>-4.4740468013855566E-3</v>
       </c>
       <c r="BZR1">
-        <v>2.0118483E-2</v>
+        <v>-4.381688741891647E-3</v>
       </c>
       <c r="BZS1">
-        <v>1.9956285000000001E-2</v>
+        <v>-4.5222446703515502E-3</v>
       </c>
       <c r="BZT1">
-        <v>1.9970371000000001E-2</v>
+        <v>-4.4962315635053152E-3</v>
       </c>
       <c r="BZU1">
-        <v>2.0038066E-2</v>
+        <v>-4.3977707009159586E-3</v>
       </c>
       <c r="BZV1">
-        <v>1.9929069000000001E-2</v>
+        <v>-4.5071243438496956E-3</v>
       </c>
       <c r="BZW1">
-        <v>1.9975151E-2</v>
+        <v>-4.4592338984687299E-3</v>
       </c>
       <c r="BZX1">
-        <v>1.9970828999999999E-2</v>
+        <v>-4.4518352819913169E-3</v>
       </c>
       <c r="BZY1">
-        <v>1.9820447000000001E-2</v>
+        <v>-4.5932640065242114E-3</v>
       </c>
       <c r="BZZ1">
-        <v>1.9925584E-2</v>
+        <v>-4.4489153483249291E-3</v>
       </c>
       <c r="CAA1">
-        <v>2.0001685000000002E-2</v>
+        <v>-4.3522026288385258E-3</v>
       </c>
       <c r="CAB1">
-        <v>1.9882553000000001E-2</v>
+        <v>-4.4489054854121059E-3</v>
       </c>
       <c r="CAC1">
-        <v>1.9538278999999999E-2</v>
+        <v>-4.7548250926178724E-3</v>
       </c>
       <c r="CAD1">
-        <v>1.9142213000000002E-2</v>
+        <v>-5.1286830528076838E-3</v>
       </c>
       <c r="CAE1">
-        <v>1.9009616E-2</v>
+        <v>-5.1994551385231361E-3</v>
       </c>
       <c r="CAF1">
-        <v>1.8665614000000001E-2</v>
+        <v>-5.4914366824667278E-3</v>
       </c>
       <c r="CAG1">
-        <v>1.8748497999999999E-2</v>
+        <v>-5.3670709290799812E-3</v>
       </c>
       <c r="CAH1">
-        <v>1.9278228000000001E-2</v>
+        <v>-4.7795919673410776E-3</v>
       </c>
       <c r="CAI1">
-        <v>1.9514324999999999E-2</v>
+        <v>-4.5281779335468071E-3</v>
       </c>
       <c r="CAJ1">
-        <v>1.9858206999999999E-2</v>
+        <v>-4.1614966098937256E-3</v>
       </c>
       <c r="CAK1">
-        <v>1.9917425999999998E-2</v>
+        <v>-4.073451747929991E-3</v>
       </c>
       <c r="CAL1">
-        <v>1.9553230000000001E-2</v>
+        <v>-4.411037472378896E-3</v>
       </c>
       <c r="CAM1">
-        <v>1.9072498E-2</v>
+        <v>-4.8322941944581657E-3</v>
       </c>
       <c r="CAN1">
-        <v>1.8760526999999999E-2</v>
+        <v>-5.1021753150311301E-3</v>
       </c>
       <c r="CAO1">
-        <v>1.8632221000000001E-2</v>
+        <v>-5.1782599503353739E-3</v>
       </c>
       <c r="CAP1">
-        <v>1.8380773999999999E-2</v>
+        <v>-5.374414094647912E-3</v>
       </c>
       <c r="CAQ1">
-        <v>1.8490321000000001E-2</v>
+        <v>-5.2652426173434297E-3</v>
       </c>
       <c r="CAR1">
-        <v>1.8607683E-2</v>
+        <v>-5.1136417815567381E-3</v>
       </c>
       <c r="CAS1">
-        <v>1.8581385999999998E-2</v>
+        <v>-5.1001903753650941E-3</v>
       </c>
       <c r="CAT1">
-        <v>1.8840088000000001E-2</v>
+        <v>-4.8413945020454206E-3</v>
       </c>
       <c r="CAU1">
-        <v>1.8800239999999999E-2</v>
+        <v>-4.8305970361436183E-3</v>
       </c>
       <c r="CAV1">
-        <v>1.8885413E-2</v>
+        <v>-4.7317380534350794E-3</v>
       </c>
       <c r="CAW1">
-        <v>1.9011465000000002E-2</v>
+        <v>-4.6231750954725329E-3</v>
       </c>
       <c r="CAX1">
-        <v>1.8518472000000001E-2</v>
+        <v>-5.0856842289439749E-3</v>
       </c>
       <c r="CAY1">
-        <v>1.8345449999999999E-2</v>
+        <v>-5.267898008262821E-3</v>
       </c>
       <c r="CAZ1">
-        <v>1.8278828E-2</v>
+        <v>-5.3050272301994848E-3</v>
       </c>
       <c r="CBA1">
-        <v>1.7996097999999999E-2</v>
+        <v>-5.5176432630653222E-3</v>
       </c>
       <c r="CBB1">
-        <v>1.8034106000000001E-2</v>
+        <v>-5.4547954883712342E-3</v>
       </c>
       <c r="CBC1">
-        <v>1.8007511E-2</v>
+        <v>-5.4036510375305227E-3</v>
       </c>
       <c r="CBD1">
-        <v>1.7776298999999999E-2</v>
+        <v>-5.5626280529365892E-3</v>
       </c>
       <c r="CBE1">
-        <v>1.7991271999999999E-2</v>
+        <v>-5.3189963105529613E-3</v>
       </c>
       <c r="CBF1">
-        <v>1.8555439E-2</v>
+        <v>-4.7060247109952068E-3</v>
       </c>
       <c r="CBG1">
-        <v>1.8774405000000001E-2</v>
+        <v>-4.4887696301758456E-3</v>
       </c>
       <c r="CBH1">
-        <v>1.8558654000000001E-2</v>
+        <v>-4.6865171604333067E-3</v>
       </c>
       <c r="CBI1">
-        <v>1.8316020999999998E-2</v>
+        <v>-4.9093633800051627E-3</v>
       </c>
       <c r="CBJ1">
-        <v>1.7946752E-2</v>
+        <v>-5.2487099071992964E-3</v>
       </c>
       <c r="CBK1">
-        <v>1.7750016E-2</v>
+        <v>-5.4227701286663826E-3</v>
       </c>
       <c r="CBL1">
-        <v>1.7726566999999999E-2</v>
+        <v>-5.4356961173142558E-3</v>
       </c>
       <c r="CBM1">
-        <v>1.7888859E-2</v>
+        <v>-5.1961139938952981E-3</v>
       </c>
       <c r="CBN1">
-        <v>1.7843411E-2</v>
+        <v>-5.2264220877904222E-3</v>
       </c>
       <c r="CBO1">
-        <v>1.8235945E-2</v>
+        <v>-4.8023151277078006E-3</v>
       </c>
       <c r="CBP1">
-        <v>1.8501409E-2</v>
+        <v>-4.4997188811375238E-3</v>
       </c>
       <c r="CBQ1">
-        <v>1.8694741000000001E-2</v>
+        <v>-4.334827673250094E-3</v>
       </c>
       <c r="CBR1">
-        <v>1.8844353000000001E-2</v>
+        <v>-4.1397085370294268E-3</v>
       </c>
       <c r="CBS1">
-        <v>1.8552645E-2</v>
+        <v>-4.3898271010338469E-3</v>
       </c>
       <c r="CBT1">
-        <v>1.8561132000000001E-2</v>
+        <v>-4.3660318015278426E-3</v>
       </c>
       <c r="CBU1">
-        <v>1.8833789E-2</v>
+        <v>-4.0356022516036608E-3</v>
       </c>
       <c r="CBV1">
-        <v>1.9000156000000001E-2</v>
+        <v>-3.8541061917915578E-3</v>
       </c>
       <c r="CBW1">
-        <v>1.8686699000000001E-2</v>
+        <v>-4.1631163033366281E-3</v>
       </c>
       <c r="CBX1">
-        <v>1.8340820000000001E-2</v>
+        <v>-4.4981405446574184E-3</v>
       </c>
       <c r="CBY1">
-        <v>1.8284147000000001E-2</v>
+        <v>-4.5641226773854146E-3</v>
       </c>
       <c r="CBZ1">
-        <v>1.7847693000000001E-2</v>
+        <v>-4.940991559535389E-3</v>
       </c>
       <c r="CCA1">
-        <v>1.7798234999999999E-2</v>
+        <v>-4.9421690945588327E-3</v>
       </c>
       <c r="CCB1">
-        <v>1.7934585999999999E-2</v>
+        <v>-4.7466426545323508E-3</v>
       </c>
       <c r="CCC1">
-        <v>1.7340102999999999E-2</v>
+        <v>-5.2302255687368716E-3</v>
       </c>
       <c r="CCD1">
-        <v>1.7302242999999998E-2</v>
+        <v>-5.2920418622298161E-3</v>
       </c>
       <c r="CCE1">
-        <v>1.7508678E-2</v>
+        <v>-5.101965874357392E-3</v>
       </c>
       <c r="CCF1">
-        <v>1.7228502999999999E-2</v>
+        <v>-5.3460232508602684E-3</v>
       </c>
       <c r="CCG1">
-        <v>1.7257117999999998E-2</v>
+        <v>-5.350665321620169E-3</v>
       </c>
       <c r="CCH1">
-        <v>1.6933408E-2</v>
+        <v>-5.6248679235888924E-3</v>
       </c>
       <c r="CCI1">
-        <v>1.6767035E-2</v>
+        <v>-5.7421322793357529E-3</v>
       </c>
       <c r="CCJ1">
-        <v>1.7228947000000001E-2</v>
+        <v>-5.2659735532891057E-3</v>
       </c>
       <c r="CCK1">
-        <v>1.7535776999999999E-2</v>
+        <v>-4.8799929488245386E-3</v>
       </c>
       <c r="CCL1">
-        <v>1.7610817000000001E-2</v>
+        <v>-4.8015694382932536E-3</v>
       </c>
       <c r="CCM1">
-        <v>1.7811740999999999E-2</v>
+        <v>-4.5580148931941497E-3</v>
       </c>
       <c r="CCN1">
-        <v>1.8267017E-2</v>
+        <v>-4.0115270772837289E-3</v>
       </c>
       <c r="CCO1">
-        <v>1.7886273000000001E-2</v>
+        <v>-4.390740838471803E-3</v>
       </c>
       <c r="CCP1">
-        <v>1.7392086000000001E-2</v>
+        <v>-4.774613710207723E-3</v>
       </c>
       <c r="CCQ1">
-        <v>1.7528842999999999E-2</v>
+        <v>-4.5642281226014603E-3</v>
       </c>
       <c r="CCR1">
-        <v>1.7203669000000001E-2</v>
+        <v>-4.9061496637344583E-3</v>
       </c>
       <c r="CCS1">
-        <v>1.7339602999999999E-2</v>
+        <v>-4.7884553267629817E-3</v>
       </c>
       <c r="CCT1">
-        <v>1.8339540000000001E-2</v>
+        <v>-3.9335166757546031E-3</v>
       </c>
       <c r="CCU1">
-        <v>1.8391001000000001E-2</v>
+        <v>-3.8621927679895018E-3</v>
       </c>
       <c r="CCV1">
-        <v>1.7972533999999998E-2</v>
+        <v>-4.2081097330127978E-3</v>
       </c>
       <c r="CCW1">
-        <v>1.7417241E-2</v>
+        <v>-4.6135707170776447E-3</v>
       </c>
       <c r="CCX1">
-        <v>1.7296232000000002E-2</v>
+        <v>-4.5956577876329271E-3</v>
       </c>
       <c r="CCY1">
-        <v>1.7575541E-2</v>
+        <v>-4.3021060015741713E-3</v>
       </c>
       <c r="CCZ1">
-        <v>1.7610555999999999E-2</v>
+        <v>-4.1844465805849626E-3</v>
       </c>
       <c r="CDA1">
-        <v>1.7803530000000001E-2</v>
+        <v>-3.9806618867278126E-3</v>
       </c>
       <c r="CDB1">
-        <v>1.7060474999999999E-2</v>
+        <v>-4.7259996940846906E-3</v>
       </c>
       <c r="CDC1">
-        <v>1.6614106999999999E-2</v>
+        <v>-5.1606488963369286E-3</v>
       </c>
       <c r="CDD1">
-        <v>1.6415734000000001E-2</v>
+        <v>-5.4305115245902869E-3</v>
       </c>
       <c r="CDE1">
-        <v>1.5659642000000001E-2</v>
+        <v>-6.2039593465081089E-3</v>
       </c>
       <c r="CDF1">
-        <v>1.6629186000000001E-2</v>
+        <v>-5.2706038358368221E-3</v>
       </c>
       <c r="CDG1">
-        <v>1.7272889999999999E-2</v>
+        <v>-4.5997140169654858E-3</v>
       </c>
       <c r="CDH1">
-        <v>1.6786756E-2</v>
+        <v>-4.9131411423928469E-3</v>
       </c>
       <c r="CDI1">
-        <v>1.6552668E-2</v>
+        <v>-5.0454045438595857E-3</v>
       </c>
       <c r="CDJ1">
-        <v>1.5789069999999999E-2</v>
+        <v>-5.6989723547004531E-3</v>
       </c>
       <c r="CDK1">
-        <v>1.6298673999999999E-2</v>
+        <v>-5.1451561505826476E-3</v>
       </c>
       <c r="CDL1">
-        <v>1.7733477000000001E-2</v>
+        <v>-3.7864296795473359E-3</v>
       </c>
       <c r="CDM1">
-        <v>1.8586195E-2</v>
+        <v>-2.877460286480147E-3</v>
       </c>
       <c r="CDN1">
-        <v>1.9491791000000001E-2</v>
+        <v>-1.921230886557507E-3</v>
       </c>
       <c r="CDO1">
-        <v>1.9239876999999999E-2</v>
+        <v>-2.1088425985490399E-3</v>
       </c>
       <c r="CDP1">
-        <v>1.7981595E-2</v>
+        <v>-3.3051757822216178E-3</v>
       </c>
       <c r="CDQ1">
-        <v>1.8773043E-2</v>
+        <v>-2.6896110396640652E-3</v>
       </c>
       <c r="CDR1">
-        <v>1.8744202000000001E-2</v>
+        <v>-2.7610313243795689E-3</v>
       </c>
       <c r="CDS1">
-        <v>1.7512402999999999E-2</v>
+        <v>-4.1183695488338223E-3</v>
       </c>
     </row>
   </sheetData>
